--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nesodden.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nesodden.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16802.2592</v>
+        <v>16174.02172</v>
       </c>
       <c r="C2">
-        <v>7353.0105</v>
+        <v>7193.467499999999</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>17010.609242000006</v>
+        <v>16412.387076</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7353.0105</v>
+        <v>7193.467499999999</v>
       </c>
       <c r="I2">
         <v>58</v>
       </c>
       <c r="J2">
-        <v>6318544</v>
+        <v>5775652</v>
       </c>
       <c r="K2">
         <v>96</v>
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16705.037599999996</v>
+        <v>16536.2035</v>
       </c>
       <c r="C3">
-        <v>7198.41208</v>
+        <v>7229.7165</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>16903.178008</v>
+        <v>16755.52795</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7198.41208</v>
+        <v>7229.7165</v>
       </c>
       <c r="I3">
         <v>58</v>
       </c>
       <c r="J3">
-        <v>6317710</v>
+        <v>5772039</v>
       </c>
       <c r="K3">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16346.930639999999</v>
+        <v>16492.554237766257</v>
       </c>
       <c r="C4">
-        <v>7259.42932</v>
+        <v>7290.590509525642</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>16541.953124</v>
+        <v>16692.22085183051</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7259.42932</v>
+        <v>7290.590509525642</v>
       </c>
       <c r="I4">
         <v>58</v>
       </c>
       <c r="J4">
-        <v>6321445</v>
+        <v>5771803</v>
       </c>
       <c r="K4">
         <v>96</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>16705.037599999996</v>
+        <v>16492.554237766257</v>
       </c>
       <c r="C5">
-        <v>7259.42932</v>
+        <v>7229.7165</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>16903.178008</v>
+        <v>16692.22085183051</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7259.42932</v>
+        <v>7229.7165</v>
       </c>
       <c r="I5">
         <v>58</v>
       </c>
       <c r="J5">
-        <v>6318544</v>
+        <v>5772039</v>
       </c>
       <c r="K5">
         <v>96</v>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>27600</v>
+        <v>31262</v>
       </c>
       <c r="F2">
-        <v>84068</v>
+        <v>87234</v>
       </c>
       <c r="G2">
-        <v>0.008026438799999999</v>
+        <v>0.009091396005999999</v>
       </c>
       <c r="H2">
-        <v>0.010573046640000002</v>
+        <v>0.0119758907268</v>
       </c>
     </row>
     <row r="3">
@@ -946,16 +946,16 @@
         <v>text/css</v>
       </c>
       <c r="E14">
-        <v>12040</v>
+        <v>12039</v>
       </c>
       <c r="F14">
         <v>90840</v>
       </c>
       <c r="G14">
-        <v>0.0035013885199999995</v>
+        <v>0.0035010977069999997</v>
       </c>
       <c r="H14">
-        <v>0.004612300056</v>
+        <v>0.0046119169746</v>
       </c>
     </row>
     <row r="15">
@@ -1154,16 +1154,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E22">
-        <v>147493</v>
+        <v>147299</v>
       </c>
       <c r="F22">
-        <v>434788</v>
+        <v>434300</v>
       </c>
       <c r="G22">
-        <v>0.04289288180899999</v>
+        <v>0.042836464086999995</v>
       </c>
       <c r="H22">
-        <v>0.056501824930200006</v>
+        <v>0.0564275071386</v>
       </c>
     </row>
     <row r="23">
@@ -1249,25 +1249,25 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i73272682-132b-4f0f-830f-087592084d52/w360/keb3802688b20/politiet.png</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i88bcb491-7670-4cc4-a4b6-af0772085659/w360/k3648069988b1/seniorkafe.jpg</v>
       </c>
       <c r="C26" t="str">
         <v>Image</v>
       </c>
       <c r="D26" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E26">
-        <v>109769</v>
+        <v>26730</v>
       </c>
       <c r="F26">
-        <v>109419</v>
+        <v>26378</v>
       </c>
       <c r="G26">
-        <v>0.031922252197</v>
+        <v>0.007773431489999999</v>
       </c>
       <c r="H26">
-        <v>0.042050462196600004</v>
+        <v>0.010239765822</v>
       </c>
     </row>
     <row r="27">
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ib9bf104c-bb18-47c0-81e6-3c96b42f70d9/w360/k31b0bd256094/laptop-photo-by-lara-far-on-unsplash.jpg</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i09125e6e-ce08-40a2-9ce0-5d4e636a3e45/w360/kafeaaaf7d9dc/apent-kontor-om-budsjett-2026.jpg</v>
       </c>
       <c r="C27" t="str">
         <v>Image</v>
@@ -1284,16 +1284,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E27">
-        <v>18862</v>
+        <v>26842</v>
       </c>
       <c r="F27">
-        <v>18484</v>
+        <v>26471</v>
       </c>
       <c r="G27">
-        <v>0.005485314805999999</v>
+        <v>0.007806002545999999</v>
       </c>
       <c r="H27">
-        <v>0.0072256813668</v>
+        <v>0.010282670938800002</v>
       </c>
     </row>
     <row r="28">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ic1e8c7dc-0043-451d-b720-f4eeae86106c/w360/q17225/k778ef0ef5d8b/veslemoy-og-barna.jpg</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/iac097c41-f4ae-4970-9a3e-3d2d561ce7e1/w360/q17249/ke99a1756ece1/oksvalveien_nes_00344.jpg</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1310,16 +1310,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E28">
-        <v>21776</v>
+        <v>15278</v>
       </c>
       <c r="F28">
-        <v>21417</v>
+        <v>14915</v>
       </c>
       <c r="G28">
-        <v>0.006332743887999999</v>
+        <v>0.004443041014</v>
       </c>
       <c r="H28">
-        <v>0.008341980566400002</v>
+        <v>0.0058527176292</v>
       </c>
     </row>
     <row r="29">
@@ -2107,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
+        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
       </c>
       <c r="C59" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D59" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E59">
-        <v>681</v>
+        <v>24660</v>
       </c>
       <c r="F59">
-        <v>371</v>
+        <v>154875</v>
       </c>
       <c r="G59">
-        <v>0.00019804365299999995</v>
+        <v>0.007171448579999999</v>
       </c>
       <c r="H59">
-        <v>0.00026087843340000006</v>
+        <v>0.009446787324000002</v>
       </c>
     </row>
     <row r="60">
@@ -2133,25 +2133,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/IDbe1INxdWFJEum2tiwF_YCf0TosGHgAjGeK4rxY1DBAam2x2stlHXVo-fLVYqM6VCe9lXWy1mDNLsG9EJv_o9H01l3KoLOdpT7-SvbT61K7Pn0tft-7DiSkJZPTUtgesKsgdLwbB9MSJega38fCClwHYgefxPM7tfy6ivgo0sU/data/Uttrekk?payload=</v>
+        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
       </c>
       <c r="C60" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D60" t="str">
-        <v>text/html</v>
+        <v>text/javascript</v>
       </c>
       <c r="E60">
-        <v>4844</v>
+        <v>57462</v>
       </c>
       <c r="F60">
-        <v>46601</v>
+        <v>159622</v>
       </c>
       <c r="G60">
-        <v>0.0014086981719999999</v>
+        <v>0.016710696605999997</v>
       </c>
       <c r="H60">
-        <v>0.0018556463016000003</v>
+        <v>0.022012623406800002</v>
       </c>
     </row>
     <row r="61">
@@ -2159,25 +2159,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
+        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
       </c>
       <c r="C61" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D61" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E61">
-        <v>182658</v>
+        <v>955</v>
       </c>
       <c r="F61">
-        <v>182292</v>
+        <v>1068</v>
       </c>
       <c r="G61">
-        <v>0.053119320953999995</v>
+        <v>0.00027772641499999997</v>
       </c>
       <c r="H61">
-        <v>0.06997288236120001</v>
+        <v>0.000365842737</v>
       </c>
     </row>
     <row r="62">
@@ -2185,25 +2185,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
+        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
       </c>
       <c r="C62" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D62" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E62">
-        <v>24660</v>
+        <v>15856</v>
       </c>
       <c r="F62">
-        <v>154875</v>
+        <v>37010</v>
       </c>
       <c r="G62">
-        <v>0.007171448579999999</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H62">
-        <v>0.009446787324000002</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
     <row r="63">
@@ -2211,25 +2211,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
+        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
       </c>
       <c r="C63" t="str">
         <v>Script</v>
       </c>
       <c r="D63" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E63">
-        <v>57436</v>
+        <v>108915</v>
       </c>
       <c r="F63">
-        <v>159622</v>
+        <v>288183</v>
       </c>
       <c r="G63">
-        <v>0.016703135467999997</v>
+        <v>0.031673897895</v>
       </c>
       <c r="H63">
-        <v>0.0220026632904</v>
+        <v>0.041723310681000006</v>
       </c>
     </row>
     <row r="64">
@@ -2237,25 +2237,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
+        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
       </c>
       <c r="C64" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D64" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E64">
-        <v>927</v>
+        <v>184</v>
       </c>
       <c r="F64">
-        <v>1068</v>
+        <v>15</v>
       </c>
       <c r="G64">
-        <v>0.00026958365099999994</v>
+        <v>0.00005350959199999999</v>
       </c>
       <c r="H64">
-        <v>0.00035511645780000005</v>
+        <v>0.0000704869776</v>
       </c>
     </row>
     <row r="65">
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
       </c>
       <c r="C65" t="str">
         <v>Script</v>
@@ -2272,16 +2272,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E65">
-        <v>15856</v>
+        <v>681</v>
       </c>
       <c r="F65">
-        <v>37010</v>
+        <v>371</v>
       </c>
       <c r="G65">
-        <v>0.0046111309279999995</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H65">
-        <v>0.006074138678400001</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="66">
@@ -2289,25 +2289,22 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763140910732&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=2112607870.1763140911&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105322304~115583767~115938465~115938469~116194002~116217636~116217638~116251935~116251937&amp;sid=1763140910&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=463</v>
       </c>
       <c r="C66" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D66" t="str">
-        <v>application/javascript</v>
+        <v>text/plain</v>
       </c>
       <c r="E66">
-        <v>108915</v>
-      </c>
-      <c r="F66">
-        <v>288183</v>
+        <v>554</v>
       </c>
       <c r="G66">
-        <v>0.031673897895</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H66">
-        <v>0.041723310681000006</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="67">
@@ -2315,25 +2312,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/RGlj9jiJ47vB2CwhVtwS-RmC6KMdIwP4zmV2E_Bi7kcia_yS3_REOP5psS1FPMZxblTNecTd0bn0mA5FrVd4YG5x2pBDaMUGtnfZlKiBLEnFYLQdljYpumVTeacrhIPFu46dr_-OXwaMv1qtD81VfKNIaXfHEUm3EpZYUBECzTM/data/Uttrekk?payload=</v>
       </c>
       <c r="C67" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D67" t="str">
-        <v>text/css</v>
+        <v>text/html</v>
       </c>
       <c r="E67">
-        <v>212</v>
+        <v>4854</v>
       </c>
       <c r="F67">
-        <v>15</v>
+        <v>45322</v>
       </c>
       <c r="G67">
-        <v>0.000061652356</v>
+        <v>0.0014116063019999998</v>
       </c>
       <c r="H67">
-        <v>0.00008121325679999999</v>
+        <v>0.0018594771156000003</v>
       </c>
     </row>
     <row r="68">
@@ -2341,22 +2338,25 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5ba0h2v9198259988za200zd9198259988&amp;_p=1762814212305&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1349675826.1762814212&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528500~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1762814212&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=467</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
       </c>
       <c r="C68" t="str">
-        <v>Fetch</v>
+        <v>Font</v>
       </c>
       <c r="D68" t="str">
-        <v>text/plain</v>
+        <v>font/woff2</v>
       </c>
       <c r="E68">
-        <v>554</v>
+        <v>182659</v>
+      </c>
+      <c r="F68">
+        <v>182292</v>
       </c>
       <c r="G68">
-        <v>0.00016111040199999997</v>
+        <v>0.05311961176699999</v>
       </c>
       <c r="H68">
-        <v>0.0002122270956</v>
+        <v>0.0699732654426</v>
       </c>
     </row>
     <row r="69">
@@ -2364,25 +2364,25 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/config</v>
+        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
       </c>
       <c r="C69" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D69" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E69">
-        <v>551</v>
+        <v>89447</v>
       </c>
       <c r="F69">
-        <v>387</v>
+        <v>89300</v>
       </c>
       <c r="G69">
-        <v>0.00016023796299999998</v>
+        <v>0.026012350410999998</v>
       </c>
       <c r="H69">
-        <v>0.00021107785140000003</v>
+        <v>0.034265481985800005</v>
       </c>
     </row>
     <row r="70">
@@ -2390,25 +2390,25 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-no.json</v>
+        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
       </c>
       <c r="C70" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D70" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E70">
-        <v>931</v>
+        <v>98970</v>
       </c>
       <c r="F70">
-        <v>841</v>
+        <v>98590</v>
       </c>
       <c r="G70">
-        <v>0.00027074690299999996</v>
+        <v>0.028781762609999997</v>
       </c>
       <c r="H70">
-        <v>0.0003566487834</v>
+        <v>0.037913566158000005</v>
       </c>
     </row>
     <row r="71">
@@ -2416,25 +2416,25 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-en-gb.json</v>
+        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
       </c>
       <c r="C71" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D71" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E71">
-        <v>1282</v>
+        <v>28025</v>
       </c>
       <c r="F71">
-        <v>1245</v>
+        <v>27933</v>
       </c>
       <c r="G71">
-        <v>0.00037282226599999994</v>
+        <v>0.008150034325</v>
       </c>
       <c r="H71">
-        <v>0.0004911103548</v>
+        <v>0.010735856234999999</v>
       </c>
     </row>
     <row r="72">
@@ -2442,25 +2442,25 @@
         <v>1</v>
       </c>
       <c r="B72" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/live/788</v>
+        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
       </c>
       <c r="C72" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D72" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E72">
-        <v>15244</v>
+        <v>491300</v>
       </c>
       <c r="F72">
-        <v>15172</v>
+        <v>490953</v>
       </c>
       <c r="G72">
-        <v>0.004433153371999999</v>
+        <v>0.14287642689999996</v>
       </c>
       <c r="H72">
-        <v>0.0058396928616</v>
+        <v>0.18820789182</v>
       </c>
     </row>
     <row r="73">
@@ -2468,25 +2468,25 @@
         <v>1</v>
       </c>
       <c r="B73" t="str">
-        <v>https://entitlements.jwplayer.com/1ccJYo6aEeWYJRKCk4Wcgw.json</v>
+        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
       </c>
       <c r="C73" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D73" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E73">
-        <v>429</v>
+        <v>71826</v>
       </c>
       <c r="F73">
-        <v>128</v>
+        <v>71706</v>
       </c>
       <c r="G73">
-        <v>0.00012475877699999997</v>
+        <v>0.020887934537999996</v>
       </c>
       <c r="H73">
-        <v>0.00016434192060000002</v>
+        <v>0.027515204636400004</v>
       </c>
     </row>
     <row r="74">
@@ -2494,25 +2494,25 @@
         <v>1</v>
       </c>
       <c r="B74" t="str">
-        <v>https://nesodden.kommunetv.no/assets/js/ovpcam-plugin.js</v>
+        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
       </c>
       <c r="C74" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D74" t="str">
-        <v>application/javascript</v>
+        <v>image/avif</v>
       </c>
       <c r="E74">
-        <v>2100</v>
+        <v>24768</v>
       </c>
       <c r="F74">
-        <v>5588</v>
+        <v>24675</v>
       </c>
       <c r="G74">
-        <v>0.0006107072999999999</v>
+        <v>0.007202856383999999</v>
       </c>
       <c r="H74">
-        <v>0.0008044709399999999</v>
+        <v>0.009488160115200001</v>
       </c>
     </row>
     <row r="75">
@@ -2520,25 +2520,25 @@
         <v>1</v>
       </c>
       <c r="B75" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwpsrv.js</v>
+        <v>https://nesodden.kommunetv.no/api/embed/config</v>
       </c>
       <c r="C75" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D75" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E75">
-        <v>17821</v>
+        <v>552</v>
       </c>
       <c r="F75">
-        <v>67288</v>
+        <v>387</v>
       </c>
       <c r="G75">
-        <v>0.005182578472999999</v>
+        <v>0.00016052877599999997</v>
       </c>
       <c r="H75">
-        <v>0.006826893629400001</v>
+        <v>0.00021146093280000001</v>
       </c>
     </row>
     <row r="76">
@@ -2546,25 +2546,25 @@
         <v>1</v>
       </c>
       <c r="B76" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwplayer.core.controls.js</v>
+        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-no.json</v>
       </c>
       <c r="C76" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D76" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E76">
-        <v>76130</v>
+        <v>931</v>
       </c>
       <c r="F76">
-        <v>337761</v>
+        <v>841</v>
       </c>
       <c r="G76">
-        <v>0.022139593689999997</v>
+        <v>0.00027074690299999996</v>
       </c>
       <c r="H76">
-        <v>0.029163986982000005</v>
+        <v>0.0003566487834</v>
       </c>
     </row>
     <row r="77">
@@ -2572,25 +2572,25 @@
         <v>1</v>
       </c>
       <c r="B77" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.hlsjs.js</v>
+        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-en-gb.json</v>
       </c>
       <c r="C77" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D77" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E77">
-        <v>142436</v>
+        <v>1282</v>
       </c>
       <c r="F77">
-        <v>574585</v>
+        <v>1245</v>
       </c>
       <c r="G77">
-        <v>0.04142224046799999</v>
+        <v>0.00037282226599999994</v>
       </c>
       <c r="H77">
-        <v>0.054564582290399996</v>
+        <v>0.0004911103548</v>
       </c>
     </row>
     <row r="78">
@@ -2598,25 +2598,25 @@
         <v>1</v>
       </c>
       <c r="B78" t="str">
-        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/api/embed/live/788</v>
       </c>
       <c r="C78" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D78" t="str">
-        <v>image/avif</v>
+        <v>application/json</v>
       </c>
       <c r="E78">
-        <v>89430</v>
+        <v>15245</v>
       </c>
       <c r="F78">
-        <v>89300</v>
+        <v>15172</v>
       </c>
       <c r="G78">
-        <v>0.026007406589999997</v>
+        <v>0.004433444185</v>
       </c>
       <c r="H78">
-        <v>0.034258969602000006</v>
+        <v>0.005840075943000001</v>
       </c>
     </row>
     <row r="79">
@@ -2624,25 +2624,25 @@
         <v>1</v>
       </c>
       <c r="B79" t="str">
-        <v>https://ucarecdn.com/40f5434a-9b0c-4480-a8a4-e84c042eb158/-/crop/720x197/0,340/-/preview/</v>
+        <v>https://entitlements.jwplayer.com/1ccJYo6aEeWYJRKCk4Wcgw.json</v>
       </c>
       <c r="C79" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D79" t="str">
-        <v>image/avif</v>
+        <v>application/json</v>
       </c>
       <c r="E79">
-        <v>39533</v>
+        <v>432</v>
       </c>
       <c r="F79">
-        <v>39190</v>
+        <v>128</v>
       </c>
       <c r="G79">
-        <v>0.011496710329</v>
+        <v>0.000125631216</v>
       </c>
       <c r="H79">
-        <v>0.015144356986200001</v>
+        <v>0.0001654911648</v>
       </c>
     </row>
     <row r="80">
@@ -2650,25 +2650,25 @@
         <v>1</v>
       </c>
       <c r="B80" t="str">
-        <v>https://ucarecdn.com/9d6f5633-0e3c-4304-b282-56194fd18e64/-/crop/1587x434/0,170/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/assets/js/ovpcam-plugin.js</v>
       </c>
       <c r="C80" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D80" t="str">
-        <v>image/avif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E80">
-        <v>10241</v>
+        <v>2100</v>
       </c>
       <c r="F80">
-        <v>10157</v>
+        <v>5588</v>
       </c>
       <c r="G80">
-        <v>0.0029782159329999995</v>
+        <v>0.0006107072999999999</v>
       </c>
       <c r="H80">
-        <v>0.003923136617400001</v>
+        <v>0.0008044709399999999</v>
       </c>
     </row>
     <row r="81">
@@ -2676,25 +2676,25 @@
         <v>1</v>
       </c>
       <c r="B81" t="str">
-        <v>https://ucarecdn.com/5b847978-d275-4850-8e90-341e225f0882/-/crop/1280x348/0,289/-/preview/</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwpsrv.js</v>
       </c>
       <c r="C81" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D81" t="str">
-        <v>image/avif</v>
+        <v>text/javascript</v>
       </c>
       <c r="E81">
-        <v>93066</v>
+        <v>17820</v>
       </c>
       <c r="F81">
-        <v>92919</v>
+        <v>67288</v>
       </c>
       <c r="G81">
-        <v>0.027064802657999997</v>
+        <v>0.005182287659999999</v>
       </c>
       <c r="H81">
-        <v>0.03565185357240001</v>
+        <v>0.006826510547999999</v>
       </c>
     </row>
     <row r="82">
@@ -2702,25 +2702,25 @@
         <v>1</v>
       </c>
       <c r="B82" t="str">
-        <v>https://ucarecdn.com/a47e5692-3e5b-4774-ae29-1a97c5c9255a/-/crop/2048x559/0,857/-/preview/</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwplayer.core.controls.js</v>
       </c>
       <c r="C82" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D82" t="str">
-        <v>image/avif</v>
+        <v>text/javascript</v>
       </c>
       <c r="E82">
-        <v>227313</v>
+        <v>76130</v>
       </c>
       <c r="F82">
-        <v>227103</v>
+        <v>337761</v>
       </c>
       <c r="G82">
-        <v>0.06610557546899998</v>
+        <v>0.022139593689999997</v>
       </c>
       <c r="H82">
-        <v>0.08707938227820002</v>
+        <v>0.029163986982000005</v>
       </c>
     </row>
     <row r="83">
@@ -2728,25 +2728,25 @@
         <v>1</v>
       </c>
       <c r="B83" t="str">
-        <v>https://ucarecdn.com/695e5769-d9c2-46d9-a24d-6d4da9c6aa0b/-/crop/3905x2045/0,955/-/preview/</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.hlsjs.js</v>
       </c>
       <c r="C83" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D83" t="str">
-        <v>image/avif</v>
+        <v>text/javascript</v>
       </c>
       <c r="E83">
-        <v>809587</v>
+        <v>142436</v>
       </c>
       <c r="F83">
-        <v>809057</v>
+        <v>574585</v>
       </c>
       <c r="G83">
-        <v>0.23543842423099998</v>
+        <v>0.04142224046799999</v>
       </c>
       <c r="H83">
-        <v>0.31013772138179996</v>
+        <v>0.054564582290399996</v>
       </c>
     </row>
     <row r="84">
@@ -2763,16 +2763,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E84">
-        <v>9240</v>
+        <v>9358</v>
       </c>
       <c r="F84">
         <v>31503</v>
       </c>
       <c r="G84">
-        <v>0.0026871121199999997</v>
+        <v>0.002721428054</v>
       </c>
       <c r="H84">
-        <v>0.003539672136</v>
+        <v>0.0035848757412</v>
       </c>
     </row>
     <row r="85">
@@ -2789,16 +2789,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E85">
-        <v>21942</v>
+        <v>21825</v>
       </c>
       <c r="F85">
         <v>105743</v>
       </c>
       <c r="G85">
-        <v>0.006381018845999999</v>
+        <v>0.006346993724999999</v>
       </c>
       <c r="H85">
-        <v>0.008405572078800001</v>
+        <v>0.008360751555</v>
       </c>
     </row>
     <row r="86">
@@ -2815,16 +2815,16 @@
         <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E86">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F86">
         <v>135</v>
       </c>
       <c r="G86">
-        <v>0.000136972923</v>
+        <v>0.00013639129699999998</v>
       </c>
       <c r="H86">
-        <v>0.00018043133940000001</v>
+        <v>0.0001796651766</v>
       </c>
     </row>
     <row r="87">
@@ -2893,16 +2893,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E89">
-        <v>56898</v>
+        <v>56889</v>
       </c>
       <c r="F89">
         <v>56773</v>
       </c>
       <c r="G89">
-        <v>0.016546678074</v>
+        <v>0.016544060756999997</v>
       </c>
       <c r="H89">
-        <v>0.021796565497200004</v>
+        <v>0.0217931177646</v>
       </c>
     </row>
     <row r="90">
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w664347714_b1590968_ps198000_pd1572000.m3u8</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w521604343_b1590968_ps198000_pd1572000.m3u8</v>
       </c>
       <c r="C91" t="str">
         <v>XHR</v>
@@ -2945,16 +2945,16 @@
         <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E91">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F91">
         <v>10407</v>
       </c>
       <c r="G91">
-        <v>0.00018263056399999997</v>
+        <v>0.00018292137699999996</v>
       </c>
       <c r="H91">
-        <v>0.0002405751192</v>
+        <v>0.00024095820060000004</v>
       </c>
     </row>
     <row r="92">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w664347714_b1590968_ps198000_pd1572000_0.ts</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w521604343_b1590968_ps198000_pd1572000_0.ts</v>
       </c>
       <c r="C94" t="str">
         <v>XHR</v>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="str">
-        <v>blob:https://nesodden.kommunetv.no/ecb021af-dd89-4cd2-81d3-7906c92f69e8</v>
+        <v>blob:https://nesodden.kommunetv.no/776aea00-0b9a-41f0-9f8c-6f957dce579b</v>
       </c>
       <c r="C95" t="str">
         <v>Script</v>
@@ -3127,16 +3127,16 @@
         <v>text/html</v>
       </c>
       <c r="E98">
-        <v>27566</v>
+        <v>27531</v>
       </c>
       <c r="F98">
-        <v>84068</v>
+        <v>84003</v>
       </c>
       <c r="G98">
-        <v>0.008016551157999999</v>
+        <v>0.008006372702999998</v>
       </c>
       <c r="H98">
-        <v>0.010560021872400002</v>
+        <v>0.0105466140234</v>
       </c>
     </row>
     <row r="99">
@@ -3361,16 +3361,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E107">
-        <v>4362</v>
+        <v>5154</v>
       </c>
       <c r="F107">
         <v>10057</v>
       </c>
       <c r="G107">
-        <v>0.0012685263059999997</v>
+        <v>0.001498850202</v>
       </c>
       <c r="H107">
-        <v>0.0016710010667999999</v>
+        <v>0.0019744015356</v>
       </c>
     </row>
     <row r="108">
@@ -3439,16 +3439,16 @@
         <v>text/css</v>
       </c>
       <c r="E110">
-        <v>12040</v>
+        <v>12039</v>
       </c>
       <c r="F110">
         <v>90840</v>
       </c>
       <c r="G110">
-        <v>0.0035013885199999995</v>
+        <v>0.0035010977069999997</v>
       </c>
       <c r="H110">
-        <v>0.004612300056</v>
+        <v>0.0046119169746</v>
       </c>
     </row>
     <row r="111">
@@ -3647,16 +3647,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E118">
-        <v>147491</v>
+        <v>147289</v>
       </c>
       <c r="F118">
-        <v>434788</v>
+        <v>434263</v>
       </c>
       <c r="G118">
-        <v>0.042892300183</v>
+        <v>0.042833555956999995</v>
       </c>
       <c r="H118">
-        <v>0.0565010587674</v>
+        <v>0.056423676324600006</v>
       </c>
     </row>
     <row r="119">
@@ -3742,25 +3742,25 @@
         <v>2</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i73272682-132b-4f0f-830f-087592084d52/w360/keb3802688b20/politiet.png</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i88bcb491-7670-4cc4-a4b6-af0772085659/w360/k3648069988b1/seniorkafe.jpg</v>
       </c>
       <c r="C122" t="str">
         <v>Image</v>
       </c>
       <c r="D122" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E122">
-        <v>109769</v>
+        <v>26730</v>
       </c>
       <c r="F122">
-        <v>109419</v>
+        <v>26378</v>
       </c>
       <c r="G122">
-        <v>0.031922252197</v>
+        <v>0.007773431489999999</v>
       </c>
       <c r="H122">
-        <v>0.042050462196600004</v>
+        <v>0.010239765822</v>
       </c>
     </row>
     <row r="123">
@@ -3768,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ib9bf104c-bb18-47c0-81e6-3c96b42f70d9/w360/k31b0bd256094/laptop-photo-by-lara-far-on-unsplash.jpg</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i09125e6e-ce08-40a2-9ce0-5d4e636a3e45/w360/kafeaaaf7d9dc/apent-kontor-om-budsjett-2026.jpg</v>
       </c>
       <c r="C123" t="str">
         <v>Image</v>
@@ -3777,16 +3777,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E123">
-        <v>18862</v>
+        <v>26842</v>
       </c>
       <c r="F123">
-        <v>18484</v>
+        <v>26471</v>
       </c>
       <c r="G123">
-        <v>0.005485314805999999</v>
+        <v>0.007806002545999999</v>
       </c>
       <c r="H123">
-        <v>0.0072256813668</v>
+        <v>0.010282670938800002</v>
       </c>
     </row>
     <row r="124">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ic1e8c7dc-0043-451d-b720-f4eeae86106c/w360/q17225/k778ef0ef5d8b/veslemoy-og-barna.jpg</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/iac097c41-f4ae-4970-9a3e-3d2d561ce7e1/w360/q17249/ke99a1756ece1/oksvalveien_nes_00344.jpg</v>
       </c>
       <c r="C124" t="str">
         <v>Image</v>
@@ -3803,16 +3803,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E124">
-        <v>21776</v>
+        <v>15278</v>
       </c>
       <c r="F124">
-        <v>21417</v>
+        <v>14915</v>
       </c>
       <c r="G124">
-        <v>0.006332743887999999</v>
+        <v>0.004443041014</v>
       </c>
       <c r="H124">
-        <v>0.008341980566400002</v>
+        <v>0.0058527176292</v>
       </c>
     </row>
     <row r="125">
@@ -4635,16 +4635,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E156">
-        <v>57436</v>
+        <v>57440</v>
       </c>
       <c r="F156">
         <v>159622</v>
       </c>
       <c r="G156">
-        <v>0.016703135467999997</v>
+        <v>0.01670429872</v>
       </c>
       <c r="H156">
-        <v>0.0220026632904</v>
+        <v>0.022004195616</v>
       </c>
     </row>
     <row r="157">
@@ -4730,25 +4730,25 @@
         <v>2</v>
       </c>
       <c r="B160" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
+        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
       </c>
       <c r="C160" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D160" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E160">
-        <v>681</v>
+        <v>184</v>
       </c>
       <c r="F160">
-        <v>371</v>
+        <v>15</v>
       </c>
       <c r="G160">
-        <v>0.00019804365299999995</v>
+        <v>0.00005350959199999999</v>
       </c>
       <c r="H160">
-        <v>0.00026087843340000006</v>
+        <v>0.0000704869776</v>
       </c>
     </row>
     <row r="161">
@@ -4756,25 +4756,25 @@
         <v>2</v>
       </c>
       <c r="B161" t="str">
-        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
       </c>
       <c r="C161" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D161" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E161">
-        <v>184</v>
+        <v>681</v>
       </c>
       <c r="F161">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="G161">
-        <v>0.00005350959199999999</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H161">
-        <v>0.0000704869776</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="162">
@@ -4782,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/IDbe1INxdWFJEum2tiwF_YCf0TosGHgAjGeK4rxY1DBAam2x2stlHXVo-fLVYqM6VCe9lXWy1mDNLsG9EJv_o9H01l3KoLOdpT7-SvbT61K7Pn0tft-7DiSkJZPTUtgesKsgdLwbB9MSJega38fCClwHYgefxPM7tfy6ivgo0sU/data/Uttrekk?payload=</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/RGlj9jiJ47vB2CwhVtwS-RmC6KMdIwP4zmV2E_Bi7kcia_yS3_REOP5psS1FPMZxblTNecTd0bn0mA5FrVd4YG5x2pBDaMUGtnfZlKiBLEnFYLQdljYpumVTeacrhIPFu46dr_-OXwaMv1qtD81VfKNIaXfHEUm3EpZYUBECzTM/data/Uttrekk?payload=</v>
       </c>
       <c r="C162" t="str">
         <v>XHR</v>
@@ -4791,16 +4791,16 @@
         <v>text/html</v>
       </c>
       <c r="E162">
-        <v>4844</v>
+        <v>4854</v>
       </c>
       <c r="F162">
-        <v>46601</v>
+        <v>45322</v>
       </c>
       <c r="G162">
-        <v>0.0014086981719999999</v>
+        <v>0.0014116063019999998</v>
       </c>
       <c r="H162">
-        <v>0.0018556463016000003</v>
+        <v>0.0018594771156000003</v>
       </c>
     </row>
     <row r="163">
@@ -4808,22 +4808,25 @@
         <v>2</v>
       </c>
       <c r="B163" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5b71v9198259988za200zd9198259988&amp;_p=1762814226054&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1819773270.1762814226&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1762814226&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=399</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
       </c>
       <c r="C163" t="str">
-        <v>Fetch</v>
+        <v>Font</v>
       </c>
       <c r="D163" t="str">
-        <v>text/plain</v>
+        <v>font/woff2</v>
       </c>
       <c r="E163">
-        <v>554</v>
+        <v>182654</v>
+      </c>
+      <c r="F163">
+        <v>182292</v>
       </c>
       <c r="G163">
-        <v>0.00016111040199999997</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H163">
-        <v>0.0002122270956</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="164">
@@ -4831,25 +4834,22 @@
         <v>2</v>
       </c>
       <c r="B164" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763140925292&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1863315728.1763140925&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;sid=1763140925&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=416</v>
       </c>
       <c r="C164" t="str">
-        <v>Font</v>
+        <v>Fetch</v>
       </c>
       <c r="D164" t="str">
-        <v>font/woff2</v>
+        <v>text/plain</v>
       </c>
       <c r="E164">
-        <v>182658</v>
-      </c>
-      <c r="F164">
-        <v>182292</v>
+        <v>554</v>
       </c>
       <c r="G164">
-        <v>0.053119320953999995</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H164">
-        <v>0.06997288236120001</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="165">
@@ -4857,25 +4857,22 @@
         <v>2</v>
       </c>
       <c r="B165" t="str">
-        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
+        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.init&amp;eid=2&amp;u=AAAAAAAAAAAAAACA&amp;h=Ag&amp;tr=1ogtipmark.1ogt1pdatav2.1ccdgafirst.1setproductsettings.1ccdgaregscope.1ccdemdownload.1ccdemform.1ccdemoutboundclick.1ccdempageview.1ccdemscroll.1ccdemsitesearch.1ccdemvideo.1ccdconversionmarking.1ccdautoredact.1ccdgalast&amp;ti=2ogtipmark.2ogt1pdatav2.2ccdgafirst.2setproductsettings.2ccdgaregscope.2ccdemdownload.2ccdemform.2ccdemoutboundclick.2ccdempageview.2ccdemscroll.2ccdemsitesearch.2ccdemvideo.2ccdconversionmarking.2ccdautoredact.2ccdgalast&amp;z=0</v>
       </c>
       <c r="C165" t="str">
         <v>Image</v>
       </c>
       <c r="D165" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E165">
-        <v>89430</v>
-      </c>
-      <c r="F165">
-        <v>89300</v>
+        <v>49</v>
       </c>
       <c r="G165">
-        <v>0.026007406589999997</v>
+        <v>0.000014249836999999998</v>
       </c>
       <c r="H165">
-        <v>0.034258969602000006</v>
+        <v>0.000018770988600000004</v>
       </c>
     </row>
     <row r="166">
@@ -4883,25 +4880,22 @@
         <v>2</v>
       </c>
       <c r="B166" t="str">
-        <v>https://ucarecdn.com/40f5434a-9b0c-4480-a8a4-e84c042eb158/-/crop/720x197/0,340/-/preview/</v>
+        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.js&amp;eid=3&amp;u=AAAAAAAAAAAAAACA&amp;h=Ag&amp;tr=1gct&amp;ti=2gct&amp;z=0</v>
       </c>
       <c r="C166" t="str">
         <v>Image</v>
       </c>
       <c r="D166" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E166">
-        <v>39533</v>
-      </c>
-      <c r="F166">
-        <v>39190</v>
+        <v>59</v>
       </c>
       <c r="G166">
-        <v>0.011496710329</v>
+        <v>0.000017157966999999997</v>
       </c>
       <c r="H166">
-        <v>0.015144356986200001</v>
+        <v>0.0000226018026</v>
       </c>
     </row>
     <row r="167">
@@ -4909,25 +4903,22 @@
         <v>2</v>
       </c>
       <c r="B167" t="str">
-        <v>https://ucarecdn.com/9d6f5633-0e3c-4304-b282-56194fd18e64/-/crop/1587x434/0,170/-/preview/</v>
+        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtag.config&amp;eid=9&amp;u=AAAAAAAAAAAAACCA&amp;h=Ag&amp;epr=1G.2G&amp;z=0</v>
       </c>
       <c r="C167" t="str">
         <v>Image</v>
       </c>
       <c r="D167" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E167">
-        <v>10240</v>
-      </c>
-      <c r="F167">
-        <v>10157</v>
+        <v>49</v>
       </c>
       <c r="G167">
-        <v>0.0029779251199999997</v>
+        <v>0.000014249836999999998</v>
       </c>
       <c r="H167">
-        <v>0.003922753536000001</v>
+        <v>0.000018770988600000004</v>
       </c>
     </row>
     <row r="168">
@@ -4935,25 +4926,22 @@
         <v>2</v>
       </c>
       <c r="B168" t="str">
-        <v>https://ucarecdn.com/5b847978-d275-4850-8e90-341e225f0882/-/crop/1280x348/0,289/-/preview/</v>
+        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.dom&amp;eid=10&amp;u=AAAAAAAAAAAAACCA&amp;h=Ag&amp;z=0</v>
       </c>
       <c r="C168" t="str">
         <v>Image</v>
       </c>
       <c r="D168" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E168">
-        <v>93049</v>
-      </c>
-      <c r="F168">
-        <v>92919</v>
+        <v>49</v>
       </c>
       <c r="G168">
-        <v>0.027059858836999996</v>
+        <v>0.000014249836999999998</v>
       </c>
       <c r="H168">
-        <v>0.0356453411886</v>
+        <v>0.000018770988600000004</v>
       </c>
     </row>
     <row r="169">
@@ -4961,25 +4949,22 @@
         <v>2</v>
       </c>
       <c r="B169" t="str">
-        <v>https://ucarecdn.com/a47e5692-3e5b-4774-ae29-1a97c5c9255a/-/crop/2048x559/0,857/-/preview/</v>
+        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;e=gtm.init&amp;eid=2&amp;u=AAAAAAAAAAAAACCA&amp;h=Ag&amp;tr=5ogtipmark.5ogt1pdatav2.5ccdgafirst.5setproductsettings.5ccdgaregscope.5ccdemdownload.5ccdemform.5ccdemoutboundclick.5ccdempageview.5ccdemscroll.5ccdemsitesearch.5ccdemvideo.5ccdconversionmarking.5ccdautoredact.5ccdgalast&amp;ti=2ogtipmark.2ogt1pdatav2.2ccdgafirst.2setproductsettings.2ccdgaregscope.2ccdemdownload.2ccdemform.2ccdemoutboundclick.2ccdempageview.2ccdemscroll.2ccdemsitesearch.2ccdemvideo.2ccdconversionmarking.2ccdautoredact.2ccdgalast&amp;z=0</v>
       </c>
       <c r="C169" t="str">
         <v>Image</v>
       </c>
       <c r="D169" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E169">
-        <v>227326</v>
-      </c>
-      <c r="F169">
-        <v>227103</v>
+        <v>49</v>
       </c>
       <c r="G169">
-        <v>0.066109356038</v>
+        <v>0.000014249836999999998</v>
       </c>
       <c r="H169">
-        <v>0.0870843623364</v>
+        <v>0.000018770988600000004</v>
       </c>
     </row>
     <row r="170">
@@ -4987,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="str">
-        <v>https://ucarecdn.com/695e5769-d9c2-46d9-a24d-6d4da9c6aa0b/-/crop/3905x2045/0,955/-/preview/</v>
+        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
       </c>
       <c r="C170" t="str">
         <v>Image</v>
@@ -4996,16 +4981,16 @@
         <v>image/avif</v>
       </c>
       <c r="E170">
-        <v>809600</v>
+        <v>89430</v>
       </c>
       <c r="F170">
-        <v>809057</v>
+        <v>89300</v>
       </c>
       <c r="G170">
-        <v>0.23544220479999997</v>
+        <v>0.026007406589999997</v>
       </c>
       <c r="H170">
-        <v>0.31014270144</v>
+        <v>0.034258969602000006</v>
       </c>
     </row>
     <row r="171">
@@ -5013,25 +4998,25 @@
         <v>2</v>
       </c>
       <c r="B171" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/config</v>
+        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
       </c>
       <c r="C171" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D171" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E171">
-        <v>551</v>
+        <v>98728</v>
       </c>
       <c r="F171">
-        <v>387</v>
+        <v>98590</v>
       </c>
       <c r="G171">
-        <v>0.00016023796299999998</v>
+        <v>0.028711385863999996</v>
       </c>
       <c r="H171">
-        <v>0.00021107785140000003</v>
+        <v>0.0378208604592</v>
       </c>
     </row>
     <row r="172">
@@ -5039,25 +5024,25 @@
         <v>2</v>
       </c>
       <c r="B172" t="str">
-        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-no.json</v>
+        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
       </c>
       <c r="C172" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D172" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E172">
-        <v>931</v>
+        <v>28025</v>
       </c>
       <c r="F172">
-        <v>841</v>
+        <v>27933</v>
       </c>
       <c r="G172">
-        <v>0.00027074690299999996</v>
+        <v>0.008150034325</v>
       </c>
       <c r="H172">
-        <v>0.0003566487834</v>
+        <v>0.010735856234999999</v>
       </c>
     </row>
     <row r="173">
@@ -5065,25 +5050,25 @@
         <v>2</v>
       </c>
       <c r="B173" t="str">
-        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-en-gb.json</v>
+        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
       </c>
       <c r="C173" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D173" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E173">
-        <v>1282</v>
+        <v>491316</v>
       </c>
       <c r="F173">
-        <v>1245</v>
+        <v>490953</v>
       </c>
       <c r="G173">
-        <v>0.00037282226599999994</v>
+        <v>0.14288107990799997</v>
       </c>
       <c r="H173">
-        <v>0.0004911103548</v>
+        <v>0.18821402112240002</v>
       </c>
     </row>
     <row r="174">
@@ -5091,25 +5076,25 @@
         <v>2</v>
       </c>
       <c r="B174" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/live/788</v>
+        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
       </c>
       <c r="C174" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D174" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E174">
-        <v>15244</v>
+        <v>72068</v>
       </c>
       <c r="F174">
-        <v>15172</v>
+        <v>71706</v>
       </c>
       <c r="G174">
-        <v>0.004433153371999999</v>
+        <v>0.020958311283999997</v>
       </c>
       <c r="H174">
-        <v>0.0058396928616</v>
+        <v>0.027607910335200003</v>
       </c>
     </row>
     <row r="175">
@@ -5117,25 +5102,25 @@
         <v>2</v>
       </c>
       <c r="B175" t="str">
-        <v>https://entitlements.jwplayer.com/1ccJYo6aEeWYJRKCk4Wcgw.json</v>
+        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
       </c>
       <c r="C175" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D175" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E175">
-        <v>430</v>
+        <v>24768</v>
       </c>
       <c r="F175">
-        <v>128</v>
+        <v>24675</v>
       </c>
       <c r="G175">
-        <v>0.00012504959</v>
+        <v>0.007202856383999999</v>
       </c>
       <c r="H175">
-        <v>0.000164725002</v>
+        <v>0.009488160115200001</v>
       </c>
     </row>
     <row r="176">
@@ -5143,25 +5128,25 @@
         <v>2</v>
       </c>
       <c r="B176" t="str">
-        <v>https://nesodden.kommunetv.no/assets/js/ovpcam-plugin.js</v>
+        <v>https://nesodden.kommunetv.no/api/embed/config</v>
       </c>
       <c r="C176" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D176" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E176">
-        <v>2100</v>
+        <v>552</v>
       </c>
       <c r="F176">
-        <v>5588</v>
+        <v>387</v>
       </c>
       <c r="G176">
-        <v>0.0006107072999999999</v>
+        <v>0.00016052877599999997</v>
       </c>
       <c r="H176">
-        <v>0.0008044709399999999</v>
+        <v>0.00021146093280000001</v>
       </c>
     </row>
     <row r="177">
@@ -5169,25 +5154,25 @@
         <v>2</v>
       </c>
       <c r="B177" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwpsrv.js</v>
+        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-no.json</v>
       </c>
       <c r="C177" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D177" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E177">
-        <v>17821</v>
+        <v>931</v>
       </c>
       <c r="F177">
-        <v>67288</v>
+        <v>841</v>
       </c>
       <c r="G177">
-        <v>0.005182578472999999</v>
+        <v>0.00027074690299999996</v>
       </c>
       <c r="H177">
-        <v>0.006826893629400001</v>
+        <v>0.0003566487834</v>
       </c>
     </row>
     <row r="178">
@@ -5195,25 +5180,25 @@
         <v>2</v>
       </c>
       <c r="B178" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwplayer.core.controls.js</v>
+        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-en-gb.json</v>
       </c>
       <c r="C178" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D178" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E178">
-        <v>76130</v>
+        <v>1282</v>
       </c>
       <c r="F178">
-        <v>337761</v>
+        <v>1245</v>
       </c>
       <c r="G178">
-        <v>0.022139593689999997</v>
+        <v>0.00037282226599999994</v>
       </c>
       <c r="H178">
-        <v>0.029163986982000005</v>
+        <v>0.0004911103548</v>
       </c>
     </row>
     <row r="179">
@@ -5221,25 +5206,25 @@
         <v>2</v>
       </c>
       <c r="B179" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.hlsjs.js</v>
+        <v>https://nesodden.kommunetv.no/api/embed/live/788</v>
       </c>
       <c r="C179" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D179" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E179">
-        <v>142436</v>
+        <v>15245</v>
       </c>
       <c r="F179">
-        <v>574585</v>
+        <v>15172</v>
       </c>
       <c r="G179">
-        <v>0.04142224046799999</v>
+        <v>0.004433444185</v>
       </c>
       <c r="H179">
-        <v>0.054564582290399996</v>
+        <v>0.005840075943000001</v>
       </c>
     </row>
     <row r="180">
@@ -5247,25 +5232,25 @@
         <v>2</v>
       </c>
       <c r="B180" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
+        <v>https://entitlements.jwplayer.com/1ccJYo6aEeWYJRKCk4Wcgw.json</v>
       </c>
       <c r="C180" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D180" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E180">
-        <v>9240</v>
+        <v>430</v>
       </c>
       <c r="F180">
-        <v>31503</v>
+        <v>128</v>
       </c>
       <c r="G180">
-        <v>0.0026871121199999997</v>
+        <v>0.00012504959</v>
       </c>
       <c r="H180">
-        <v>0.003539672136</v>
+        <v>0.000164725002</v>
       </c>
     </row>
     <row r="181">
@@ -5273,25 +5258,25 @@
         <v>2</v>
       </c>
       <c r="B181" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
+        <v>https://nesodden.kommunetv.no/assets/js/ovpcam-plugin.js</v>
       </c>
       <c r="C181" t="str">
         <v>Script</v>
       </c>
       <c r="D181" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E181">
-        <v>21908</v>
+        <v>2100</v>
       </c>
       <c r="F181">
-        <v>105743</v>
+        <v>5588</v>
       </c>
       <c r="G181">
-        <v>0.0063711312039999995</v>
+        <v>0.0006107072999999999</v>
       </c>
       <c r="H181">
-        <v>0.008392547311200002</v>
+        <v>0.0008044709399999999</v>
       </c>
     </row>
     <row r="182">
@@ -5299,25 +5284,25 @@
         <v>2</v>
       </c>
       <c r="B182" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwpsrv.js</v>
       </c>
       <c r="C182" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D182" t="str">
-        <v>application/vnd.apple.mpegurl</v>
+        <v>text/javascript</v>
       </c>
       <c r="E182">
-        <v>472</v>
+        <v>17963</v>
       </c>
       <c r="F182">
-        <v>136</v>
+        <v>67288</v>
       </c>
       <c r="G182">
-        <v>0.00013726373599999998</v>
+        <v>0.005223873919</v>
       </c>
       <c r="H182">
-        <v>0.0001808144208</v>
+        <v>0.006881291188200001</v>
       </c>
     </row>
     <row r="183">
@@ -5325,25 +5310,25 @@
         <v>2</v>
       </c>
       <c r="B183" t="str">
-        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwplayer.core.controls.js</v>
       </c>
       <c r="C183" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D183" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E183">
-        <v>575</v>
+        <v>75960</v>
       </c>
       <c r="F183">
-        <v>461</v>
+        <v>337761</v>
       </c>
       <c r="G183">
-        <v>0.00016721747499999997</v>
+        <v>0.022090155479999995</v>
       </c>
       <c r="H183">
-        <v>0.00022027180500000003</v>
+        <v>0.029098863144</v>
       </c>
     </row>
     <row r="184">
@@ -5351,25 +5336,25 @@
         <v>2</v>
       </c>
       <c r="B184" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.hlsjs.js</v>
       </c>
       <c r="C184" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D184" t="str">
-        <v>image/png</v>
+        <v>text/javascript</v>
       </c>
       <c r="E184">
-        <v>5069</v>
+        <v>142457</v>
       </c>
       <c r="F184">
-        <v>4981</v>
+        <v>574585</v>
       </c>
       <c r="G184">
-        <v>0.0014741310969999997</v>
+        <v>0.04142834754099999</v>
       </c>
       <c r="H184">
-        <v>0.0019418396166000003</v>
+        <v>0.054572626999800006</v>
       </c>
     </row>
     <row r="185">
@@ -5377,25 +5362,25 @@
         <v>2</v>
       </c>
       <c r="B185" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
       </c>
       <c r="C185" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D185" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E185">
-        <v>56889</v>
+        <v>9240</v>
       </c>
       <c r="F185">
-        <v>56773</v>
+        <v>31503</v>
       </c>
       <c r="G185">
-        <v>0.016544060756999997</v>
+        <v>0.0026871121199999997</v>
       </c>
       <c r="H185">
-        <v>0.0217931177646</v>
+        <v>0.003539672136</v>
       </c>
     </row>
     <row r="186">
@@ -5403,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="str">
-        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
       </c>
       <c r="C186" t="str">
         <v>Script</v>
@@ -5412,16 +5397,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E186">
-        <v>2534</v>
+        <v>21825</v>
       </c>
       <c r="F186">
-        <v>4272</v>
+        <v>105743</v>
       </c>
       <c r="G186">
-        <v>0.0007369201419999998</v>
+        <v>0.006346993724999999</v>
       </c>
       <c r="H186">
-        <v>0.0009707282676</v>
+        <v>0.008360751555</v>
       </c>
     </row>
     <row r="187">
@@ -5429,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w1250211158_b1590968_ps198000_pd1572000.m3u8</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
       </c>
       <c r="C187" t="str">
         <v>XHR</v>
@@ -5438,16 +5423,16 @@
         <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E187">
-        <v>632</v>
+        <v>471</v>
       </c>
       <c r="F187">
-        <v>10565</v>
+        <v>136</v>
       </c>
       <c r="G187">
-        <v>0.00018379381599999999</v>
+        <v>0.000136972923</v>
       </c>
       <c r="H187">
-        <v>0.0002421074448</v>
+        <v>0.00018043133940000001</v>
       </c>
     </row>
     <row r="188">
@@ -5455,25 +5440,25 @@
         <v>2</v>
       </c>
       <c r="B188" t="str">
-        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
+        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
       </c>
       <c r="C188" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D188" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E188">
-        <v>12439</v>
+        <v>552</v>
       </c>
       <c r="F188">
-        <v>35946</v>
+        <v>461</v>
       </c>
       <c r="G188">
-        <v>0.0036174229069999998</v>
+        <v>0.00016052877599999997</v>
       </c>
       <c r="H188">
-        <v>0.0047651495346</v>
+        <v>0.00021146093280000001</v>
       </c>
     </row>
     <row r="189">
@@ -5481,25 +5466,25 @@
         <v>2</v>
       </c>
       <c r="B189" t="str">
-        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
+        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
       </c>
       <c r="C189" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D189" t="str">
-        <v>text/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E189">
-        <v>14110</v>
+        <v>5069</v>
       </c>
       <c r="F189">
-        <v>48448</v>
+        <v>4981</v>
       </c>
       <c r="G189">
-        <v>0.00410337143</v>
+        <v>0.0014741310969999997</v>
       </c>
       <c r="H189">
-        <v>0.005405278554</v>
+        <v>0.0019418396166000003</v>
       </c>
     </row>
     <row r="190">
@@ -5507,25 +5492,25 @@
         <v>2</v>
       </c>
       <c r="B190" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w1250211158_b1590968_ps198000_pd1572000_0.ts</v>
+        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
       </c>
       <c r="C190" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D190" t="str">
-        <v>video/mp2t</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E190">
-        <v>2089711</v>
+        <v>56898</v>
       </c>
       <c r="F190">
-        <v>2088492</v>
+        <v>56773</v>
       </c>
       <c r="G190">
-        <v>0.6077151250429998</v>
+        <v>0.016546678074</v>
       </c>
       <c r="H190">
-        <v>0.8005294154754001</v>
+        <v>0.021796565497200004</v>
       </c>
     </row>
     <row r="191">
@@ -5533,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="str">
-        <v>blob:https://nesodden.kommunetv.no/25233e5a-be60-4669-8bcf-fa5bd2156039</v>
+        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
       </c>
       <c r="C191" t="str">
         <v>Script</v>
@@ -5542,16 +5527,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E191">
-        <v>-1</v>
+        <v>2534</v>
       </c>
       <c r="F191">
-        <v>525144</v>
+        <v>4272</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>0.0007369201419999998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>0.0009707282676</v>
       </c>
     </row>
     <row r="192">
@@ -5559,25 +5544,25 @@
         <v>2</v>
       </c>
       <c r="B192" t="str">
-        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w1893766316_b1590968_ps198000_pd1572000.m3u8</v>
       </c>
       <c r="C192" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D192" t="str">
-        <v>image/jpeg</v>
+        <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E192">
-        <v>81679</v>
+        <v>634</v>
       </c>
       <c r="F192">
-        <v>81492</v>
+        <v>10565</v>
       </c>
       <c r="G192">
-        <v>0.023753315026999997</v>
+        <v>0.00018437544199999996</v>
       </c>
       <c r="H192">
-        <v>0.0312897056706</v>
+        <v>0.0002428736076</v>
       </c>
     </row>
     <row r="193">
@@ -5585,181 +5570,178 @@
         <v>2</v>
       </c>
       <c r="B193" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
+        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
       </c>
       <c r="C193" t="str">
-        <v>Other</v>
+        <v>Script</v>
       </c>
       <c r="D193" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E193">
-        <v>41128</v>
+        <v>12439</v>
       </c>
       <c r="F193">
-        <v>40771</v>
+        <v>35946</v>
       </c>
       <c r="G193">
-        <v>0.011960557063999998</v>
+        <v>0.0036174229069999998</v>
       </c>
       <c r="H193">
-        <v>0.0157553718192</v>
+        <v>0.0047651495346</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B194" t="str">
-        <v>https://www.nesodden.kommune.no/</v>
+        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
       </c>
       <c r="C194" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D194" t="str">
-        <v>text/html</v>
+        <v>text/javascript</v>
       </c>
       <c r="E194">
-        <v>31388</v>
+        <v>14110</v>
       </c>
       <c r="F194">
-        <v>87427</v>
+        <v>48448</v>
       </c>
       <c r="G194">
-        <v>0.009128038444</v>
+        <v>0.00410337143</v>
       </c>
       <c r="H194">
-        <v>0.012024158983200002</v>
+        <v>0.005405278554</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B195" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/css/default.css?v=17.9.4244</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w1893766316_b1590968_ps198000_pd1572000_0.ts</v>
       </c>
       <c r="C195" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D195" t="str">
-        <v>text/css</v>
+        <v>video/mp2t</v>
       </c>
       <c r="E195">
-        <v>27325</v>
+        <v>2089711</v>
       </c>
       <c r="F195">
-        <v>186882</v>
+        <v>2088492</v>
       </c>
       <c r="G195">
-        <v>0.007946465225</v>
+        <v>0.6077151250429998</v>
       </c>
       <c r="H195">
-        <v>0.010467699255</v>
+        <v>0.8005294154754001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B196" t="str">
-        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4244</v>
+        <v>blob:https://nesodden.kommunetv.no/257a0c2d-5b1b-4971-8220-61eaeb26fad2</v>
       </c>
       <c r="C196" t="str">
         <v>Script</v>
       </c>
       <c r="D196" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E196">
-        <v>24347</v>
+        <v>-1</v>
       </c>
       <c r="F196">
-        <v>80727</v>
+        <v>525144</v>
       </c>
       <c r="G196">
-        <v>0.007080424110999999</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>0.009326882845800001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B197" t="str">
-        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
+        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
       </c>
       <c r="C197" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D197" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E197">
-        <v>11999</v>
+        <v>81679</v>
       </c>
       <c r="F197">
-        <v>30599</v>
+        <v>81492</v>
       </c>
       <c r="G197">
-        <v>0.003489465187</v>
+        <v>0.023753315026999997</v>
       </c>
       <c r="H197">
-        <v>0.0045965937186</v>
+        <v>0.0312897056706</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B198" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
       </c>
       <c r="C198" t="str">
-        <v>Stylesheet</v>
+        <v>Other</v>
       </c>
       <c r="D198" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E198">
-        <v>530</v>
+        <v>41128</v>
       </c>
       <c r="F198">
-        <v>267</v>
+        <v>40771</v>
       </c>
       <c r="G198">
-        <v>0.00015413088999999998</v>
+        <v>0.011960557063999998</v>
       </c>
       <c r="H198">
-        <v>0.00020303314199999998</v>
+        <v>0.0157553718192</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B199" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
+        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.load&amp;eid=11&amp;u=AgAAAAAAAAAAACCA&amp;h=Ag&amp;z=0</v>
       </c>
       <c r="C199" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D199" t="str">
-        <v>text/css</v>
+        <v>text/html</v>
       </c>
       <c r="E199">
-        <v>850</v>
-      </c>
-      <c r="F199">
-        <v>1352</v>
+        <v>11</v>
       </c>
       <c r="G199">
-        <v>0.00024719105</v>
+        <v>0.0000031989429999999993</v>
       </c>
       <c r="H199">
-        <v>0.00032561919000000003</v>
+        <v>0.0000042138954</v>
       </c>
     </row>
     <row r="200">
@@ -5767,25 +5749,25 @@
         <v>3</v>
       </c>
       <c r="B200" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
+        <v>https://www.nesodden.kommune.no/</v>
       </c>
       <c r="C200" t="str">
-        <v>Stylesheet</v>
+        <v>Document</v>
       </c>
       <c r="D200" t="str">
-        <v>text/css</v>
+        <v>text/html</v>
       </c>
       <c r="E200">
-        <v>19904</v>
+        <v>27571</v>
       </c>
       <c r="F200">
-        <v>134048</v>
+        <v>84003</v>
       </c>
       <c r="G200">
-        <v>0.005788341951999999</v>
+        <v>0.008018005222999999</v>
       </c>
       <c r="H200">
-        <v>0.007624852185600002</v>
+        <v>0.010561937279400002</v>
       </c>
     </row>
     <row r="201">
@@ -5793,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="B201" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/css/default.css?v=17.9.4244</v>
       </c>
       <c r="C201" t="str">
         <v>Stylesheet</v>
@@ -5802,16 +5784,16 @@
         <v>text/css</v>
       </c>
       <c r="E201">
-        <v>1152</v>
+        <v>27325</v>
       </c>
       <c r="F201">
-        <v>3772</v>
+        <v>186882</v>
       </c>
       <c r="G201">
-        <v>0.00033501657599999997</v>
+        <v>0.007946465225</v>
       </c>
       <c r="H201">
-        <v>0.0004413097728</v>
+        <v>0.010467699255</v>
       </c>
     </row>
     <row r="202">
@@ -5819,7 +5801,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
+        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4244</v>
       </c>
       <c r="C202" t="str">
         <v>Script</v>
@@ -5828,16 +5810,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E202">
-        <v>43661</v>
+        <v>24347</v>
       </c>
       <c r="F202">
-        <v>97169</v>
+        <v>80727</v>
       </c>
       <c r="G202">
-        <v>0.012697186393</v>
+        <v>0.007080424110999999</v>
       </c>
       <c r="H202">
-        <v>0.016725717005400004</v>
+        <v>0.009326882845800001</v>
       </c>
     </row>
     <row r="203">
@@ -5845,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="B203" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
+        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
       </c>
       <c r="C203" t="str">
         <v>Script</v>
@@ -5854,16 +5836,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E203">
-        <v>4362</v>
+        <v>11999</v>
       </c>
       <c r="F203">
-        <v>10057</v>
+        <v>30599</v>
       </c>
       <c r="G203">
-        <v>0.0012685263059999997</v>
+        <v>0.003489465187</v>
       </c>
       <c r="H203">
-        <v>0.0016710010667999999</v>
+        <v>0.0045965937186</v>
       </c>
     </row>
     <row r="204">
@@ -5871,25 +5853,25 @@
         <v>3</v>
       </c>
       <c r="B204" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
       </c>
       <c r="C204" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D204" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E204">
-        <v>5322</v>
+        <v>530</v>
       </c>
       <c r="F204">
-        <v>13616</v>
+        <v>267</v>
       </c>
       <c r="G204">
-        <v>0.0015477067859999997</v>
+        <v>0.00015413088999999998</v>
       </c>
       <c r="H204">
-        <v>0.0020387592108</v>
+        <v>0.00020303314199999998</v>
       </c>
     </row>
     <row r="205">
@@ -5897,25 +5879,25 @@
         <v>3</v>
       </c>
       <c r="B205" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
       </c>
       <c r="C205" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D205" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E205">
-        <v>3123</v>
+        <v>850</v>
       </c>
       <c r="F205">
-        <v>8009</v>
+        <v>1352</v>
       </c>
       <c r="G205">
-        <v>0.0009082089989999999</v>
+        <v>0.00024719105</v>
       </c>
       <c r="H205">
-        <v>0.0011963632122000002</v>
+        <v>0.00032561919000000003</v>
       </c>
     </row>
     <row r="206">
@@ -5923,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="B206" t="str">
-        <v>https://www.nesodden.kommune.no/kunde/css/knapper/buttons.css</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
       </c>
       <c r="C206" t="str">
         <v>Stylesheet</v>
@@ -5932,16 +5914,16 @@
         <v>text/css</v>
       </c>
       <c r="E206">
-        <v>12040</v>
+        <v>19904</v>
       </c>
       <c r="F206">
-        <v>90840</v>
+        <v>134048</v>
       </c>
       <c r="G206">
-        <v>0.0035013885199999995</v>
+        <v>0.005788341951999999</v>
       </c>
       <c r="H206">
-        <v>0.004612300056</v>
+        <v>0.007624852185600002</v>
       </c>
     </row>
     <row r="207">
@@ -5949,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="str">
-        <v>https://www.nesodden.kommune.no/css/Knapper/button-icons.css</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
       </c>
       <c r="C207" t="str">
         <v>Stylesheet</v>
@@ -5958,16 +5940,16 @@
         <v>text/css</v>
       </c>
       <c r="E207">
-        <v>1109</v>
+        <v>1152</v>
       </c>
       <c r="F207">
-        <v>3044</v>
+        <v>3772</v>
       </c>
       <c r="G207">
-        <v>0.00032251161699999996</v>
+        <v>0.00033501657599999997</v>
       </c>
       <c r="H207">
-        <v>0.00042483727260000004</v>
+        <v>0.0004413097728</v>
       </c>
     </row>
     <row r="208">
@@ -5975,25 +5957,25 @@
         <v>3</v>
       </c>
       <c r="B208" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
       </c>
       <c r="C208" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D208" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E208">
-        <v>27600</v>
+        <v>43661</v>
       </c>
       <c r="F208">
-        <v>49533</v>
+        <v>97169</v>
       </c>
       <c r="G208">
-        <v>0.008026438799999999</v>
+        <v>0.012697186393</v>
       </c>
       <c r="H208">
-        <v>0.010573046640000002</v>
+        <v>0.016725717005400004</v>
       </c>
     </row>
     <row r="209">
@@ -6001,25 +5983,25 @@
         <v>3</v>
       </c>
       <c r="B209" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
       </c>
       <c r="C209" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D209" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E209">
-        <v>770</v>
+        <v>5154</v>
       </c>
       <c r="F209">
-        <v>1957</v>
+        <v>10057</v>
       </c>
       <c r="G209">
-        <v>0.00022392600999999996</v>
+        <v>0.001498850202</v>
       </c>
       <c r="H209">
-        <v>0.000294972678</v>
+        <v>0.0019744015356</v>
       </c>
     </row>
     <row r="210">
@@ -6027,25 +6009,25 @@
         <v>3</v>
       </c>
       <c r="B210" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
       </c>
       <c r="C210" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D210" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E210">
-        <v>6135</v>
+        <v>5322</v>
       </c>
       <c r="F210">
-        <v>43867</v>
+        <v>13616</v>
       </c>
       <c r="G210">
-        <v>0.001784137755</v>
+        <v>0.0015477067859999997</v>
       </c>
       <c r="H210">
-        <v>0.0023502043890000004</v>
+        <v>0.0020387592108</v>
       </c>
     </row>
     <row r="211">
@@ -6053,25 +6035,25 @@
         <v>3</v>
       </c>
       <c r="B211" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/css/STYLESHEET.css?v=v17.9.04244</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
       </c>
       <c r="C211" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D211" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E211">
-        <v>20833</v>
+        <v>3123</v>
       </c>
       <c r="F211">
-        <v>118476</v>
+        <v>8009</v>
       </c>
       <c r="G211">
-        <v>0.006058507228999999</v>
+        <v>0.0009082089989999999</v>
       </c>
       <c r="H211">
-        <v>0.007980734806199999</v>
+        <v>0.0011963632122000002</v>
       </c>
     </row>
     <row r="212">
@@ -6079,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="B212" t="str">
-        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.css</v>
+        <v>https://www.nesodden.kommune.no/kunde/css/knapper/buttons.css</v>
       </c>
       <c r="C212" t="str">
         <v>Stylesheet</v>
@@ -6088,16 +6070,16 @@
         <v>text/css</v>
       </c>
       <c r="E212">
-        <v>19902</v>
+        <v>12039</v>
       </c>
       <c r="F212">
-        <v>126379</v>
+        <v>90840</v>
       </c>
       <c r="G212">
-        <v>0.005787760325999999</v>
+        <v>0.0035010977069999997</v>
       </c>
       <c r="H212">
-        <v>0.007624086022799999</v>
+        <v>0.0046119169746</v>
       </c>
     </row>
     <row r="213">
@@ -6105,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="B213" t="str">
-        <v>https://www.nesodden.kommune.no/css/autoSuggest/autoSuggest.min.css?v=20230704</v>
+        <v>https://www.nesodden.kommune.no/css/Knapper/button-icons.css</v>
       </c>
       <c r="C213" t="str">
         <v>Stylesheet</v>
@@ -6114,16 +6096,16 @@
         <v>text/css</v>
       </c>
       <c r="E213">
-        <v>635</v>
+        <v>1109</v>
       </c>
       <c r="F213">
-        <v>300</v>
+        <v>3044</v>
       </c>
       <c r="G213">
-        <v>0.00018466625499999998</v>
+        <v>0.00032251161699999996</v>
       </c>
       <c r="H213">
-        <v>0.000243256689</v>
+        <v>0.00042483727260000004</v>
       </c>
     </row>
     <row r="214">
@@ -6131,25 +6113,25 @@
         <v>3</v>
       </c>
       <c r="B214" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-8WGX3H80ZM</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C214" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D214" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E214">
-        <v>147508</v>
+        <v>27600</v>
       </c>
       <c r="F214">
-        <v>434805</v>
+        <v>49533</v>
       </c>
       <c r="G214">
-        <v>0.042897244003999996</v>
+        <v>0.008026438799999999</v>
       </c>
       <c r="H214">
-        <v>0.0565075711512</v>
+        <v>0.010573046640000002</v>
       </c>
     </row>
     <row r="215">
@@ -6157,7 +6139,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="str">
-        <v>https://www.nesodden.kommune.no/css/css.ashx?style=artikkel</v>
+        <v>https://www.nesodden.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4244</v>
       </c>
       <c r="C215" t="str">
         <v>Stylesheet</v>
@@ -6166,16 +6148,16 @@
         <v>text/css</v>
       </c>
       <c r="E215">
-        <v>7053</v>
+        <v>770</v>
       </c>
       <c r="F215">
-        <v>21639</v>
+        <v>1957</v>
       </c>
       <c r="G215">
-        <v>0.002051104089</v>
+        <v>0.00022392600999999996</v>
       </c>
       <c r="H215">
-        <v>0.0027018731142</v>
+        <v>0.000294972678</v>
       </c>
     </row>
     <row r="216">
@@ -6183,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="str">
-        <v>https://www.nesodden.kommune.no/css/css.ashx?style=login</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C216" t="str">
         <v>Stylesheet</v>
@@ -6192,16 +6174,16 @@
         <v>text/css</v>
       </c>
       <c r="E216">
-        <v>3630</v>
+        <v>6135</v>
       </c>
       <c r="F216">
-        <v>5649</v>
+        <v>43867</v>
       </c>
       <c r="G216">
-        <v>0.0010556511899999998</v>
+        <v>0.001784137755</v>
       </c>
       <c r="H216">
-        <v>0.001390585482</v>
+        <v>0.0023502043890000004</v>
       </c>
     </row>
     <row r="217">
@@ -6209,25 +6191,25 @@
         <v>3</v>
       </c>
       <c r="B217" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i8b2b72d0-7ff3-4992-9fe9-89f4c3658913/8e4f7nesoddenkommune-logo.svg</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/css/STYLESHEET.css?v=v17.9.04244</v>
       </c>
       <c r="C217" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D217" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E217">
-        <v>9338</v>
+        <v>20833</v>
       </c>
       <c r="F217">
-        <v>8969</v>
+        <v>118476</v>
       </c>
       <c r="G217">
-        <v>0.0027156117939999996</v>
+        <v>0.006058507228999999</v>
       </c>
       <c r="H217">
-        <v>0.0035772141131999997</v>
+        <v>0.007980734806199999</v>
       </c>
     </row>
     <row r="218">
@@ -6235,25 +6217,25 @@
         <v>3</v>
       </c>
       <c r="B218" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i73272682-132b-4f0f-830f-087592084d52/w360/keb3802688b20/politiet.png</v>
+        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.css</v>
       </c>
       <c r="C218" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D218" t="str">
-        <v>image/png</v>
+        <v>text/css</v>
       </c>
       <c r="E218">
-        <v>109769</v>
+        <v>19902</v>
       </c>
       <c r="F218">
-        <v>109419</v>
+        <v>126379</v>
       </c>
       <c r="G218">
-        <v>0.031922252197</v>
+        <v>0.005787760325999999</v>
       </c>
       <c r="H218">
-        <v>0.042050462196600004</v>
+        <v>0.007624086022799999</v>
       </c>
     </row>
     <row r="219">
@@ -6261,25 +6243,25 @@
         <v>3</v>
       </c>
       <c r="B219" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ib9bf104c-bb18-47c0-81e6-3c96b42f70d9/w360/k31b0bd256094/laptop-photo-by-lara-far-on-unsplash.jpg</v>
+        <v>https://www.nesodden.kommune.no/css/autoSuggest/autoSuggest.min.css?v=20230704</v>
       </c>
       <c r="C219" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D219" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E219">
-        <v>18862</v>
+        <v>635</v>
       </c>
       <c r="F219">
-        <v>18484</v>
+        <v>300</v>
       </c>
       <c r="G219">
-        <v>0.005485314805999999</v>
+        <v>0.00018466625499999998</v>
       </c>
       <c r="H219">
-        <v>0.0072256813668</v>
+        <v>0.000243256689</v>
       </c>
     </row>
     <row r="220">
@@ -6287,25 +6269,25 @@
         <v>3</v>
       </c>
       <c r="B220" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ic1e8c7dc-0043-451d-b720-f4eeae86106c/w360/q17225/k778ef0ef5d8b/veslemoy-og-barna.jpg</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-8WGX3H80ZM</v>
       </c>
       <c r="C220" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D220" t="str">
-        <v>image/jpeg</v>
+        <v>application/javascript</v>
       </c>
       <c r="E220">
-        <v>21776</v>
+        <v>147289</v>
       </c>
       <c r="F220">
-        <v>21417</v>
+        <v>434263</v>
       </c>
       <c r="G220">
-        <v>0.006332743887999999</v>
+        <v>0.042833555956999995</v>
       </c>
       <c r="H220">
-        <v>0.008341980566400002</v>
+        <v>0.056423676324600006</v>
       </c>
     </row>
     <row r="221">
@@ -6313,25 +6295,25 @@
         <v>3</v>
       </c>
       <c r="B221" t="str">
-        <v>https://www.nesodden.kommune.no/WebResource.axd?d=McOdfAHWve3kUGRRQOgTR48p7lnaHyu3Lsl8PmkBYEvaIQqktJq4XNUfieN51VVSqSsOchOAZw7di8MhceiHJVmPQob3lYHjzS4UTMoM1Ho1&amp;t=638901608248157332</v>
+        <v>https://www.nesodden.kommune.no/css/css.ashx?style=artikkel</v>
       </c>
       <c r="C221" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D221" t="str">
-        <v>application/x-javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E221">
-        <v>6327</v>
+        <v>7053</v>
       </c>
       <c r="F221">
-        <v>23063</v>
+        <v>21639</v>
       </c>
       <c r="G221">
-        <v>0.0018399738509999998</v>
+        <v>0.002051104089</v>
       </c>
       <c r="H221">
-        <v>0.0024237560178</v>
+        <v>0.0027018731142</v>
       </c>
     </row>
     <row r="222">
@@ -6339,25 +6321,25 @@
         <v>3</v>
       </c>
       <c r="B222" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/assets/js/components/area-message/area-message.js</v>
+        <v>https://www.nesodden.kommune.no/css/css.ashx?style=login</v>
       </c>
       <c r="C222" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D222" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E222">
-        <v>2613</v>
+        <v>3630</v>
       </c>
       <c r="F222">
-        <v>11795</v>
+        <v>5649</v>
       </c>
       <c r="G222">
-        <v>0.0007598943689999999</v>
+        <v>0.0010556511899999998</v>
       </c>
       <c r="H222">
-        <v>0.0010009916982</v>
+        <v>0.001390585482</v>
       </c>
     </row>
     <row r="223">
@@ -6365,25 +6347,25 @@
         <v>3</v>
       </c>
       <c r="B223" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i8b2b72d0-7ff3-4992-9fe9-89f4c3658913/8e4f7nesoddenkommune-logo.svg</v>
       </c>
       <c r="C223" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D223" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E223">
-        <v>10148</v>
+        <v>9338</v>
       </c>
       <c r="F223">
-        <v>43086</v>
+        <v>8969</v>
       </c>
       <c r="G223">
-        <v>0.0029511703239999995</v>
+        <v>0.0027156117939999996</v>
       </c>
       <c r="H223">
-        <v>0.003887510047200001</v>
+        <v>0.0035772141131999997</v>
       </c>
     </row>
     <row r="224">
@@ -6391,25 +6373,25 @@
         <v>3</v>
       </c>
       <c r="B224" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i88bcb491-7670-4cc4-a4b6-af0772085659/w360/k3648069988b1/seniorkafe.jpg</v>
       </c>
       <c r="C224" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D224" t="str">
-        <v>text/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E224">
-        <v>1316</v>
+        <v>26730</v>
       </c>
       <c r="F224">
-        <v>3344</v>
+        <v>26378</v>
       </c>
       <c r="G224">
-        <v>0.00038270990799999996</v>
+        <v>0.007773431489999999</v>
       </c>
       <c r="H224">
-        <v>0.0005041351224</v>
+        <v>0.010239765822</v>
       </c>
     </row>
     <row r="225">
@@ -6417,25 +6399,25 @@
         <v>3</v>
       </c>
       <c r="B225" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.cookie.js</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i09125e6e-ce08-40a2-9ce0-5d4e636a3e45/w360/kafeaaaf7d9dc/apent-kontor-om-budsjett-2026.jpg</v>
       </c>
       <c r="C225" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D225" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E225">
-        <v>1210</v>
+        <v>26842</v>
       </c>
       <c r="F225">
-        <v>1576</v>
+        <v>26471</v>
       </c>
       <c r="G225">
-        <v>0.00035188372999999995</v>
+        <v>0.007806002545999999</v>
       </c>
       <c r="H225">
-        <v>0.0004635284940000001</v>
+        <v>0.010282670938800002</v>
       </c>
     </row>
     <row r="226">
@@ -6443,25 +6425,25 @@
         <v>3</v>
       </c>
       <c r="B226" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/js/scripts.js?v=v17.9.04244</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/iac097c41-f4ae-4970-9a3e-3d2d561ce7e1/w360/q17249/ke99a1756ece1/oksvalveien_nes_00344.jpg</v>
       </c>
       <c r="C226" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D226" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E226">
-        <v>1047</v>
+        <v>15278</v>
       </c>
       <c r="F226">
-        <v>1388</v>
+        <v>14915</v>
       </c>
       <c r="G226">
-        <v>0.00030448121099999997</v>
+        <v>0.004443041014</v>
       </c>
       <c r="H226">
-        <v>0.00040108622580000005</v>
+        <v>0.0058527176292</v>
       </c>
     </row>
     <row r="227">
@@ -6469,25 +6451,25 @@
         <v>3</v>
       </c>
       <c r="B227" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
+        <v>https://www.nesodden.kommune.no/WebResource.axd?d=McOdfAHWve3kUGRRQOgTR48p7lnaHyu3Lsl8PmkBYEvaIQqktJq4XNUfieN51VVSqSsOchOAZw7di8MhceiHJVmPQob3lYHjzS4UTMoM1Ho1&amp;t=638901608248157332</v>
       </c>
       <c r="C227" t="str">
         <v>Script</v>
       </c>
       <c r="D227" t="str">
-        <v>application/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E227">
-        <v>2595</v>
+        <v>6327</v>
       </c>
       <c r="F227">
-        <v>5038</v>
+        <v>23063</v>
       </c>
       <c r="G227">
-        <v>0.000754659735</v>
+        <v>0.0018399738509999998</v>
       </c>
       <c r="H227">
-        <v>0.000994096233</v>
+        <v>0.0024237560178</v>
       </c>
     </row>
     <row r="228">
@@ -6495,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/beredskap.js</v>
+        <v>https://www.nesodden.kommune.no/Maler/assets/js/components/area-message/area-message.js</v>
       </c>
       <c r="C228" t="str">
         <v>Script</v>
@@ -6504,16 +6486,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E228">
-        <v>2285</v>
+        <v>2613</v>
       </c>
       <c r="F228">
-        <v>4807</v>
+        <v>11795</v>
       </c>
       <c r="G228">
-        <v>0.000664507705</v>
+        <v>0.0007598943689999999</v>
       </c>
       <c r="H228">
-        <v>0.0008753409990000002</v>
+        <v>0.0010009916982</v>
       </c>
     </row>
     <row r="229">
@@ -6521,25 +6503,25 @@
         <v>3</v>
       </c>
       <c r="B229" t="str">
-        <v>https://www.nesodden.kommune.no/script/eventbus/eventbus.min.js</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C229" t="str">
         <v>Script</v>
       </c>
       <c r="D229" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E229">
-        <v>867</v>
+        <v>10148</v>
       </c>
       <c r="F229">
-        <v>1036</v>
+        <v>43086</v>
       </c>
       <c r="G229">
-        <v>0.00025213487099999993</v>
+        <v>0.0029511703239999995</v>
       </c>
       <c r="H229">
-        <v>0.0003321315738000001</v>
+        <v>0.003887510047200001</v>
       </c>
     </row>
     <row r="230">
@@ -6547,25 +6529,25 @@
         <v>3</v>
       </c>
       <c r="B230" t="str">
-        <v>https://www.nesodden.kommune.no/templates/design/assets/js/common.js?v=v17.9.04244</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C230" t="str">
         <v>Script</v>
       </c>
       <c r="D230" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E230">
-        <v>638</v>
+        <v>1316</v>
       </c>
       <c r="F230">
-        <v>309</v>
+        <v>3344</v>
       </c>
       <c r="G230">
-        <v>0.00018553869399999998</v>
+        <v>0.00038270990799999996</v>
       </c>
       <c r="H230">
-        <v>0.0002444059332</v>
+        <v>0.0005041351224</v>
       </c>
     </row>
     <row r="231">
@@ -6573,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="str">
-        <v>https://www.nesodden.kommune.no/script/vanilla/autosuggest/autosuggest.vanilla.js?v=20250710</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.cookie.js</v>
       </c>
       <c r="C231" t="str">
         <v>Script</v>
@@ -6582,16 +6564,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E231">
-        <v>4307</v>
+        <v>1210</v>
       </c>
       <c r="F231">
-        <v>15274</v>
+        <v>1576</v>
       </c>
       <c r="G231">
-        <v>0.001252531591</v>
+        <v>0.00035188372999999995</v>
       </c>
       <c r="H231">
-        <v>0.0016499315898</v>
+        <v>0.0004635284940000001</v>
       </c>
     </row>
     <row r="232">
@@ -6599,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/login.e9fcj.js</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/js/scripts.js?v=v17.9.04244</v>
       </c>
       <c r="C232" t="str">
         <v>Script</v>
@@ -6608,16 +6590,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E232">
-        <v>959</v>
+        <v>1047</v>
       </c>
       <c r="F232">
-        <v>1511</v>
+        <v>1388</v>
       </c>
       <c r="G232">
-        <v>0.000278889667</v>
+        <v>0.00030448121099999997</v>
       </c>
       <c r="H232">
-        <v>0.0003673750626</v>
+        <v>0.00040108622580000005</v>
       </c>
     </row>
     <row r="233">
@@ -6625,25 +6607,25 @@
         <v>3</v>
       </c>
       <c r="B233" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Inter:wght@400;500;600;700&amp;display=swap</v>
+        <v>https://www.nesodden.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
       </c>
       <c r="C233" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D233" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E233">
-        <v>862</v>
+        <v>2595</v>
       </c>
       <c r="F233">
-        <v>10028</v>
+        <v>5038</v>
       </c>
       <c r="G233">
-        <v>0.00025068080599999996</v>
+        <v>0.000754659735</v>
       </c>
       <c r="H233">
-        <v>0.00033021616680000007</v>
+        <v>0.000994096233</v>
       </c>
     </row>
     <row r="234">
@@ -6651,25 +6633,25 @@
         <v>3</v>
       </c>
       <c r="B234" t="str">
-        <v>https://fonts.googleapis.com/icon?family=Material+Icons|Material+Icons+Outlined|Material+Icons+Round</v>
+        <v>https://www.nesodden.kommune.no/script/js/beredskap.js</v>
       </c>
       <c r="C234" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D234" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E234">
-        <v>961</v>
+        <v>2285</v>
       </c>
       <c r="F234">
-        <v>1803</v>
+        <v>4807</v>
       </c>
       <c r="G234">
-        <v>0.00027947129299999996</v>
+        <v>0.000664507705</v>
       </c>
       <c r="H234">
-        <v>0.0003681412254</v>
+        <v>0.0008753409990000002</v>
       </c>
     </row>
     <row r="235">
@@ -6677,25 +6659,25 @@
         <v>3</v>
       </c>
       <c r="B235" t="str">
-        <v>https://nesodden.kommunetv.no/embed/live/788</v>
+        <v>https://www.nesodden.kommune.no/script/eventbus/eventbus.min.js</v>
       </c>
       <c r="C235" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D235" t="str">
-        <v>text/html</v>
+        <v>application/javascript</v>
       </c>
       <c r="E235">
-        <v>1006</v>
+        <v>867</v>
       </c>
       <c r="F235">
-        <v>1083</v>
+        <v>1036</v>
       </c>
       <c r="G235">
-        <v>0.000292557878</v>
+        <v>0.00025213487099999993</v>
       </c>
       <c r="H235">
-        <v>0.0003853798884</v>
+        <v>0.0003321315738000001</v>
       </c>
     </row>
     <row r="236">
@@ -6703,25 +6685,25 @@
         <v>3</v>
       </c>
       <c r="B236" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/e1/i07c5c0d4-f442-4159-bfbb-130598b0d0ac/w1920/h1080/k21ea8859e35b/nesoddtangen-brygge-2-foto-anja-antonsen.jpg</v>
+        <v>https://www.nesodden.kommune.no/templates/design/assets/js/common.js?v=v17.9.04244</v>
       </c>
       <c r="C236" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D236" t="str">
-        <v>image/jpeg</v>
+        <v>application/javascript</v>
       </c>
       <c r="E236">
-        <v>187878</v>
+        <v>638</v>
       </c>
       <c r="F236">
-        <v>187495</v>
+        <v>309</v>
       </c>
       <c r="G236">
-        <v>0.05463736481399999</v>
+        <v>0.00018553869399999998</v>
       </c>
       <c r="H236">
-        <v>0.0719725672692</v>
+        <v>0.0002444059332</v>
       </c>
     </row>
     <row r="237">
@@ -6729,25 +6711,25 @@
         <v>3</v>
       </c>
       <c r="B237" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/search-line.svg</v>
+        <v>https://www.nesodden.kommune.no/script/vanilla/autosuggest/autosuggest.vanilla.js?v=20250710</v>
       </c>
       <c r="C237" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D237" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E237">
-        <v>697</v>
+        <v>4307</v>
       </c>
       <c r="F237">
-        <v>419</v>
+        <v>15274</v>
       </c>
       <c r="G237">
-        <v>0.00020269666099999997</v>
+        <v>0.001252531591</v>
       </c>
       <c r="H237">
-        <v>0.00026700773579999996</v>
+        <v>0.0016499315898</v>
       </c>
     </row>
     <row r="238">
@@ -6755,25 +6737,25 @@
         <v>3</v>
       </c>
       <c r="B238" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/bildepil.svg</v>
+        <v>https://www.nesodden.kommune.no/script/js/login.e9fcj.js</v>
       </c>
       <c r="C238" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D238" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E238">
-        <v>527</v>
+        <v>959</v>
       </c>
       <c r="F238">
-        <v>249</v>
+        <v>1511</v>
       </c>
       <c r="G238">
-        <v>0.00015325845099999996</v>
+        <v>0.000278889667</v>
       </c>
       <c r="H238">
-        <v>0.00020188389779999998</v>
+        <v>0.0003673750626</v>
       </c>
     </row>
     <row r="239">
@@ -6781,25 +6763,25 @@
         <v>3</v>
       </c>
       <c r="B239" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ie15f0183-b7d9-4404-b456-040016e350e1/w750/h300/q15865/k08d946f972ef/nesodden-flyfoto.jpg</v>
+        <v>https://fonts.googleapis.com/css2?family=Inter:wght@400;500;600;700&amp;display=swap</v>
       </c>
       <c r="C239" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D239" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E239">
-        <v>53706</v>
+        <v>1233</v>
       </c>
       <c r="F239">
-        <v>53348</v>
+        <v>10028</v>
       </c>
       <c r="G239">
-        <v>0.015618402977999997</v>
+        <v>0.00035857242899999995</v>
       </c>
       <c r="H239">
-        <v>0.0205737696684</v>
+        <v>0.0004723393662</v>
       </c>
     </row>
     <row r="240">
@@ -6807,25 +6789,25 @@
         <v>3</v>
       </c>
       <c r="B240" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i39140659-ef37-476e-aa1e-41a95326fc2d/w820/h547/q15864/kf0404461b961/skole.jpg</v>
+        <v>https://fonts.googleapis.com/icon?family=Material+Icons|Material+Icons+Outlined|Material+Icons+Round</v>
       </c>
       <c r="C240" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D240" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E240">
-        <v>76879</v>
+        <v>590</v>
       </c>
       <c r="F240">
-        <v>76532</v>
+        <v>1803</v>
       </c>
       <c r="G240">
-        <v>0.022357412626999997</v>
+        <v>0.00017157967</v>
       </c>
       <c r="H240">
-        <v>0.0294509149506</v>
+        <v>0.00022601802599999998</v>
       </c>
     </row>
     <row r="241">
@@ -6833,25 +6815,25 @@
         <v>3</v>
       </c>
       <c r="B241" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i54a69a28-988e-4826-ba8b-dd7dbfb2c529/w3872/h2592/k69484735eb74/skateboard-dsc_0660.JPG</v>
+        <v>https://nesodden.kommunetv.no/embed/live/788</v>
       </c>
       <c r="C241" t="str">
-        <v>Image</v>
+        <v>Document</v>
       </c>
       <c r="D241" t="str">
-        <v>image/jpeg</v>
+        <v>text/html</v>
       </c>
       <c r="E241">
-        <v>788166</v>
+        <v>1006</v>
       </c>
       <c r="F241">
-        <v>787804</v>
+        <v>1083</v>
       </c>
       <c r="G241">
-        <v>0.22920891895799997</v>
+        <v>0.000292557878</v>
       </c>
       <c r="H241">
-        <v>0.30193173471240004</v>
+        <v>0.0003853798884</v>
       </c>
     </row>
     <row r="242">
@@ -6859,25 +6841,25 @@
         <v>3</v>
       </c>
       <c r="B242" t="str">
-        <v>https://fonts.gstatic.com/s/materialiconsoutlined/v110/gok-H7zzDkdnRel8-DQ6KAXJ69wP1tGnf4ZGhUcel5euIg.woff2</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/e1/i07c5c0d4-f442-4159-bfbb-130598b0d0ac/w1920/h1080/k21ea8859e35b/nesoddtangen-brygge-2-foto-anja-antonsen.jpg</v>
       </c>
       <c r="C242" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D242" t="str">
-        <v>font/woff2</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E242">
-        <v>155325</v>
+        <v>187878</v>
       </c>
       <c r="F242">
-        <v>155276</v>
+        <v>187495</v>
       </c>
       <c r="G242">
-        <v>0.04517052922499999</v>
+        <v>0.05463736481399999</v>
       </c>
       <c r="H242">
-        <v>0.05950211845500001</v>
+        <v>0.0719725672692</v>
       </c>
     </row>
     <row r="243">
@@ -6885,25 +6867,25 @@
         <v>3</v>
       </c>
       <c r="B243" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/fonts/nesodden.ttf?eg2kb</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/search-line.svg</v>
       </c>
       <c r="C243" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D243" t="str">
-        <v>application/x-font-ttf</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E243">
-        <v>1860</v>
+        <v>697</v>
       </c>
       <c r="F243">
-        <v>1572</v>
+        <v>419</v>
       </c>
       <c r="G243">
-        <v>0.0005409121799999999</v>
+        <v>0.00020269666099999997</v>
       </c>
       <c r="H243">
-        <v>0.0007125314040000001</v>
+        <v>0.00026700773579999996</v>
       </c>
     </row>
     <row r="244">
@@ -6911,25 +6893,25 @@
         <v>3</v>
       </c>
       <c r="B244" t="str">
-        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.woff2?t=1590207869815</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/bildepil.svg</v>
       </c>
       <c r="C244" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D244" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E244">
-        <v>125546</v>
+        <v>527</v>
       </c>
       <c r="F244">
-        <v>125268</v>
+        <v>249</v>
       </c>
       <c r="G244">
-        <v>0.036510408897999995</v>
+        <v>0.00015325845099999996</v>
       </c>
       <c r="H244">
-        <v>0.048094337444400004</v>
+        <v>0.00020188389779999998</v>
       </c>
     </row>
     <row r="245">
@@ -6937,25 +6919,25 @@
         <v>3</v>
       </c>
       <c r="B245" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/requestlog</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ie15f0183-b7d9-4404-b456-040016e350e1/w750/h300/q15865/k08d946f972ef/nesodden-flyfoto.jpg</v>
       </c>
       <c r="C245" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D245" t="str">
-        <v>application/json</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E245">
-        <v>299</v>
+        <v>53706</v>
       </c>
       <c r="F245">
-        <v>72</v>
+        <v>53348</v>
       </c>
       <c r="G245">
-        <v>0.00008695308699999998</v>
+        <v>0.015618402977999997</v>
       </c>
       <c r="H245">
-        <v>0.00011454133860000002</v>
+        <v>0.0205737696684</v>
       </c>
     </row>
     <row r="246">
@@ -6963,25 +6945,25 @@
         <v>3</v>
       </c>
       <c r="B246" t="str">
-        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i39140659-ef37-476e-aa1e-41a95326fc2d/w820/h547/q15864/kf0404461b961/skole.jpg</v>
       </c>
       <c r="C246" t="str">
         <v>Image</v>
       </c>
       <c r="D246" t="str">
-        <v>image/svg+xml</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>76879</v>
       </c>
       <c r="F246">
-        <v>3657</v>
+        <v>76532</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>0.022357412626999997</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>0.0294509149506</v>
       </c>
     </row>
     <row r="247">
@@ -6989,25 +6971,25 @@
         <v>3</v>
       </c>
       <c r="B247" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/js/htmx.min.js</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i54a69a28-988e-4826-ba8b-dd7dbfb2c529/w3872/h2592/k69484735eb74/skateboard-dsc_0660.JPG</v>
       </c>
       <c r="C247" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D247" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E247">
-        <v>20452</v>
+        <v>788166</v>
       </c>
       <c r="F247">
-        <v>48101</v>
+        <v>787804</v>
       </c>
       <c r="G247">
-        <v>0.005947707475999999</v>
+        <v>0.22920891895799997</v>
       </c>
       <c r="H247">
-        <v>0.0078347807928</v>
+        <v>0.30193173471240004</v>
       </c>
     </row>
     <row r="248">
@@ -7015,25 +6997,25 @@
         <v>3</v>
       </c>
       <c r="B248" t="str">
-        <v>https://www.nesodden.kommune.no/css/CookiesInfo.css?v=1.1</v>
+        <v>https://fonts.gstatic.com/s/materialiconsoutlined/v110/gok-H7zzDkdnRel8-DQ6KAXJ69wP1tGnf4ZGhUcel5euIg.woff2</v>
       </c>
       <c r="C248" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D248" t="str">
-        <v>text/css</v>
+        <v>font/woff2</v>
       </c>
       <c r="E248">
-        <v>918</v>
+        <v>155325</v>
       </c>
       <c r="F248">
-        <v>1463</v>
+        <v>155276</v>
       </c>
       <c r="G248">
-        <v>0.00026696633399999996</v>
+        <v>0.04517052922499999</v>
       </c>
       <c r="H248">
-        <v>0.0003516687252</v>
+        <v>0.05950211845500001</v>
       </c>
     </row>
     <row r="249">
@@ -7041,25 +7023,25 @@
         <v>3</v>
       </c>
       <c r="B249" t="str">
-        <v>https://www.nesodden.kommune.no/images/1px_Black_Opacity_75.png</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/fonts/nesodden.ttf?eg2kb</v>
       </c>
       <c r="C249" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D249" t="str">
-        <v>image/png</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E249">
-        <v>409</v>
+        <v>1860</v>
       </c>
       <c r="F249">
-        <v>135</v>
+        <v>1572</v>
       </c>
       <c r="G249">
-        <v>0.00011894251699999998</v>
+        <v>0.0005409121799999999</v>
       </c>
       <c r="H249">
-        <v>0.00015668029260000003</v>
+        <v>0.0007125314040000001</v>
       </c>
     </row>
     <row r="250">
@@ -7067,25 +7049,25 @@
         <v>3</v>
       </c>
       <c r="B250" t="str">
-        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
+        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.woff2?t=1590207869815</v>
       </c>
       <c r="C250" t="str">
         <v>Font</v>
       </c>
       <c r="D250" t="str">
-        <v>font/truetype</v>
+        <v>font/woff2</v>
       </c>
       <c r="E250">
-        <v>31592</v>
+        <v>125546</v>
       </c>
       <c r="F250">
-        <v>31592</v>
+        <v>125268</v>
       </c>
       <c r="G250">
-        <v>0.009187364295999999</v>
+        <v>0.036510408897999995</v>
       </c>
       <c r="H250">
-        <v>0.0121023075888</v>
+        <v>0.048094337444400004</v>
       </c>
     </row>
     <row r="251">
@@ -7093,25 +7075,25 @@
         <v>3</v>
       </c>
       <c r="B251" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/requestlog</v>
       </c>
       <c r="C251" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D251" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E251">
-        <v>681</v>
+        <v>299</v>
       </c>
       <c r="F251">
-        <v>371</v>
+        <v>72</v>
       </c>
       <c r="G251">
-        <v>0.00019804365299999995</v>
+        <v>0.00008695308699999998</v>
       </c>
       <c r="H251">
-        <v>0.00026087843340000006</v>
+        <v>0.00011454133860000002</v>
       </c>
     </row>
     <row r="252">
@@ -7119,25 +7101,25 @@
         <v>3</v>
       </c>
       <c r="B252" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/IDbe1INxdWFJEum2tiwF_YCf0TosGHgAjGeK4rxY1DBAam2x2stlHXVo-fLVYqM6VCe9lXWy1mDNLsG9EJv_o9H01l3KoLOdpT7-SvbT61K7Pn0tft-7DiSkJZPTUtgesKsgdLwbB9MSJega38fCClwHYgefxPM7tfy6ivgo0sU/data/Uttrekk?payload=</v>
+        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
       </c>
       <c r="C252" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D252" t="str">
-        <v>text/html</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E252">
-        <v>4844</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>46601</v>
+        <v>3657</v>
       </c>
       <c r="G252">
-        <v>0.0014086981719999999</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>0.0018556463016000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -7145,25 +7127,25 @@
         <v>3</v>
       </c>
       <c r="B253" t="str">
-        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/js/htmx.min.js</v>
       </c>
       <c r="C253" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D253" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E253">
-        <v>24660</v>
+        <v>20452</v>
       </c>
       <c r="F253">
-        <v>154875</v>
+        <v>48101</v>
       </c>
       <c r="G253">
-        <v>0.007171448579999999</v>
+        <v>0.005947707475999999</v>
       </c>
       <c r="H253">
-        <v>0.009446787324000002</v>
+        <v>0.0078347807928</v>
       </c>
     </row>
     <row r="254">
@@ -7171,25 +7153,25 @@
         <v>3</v>
       </c>
       <c r="B254" t="str">
-        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
+        <v>https://www.nesodden.kommune.no/css/CookiesInfo.css?v=1.1</v>
       </c>
       <c r="C254" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D254" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E254">
-        <v>57461</v>
+        <v>918</v>
       </c>
       <c r="F254">
-        <v>159622</v>
+        <v>1463</v>
       </c>
       <c r="G254">
-        <v>0.016710405792999997</v>
+        <v>0.00026696633399999996</v>
       </c>
       <c r="H254">
-        <v>0.0220122403254</v>
+        <v>0.0003516687252</v>
       </c>
     </row>
     <row r="255">
@@ -7197,25 +7179,25 @@
         <v>3</v>
       </c>
       <c r="B255" t="str">
-        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
+        <v>https://www.nesodden.kommune.no/images/1px_Black_Opacity_75.png</v>
       </c>
       <c r="C255" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D255" t="str">
-        <v>application/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E255">
-        <v>955</v>
+        <v>409</v>
       </c>
       <c r="F255">
-        <v>1068</v>
+        <v>135</v>
       </c>
       <c r="G255">
-        <v>0.00027772641499999997</v>
+        <v>0.00011894251699999998</v>
       </c>
       <c r="H255">
-        <v>0.000365842737</v>
+        <v>0.00015668029260000003</v>
       </c>
     </row>
     <row r="256">
@@ -7223,25 +7205,25 @@
         <v>3</v>
       </c>
       <c r="B256" t="str">
-        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
+        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
       </c>
       <c r="C256" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D256" t="str">
-        <v>application/javascript</v>
+        <v>font/truetype</v>
       </c>
       <c r="E256">
-        <v>15856</v>
+        <v>31592</v>
       </c>
       <c r="F256">
-        <v>37010</v>
+        <v>31592</v>
       </c>
       <c r="G256">
-        <v>0.0046111309279999995</v>
+        <v>0.009187364295999999</v>
       </c>
       <c r="H256">
-        <v>0.006074138678400001</v>
+        <v>0.0121023075888</v>
       </c>
     </row>
     <row r="257">
@@ -7249,25 +7231,25 @@
         <v>3</v>
       </c>
       <c r="B257" t="str">
-        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
+        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
       </c>
       <c r="C257" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D257" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E257">
-        <v>108915</v>
+        <v>24660</v>
       </c>
       <c r="F257">
-        <v>288183</v>
+        <v>154875</v>
       </c>
       <c r="G257">
-        <v>0.031673897895</v>
+        <v>0.007171448579999999</v>
       </c>
       <c r="H257">
-        <v>0.041723310681000006</v>
+        <v>0.009446787324000002</v>
       </c>
     </row>
     <row r="258">
@@ -7275,25 +7257,25 @@
         <v>3</v>
       </c>
       <c r="B258" t="str">
-        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
+        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
       </c>
       <c r="C258" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D258" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E258">
-        <v>184</v>
+        <v>57440</v>
       </c>
       <c r="F258">
-        <v>15</v>
+        <v>159622</v>
       </c>
       <c r="G258">
-        <v>0.00005350959199999999</v>
+        <v>0.01670429872</v>
       </c>
       <c r="H258">
-        <v>0.0000704869776</v>
+        <v>0.022004195616</v>
       </c>
     </row>
     <row r="259">
@@ -7301,25 +7283,25 @@
         <v>3</v>
       </c>
       <c r="B259" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
+        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
       </c>
       <c r="C259" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D259" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E259">
-        <v>182658</v>
+        <v>927</v>
       </c>
       <c r="F259">
-        <v>182292</v>
+        <v>1068</v>
       </c>
       <c r="G259">
-        <v>0.053119320953999995</v>
+        <v>0.00026958365099999994</v>
       </c>
       <c r="H259">
-        <v>0.06997288236120001</v>
+        <v>0.00035511645780000005</v>
       </c>
     </row>
     <row r="260">
@@ -7327,25 +7309,25 @@
         <v>3</v>
       </c>
       <c r="B260" t="str">
-        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
       </c>
       <c r="C260" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D260" t="str">
-        <v>image/avif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E260">
-        <v>89430</v>
+        <v>15856</v>
       </c>
       <c r="F260">
-        <v>89300</v>
+        <v>37010</v>
       </c>
       <c r="G260">
-        <v>0.026007406589999997</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H260">
-        <v>0.034258969602000006</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
     <row r="261">
@@ -7353,25 +7335,25 @@
         <v>3</v>
       </c>
       <c r="B261" t="str">
-        <v>https://ucarecdn.com/40f5434a-9b0c-4480-a8a4-e84c042eb158/-/crop/720x197/0,340/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
       </c>
       <c r="C261" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D261" t="str">
-        <v>image/avif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E261">
-        <v>39291</v>
+        <v>108915</v>
       </c>
       <c r="F261">
-        <v>39190</v>
+        <v>288183</v>
       </c>
       <c r="G261">
-        <v>0.011426333582999998</v>
+        <v>0.031673897895</v>
       </c>
       <c r="H261">
-        <v>0.015051651287400002</v>
+        <v>0.041723310681000006</v>
       </c>
     </row>
     <row r="262">
@@ -7379,25 +7361,25 @@
         <v>3</v>
       </c>
       <c r="B262" t="str">
-        <v>https://ucarecdn.com/9d6f5633-0e3c-4304-b282-56194fd18e64/-/crop/1587x434/0,170/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
       </c>
       <c r="C262" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D262" t="str">
-        <v>image/avif</v>
+        <v>text/css</v>
       </c>
       <c r="E262">
-        <v>10241</v>
+        <v>212</v>
       </c>
       <c r="F262">
-        <v>10157</v>
+        <v>15</v>
       </c>
       <c r="G262">
-        <v>0.0029782159329999995</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H262">
-        <v>0.003923136617400001</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="263">
@@ -7405,25 +7387,25 @@
         <v>3</v>
       </c>
       <c r="B263" t="str">
-        <v>https://ucarecdn.com/5b847978-d275-4850-8e90-341e225f0882/-/crop/1280x348/0,289/-/preview/</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
       </c>
       <c r="C263" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D263" t="str">
-        <v>image/avif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E263">
-        <v>93298</v>
+        <v>681</v>
       </c>
       <c r="F263">
-        <v>92919</v>
+        <v>371</v>
       </c>
       <c r="G263">
-        <v>0.027132271274</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H263">
-        <v>0.035740728457200006</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="264">
@@ -7431,25 +7413,25 @@
         <v>3</v>
       </c>
       <c r="B264" t="str">
-        <v>https://ucarecdn.com/a47e5692-3e5b-4774-ae29-1a97c5c9255a/-/crop/2048x559/0,857/-/preview/</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/RGlj9jiJ47vB2CwhVtwS-RmC6KMdIwP4zmV2E_Bi7kcia_yS3_REOP5psS1FPMZxblTNecTd0bn0mA5FrVd4YG5x2pBDaMUGtnfZlKiBLEnFYLQdljYpumVTeacrhIPFu46dr_-OXwaMv1qtD81VfKNIaXfHEUm3EpZYUBECzTM/data/Uttrekk?payload=</v>
       </c>
       <c r="C264" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D264" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E264">
-        <v>227318</v>
+        <v>4854</v>
       </c>
       <c r="F264">
-        <v>227103</v>
+        <v>45322</v>
       </c>
       <c r="G264">
-        <v>0.066107029534</v>
+        <v>0.0014116063019999998</v>
       </c>
       <c r="H264">
-        <v>0.08708129768520001</v>
+        <v>0.0018594771156000003</v>
       </c>
     </row>
     <row r="265">
@@ -7457,25 +7439,22 @@
         <v>3</v>
       </c>
       <c r="B265" t="str">
-        <v>https://ucarecdn.com/695e5769-d9c2-46d9-a24d-6d4da9c6aa0b/-/crop/3905x2045/0,955/-/preview/</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763140939449&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=291600351.1763140940&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1763140939&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=439</v>
       </c>
       <c r="C265" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D265" t="str">
-        <v>image/avif</v>
+        <v>text/plain</v>
       </c>
       <c r="E265">
-        <v>809592</v>
-      </c>
-      <c r="F265">
-        <v>809057</v>
+        <v>554</v>
       </c>
       <c r="G265">
-        <v>0.23543987829599997</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H265">
-        <v>0.31013963678879997</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="266">
@@ -7483,22 +7462,25 @@
         <v>3</v>
       </c>
       <c r="B266" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5b71h1v9198259988za200zd9198259988&amp;_p=1762814239933&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1317781354.1762814240&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104573694~104684208~104684211~105322303~115583767~115616985~115938465~115938468~116217636~116217638&amp;sid=1762814240&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=407</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
       </c>
       <c r="C266" t="str">
-        <v>Fetch</v>
+        <v>Font</v>
       </c>
       <c r="D266" t="str">
-        <v>text/plain</v>
+        <v>font/woff2</v>
       </c>
       <c r="E266">
-        <v>554</v>
+        <v>182654</v>
+      </c>
+      <c r="F266">
+        <v>182292</v>
       </c>
       <c r="G266">
-        <v>0.00016111040199999997</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H266">
-        <v>0.0002122270956</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="267">
@@ -7515,16 +7497,16 @@
         <v>application/json</v>
       </c>
       <c r="E267">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F267">
         <v>387</v>
       </c>
       <c r="G267">
-        <v>0.00016023796299999998</v>
+        <v>0.00016052877599999997</v>
       </c>
       <c r="H267">
-        <v>0.00021107785140000003</v>
+        <v>0.00021146093280000001</v>
       </c>
     </row>
     <row r="268">
@@ -7593,16 +7575,16 @@
         <v>application/json</v>
       </c>
       <c r="E270">
-        <v>15244</v>
+        <v>15245</v>
       </c>
       <c r="F270">
         <v>15172</v>
       </c>
       <c r="G270">
-        <v>0.004433153371999999</v>
+        <v>0.004433444185</v>
       </c>
       <c r="H270">
-        <v>0.0058396928616</v>
+        <v>0.005840075943000001</v>
       </c>
     </row>
     <row r="271">
@@ -7619,16 +7601,16 @@
         <v>application/json</v>
       </c>
       <c r="E271">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F271">
         <v>128</v>
       </c>
       <c r="G271">
-        <v>0.00012475877699999997</v>
+        <v>0.00012592202899999998</v>
       </c>
       <c r="H271">
-        <v>0.00016434192060000002</v>
+        <v>0.00016587424620000002</v>
       </c>
     </row>
     <row r="272">
@@ -7671,16 +7653,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E273">
-        <v>17963</v>
+        <v>17821</v>
       </c>
       <c r="F273">
         <v>67288</v>
       </c>
       <c r="G273">
-        <v>0.005223873919</v>
+        <v>0.005182578472999999</v>
       </c>
       <c r="H273">
-        <v>0.006881291188200001</v>
+        <v>0.006826893629400001</v>
       </c>
     </row>
     <row r="274">
@@ -7697,16 +7679,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E274">
-        <v>75987</v>
+        <v>76130</v>
       </c>
       <c r="F274">
         <v>337761</v>
       </c>
       <c r="G274">
-        <v>0.022098007430999995</v>
+        <v>0.022139593689999997</v>
       </c>
       <c r="H274">
-        <v>0.0291092063418</v>
+        <v>0.029163986982000005</v>
       </c>
     </row>
     <row r="275">
@@ -7723,16 +7705,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E275">
-        <v>142436</v>
+        <v>142430</v>
       </c>
       <c r="F275">
         <v>574585</v>
       </c>
       <c r="G275">
-        <v>0.04142224046799999</v>
+        <v>0.041420495589999995</v>
       </c>
       <c r="H275">
-        <v>0.054564582290399996</v>
+        <v>0.054562283802</v>
       </c>
     </row>
     <row r="276">
@@ -7740,25 +7722,25 @@
         <v>3</v>
       </c>
       <c r="B276" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
+        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
       </c>
       <c r="C276" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D276" t="str">
-        <v>text/javascript</v>
+        <v>image/avif</v>
       </c>
       <c r="E276">
-        <v>9239</v>
+        <v>89430</v>
       </c>
       <c r="F276">
-        <v>31503</v>
+        <v>89300</v>
       </c>
       <c r="G276">
-        <v>0.002686821307</v>
+        <v>0.026007406589999997</v>
       </c>
       <c r="H276">
-        <v>0.0035392890546000005</v>
+        <v>0.034258969602000006</v>
       </c>
     </row>
     <row r="277">
@@ -7766,25 +7748,25 @@
         <v>3</v>
       </c>
       <c r="B277" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
+        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
       </c>
       <c r="C277" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D277" t="str">
-        <v>text/javascript</v>
+        <v>image/avif</v>
       </c>
       <c r="E277">
-        <v>21818</v>
+        <v>98970</v>
       </c>
       <c r="F277">
-        <v>105743</v>
+        <v>98590</v>
       </c>
       <c r="G277">
-        <v>0.006344958033999999</v>
+        <v>0.028781762609999997</v>
       </c>
       <c r="H277">
-        <v>0.0083580699852</v>
+        <v>0.037913566158000005</v>
       </c>
     </row>
     <row r="278">
@@ -7792,25 +7774,25 @@
         <v>3</v>
       </c>
       <c r="B278" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
+        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
       </c>
       <c r="C278" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D278" t="str">
-        <v>application/vnd.apple.mpegurl</v>
+        <v>image/avif</v>
       </c>
       <c r="E278">
-        <v>471</v>
+        <v>28026</v>
       </c>
       <c r="F278">
-        <v>135</v>
+        <v>27933</v>
       </c>
       <c r="G278">
-        <v>0.000136972923</v>
+        <v>0.008150325138</v>
       </c>
       <c r="H278">
-        <v>0.00018043133940000001</v>
+        <v>0.010736239316399998</v>
       </c>
     </row>
     <row r="279">
@@ -7818,25 +7800,25 @@
         <v>3</v>
       </c>
       <c r="B279" t="str">
-        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
+        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
       </c>
       <c r="C279" t="str">
         <v>Image</v>
       </c>
       <c r="D279" t="str">
-        <v>image/svg+xml</v>
+        <v>image/avif</v>
       </c>
       <c r="E279">
-        <v>552</v>
+        <v>491317</v>
       </c>
       <c r="F279">
-        <v>461</v>
+        <v>490953</v>
       </c>
       <c r="G279">
-        <v>0.00016052877599999997</v>
+        <v>0.142881370721</v>
       </c>
       <c r="H279">
-        <v>0.00021146093280000001</v>
+        <v>0.18821440420380003</v>
       </c>
     </row>
     <row r="280">
@@ -7844,25 +7826,25 @@
         <v>3</v>
       </c>
       <c r="B280" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
+        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
       </c>
       <c r="C280" t="str">
         <v>Image</v>
       </c>
       <c r="D280" t="str">
-        <v>image/png</v>
+        <v>image/avif</v>
       </c>
       <c r="E280">
-        <v>5069</v>
+        <v>71826</v>
       </c>
       <c r="F280">
-        <v>4981</v>
+        <v>71706</v>
       </c>
       <c r="G280">
-        <v>0.0014741310969999997</v>
+        <v>0.020887934537999996</v>
       </c>
       <c r="H280">
-        <v>0.0019418396166000003</v>
+        <v>0.027515204636400004</v>
       </c>
     </row>
     <row r="281">
@@ -7870,25 +7852,25 @@
         <v>3</v>
       </c>
       <c r="B281" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
+        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
       </c>
       <c r="C281" t="str">
         <v>Image</v>
       </c>
       <c r="D281" t="str">
-        <v>image/jpeg</v>
+        <v>image/avif</v>
       </c>
       <c r="E281">
-        <v>56889</v>
+        <v>24768</v>
       </c>
       <c r="F281">
-        <v>56773</v>
+        <v>24675</v>
       </c>
       <c r="G281">
-        <v>0.016544060756999997</v>
+        <v>0.007202856383999999</v>
       </c>
       <c r="H281">
-        <v>0.0217931177646</v>
+        <v>0.009488160115200001</v>
       </c>
     </row>
     <row r="282">
@@ -7896,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="B282" t="str">
-        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
       </c>
       <c r="C282" t="str">
         <v>Script</v>
@@ -7905,16 +7887,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E282">
-        <v>2534</v>
+        <v>9240</v>
       </c>
       <c r="F282">
-        <v>4272</v>
+        <v>31503</v>
       </c>
       <c r="G282">
-        <v>0.0007369201419999998</v>
+        <v>0.0026871121199999997</v>
       </c>
       <c r="H282">
-        <v>0.0009707282676</v>
+        <v>0.003539672136</v>
       </c>
     </row>
     <row r="283">
@@ -7922,25 +7904,25 @@
         <v>3</v>
       </c>
       <c r="B283" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w890168143_b1590968_ps198000_pd1572000.m3u8</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
       </c>
       <c r="C283" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D283" t="str">
-        <v>application/vnd.apple.mpegurl</v>
+        <v>text/javascript</v>
       </c>
       <c r="E283">
-        <v>628</v>
+        <v>21825</v>
       </c>
       <c r="F283">
-        <v>10407</v>
+        <v>105743</v>
       </c>
       <c r="G283">
-        <v>0.00018263056399999997</v>
+        <v>0.006346993724999999</v>
       </c>
       <c r="H283">
-        <v>0.0002405751192</v>
+        <v>0.008360751555</v>
       </c>
     </row>
     <row r="284">
@@ -7948,25 +7930,25 @@
         <v>3</v>
       </c>
       <c r="B284" t="str">
-        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
       </c>
       <c r="C284" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D284" t="str">
-        <v>text/javascript</v>
+        <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E284">
-        <v>12439</v>
+        <v>469</v>
       </c>
       <c r="F284">
-        <v>35946</v>
+        <v>134</v>
       </c>
       <c r="G284">
-        <v>0.0036174229069999998</v>
+        <v>0.00013639129699999998</v>
       </c>
       <c r="H284">
-        <v>0.0047651495346</v>
+        <v>0.0001796651766</v>
       </c>
     </row>
     <row r="285">
@@ -7974,25 +7956,25 @@
         <v>3</v>
       </c>
       <c r="B285" t="str">
-        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
+        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
       </c>
       <c r="C285" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D285" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E285">
-        <v>14110</v>
+        <v>552</v>
       </c>
       <c r="F285">
-        <v>48448</v>
+        <v>461</v>
       </c>
       <c r="G285">
-        <v>0.00410337143</v>
+        <v>0.00016052877599999997</v>
       </c>
       <c r="H285">
-        <v>0.005405278554</v>
+        <v>0.00021146093280000001</v>
       </c>
     </row>
     <row r="286">
@@ -8000,25 +7982,25 @@
         <v>3</v>
       </c>
       <c r="B286" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w890168143_b1590968_ps198000_pd1572000_0.ts</v>
+        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
       </c>
       <c r="C286" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D286" t="str">
-        <v>video/mp2t</v>
+        <v>image/png</v>
       </c>
       <c r="E286">
-        <v>2089711</v>
+        <v>5069</v>
       </c>
       <c r="F286">
-        <v>2088492</v>
+        <v>4981</v>
       </c>
       <c r="G286">
-        <v>0.6077151250429998</v>
+        <v>0.0014741310969999997</v>
       </c>
       <c r="H286">
-        <v>0.8005294154754001</v>
+        <v>0.0019418396166000003</v>
       </c>
     </row>
     <row r="287">
@@ -8026,25 +8008,25 @@
         <v>3</v>
       </c>
       <c r="B287" t="str">
-        <v>blob:https://nesodden.kommunetv.no/3c1c2a54-7168-46a7-9572-6ed7ef233c47</v>
+        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
       </c>
       <c r="C287" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D287" t="str">
-        <v>text/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E287">
-        <v>-1</v>
+        <v>56889</v>
       </c>
       <c r="F287">
-        <v>525144</v>
+        <v>56773</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.016544060756999997</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>0.0217931177646</v>
       </c>
     </row>
     <row r="288">
@@ -8052,25 +8034,25 @@
         <v>3</v>
       </c>
       <c r="B288" t="str">
-        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
+        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
       </c>
       <c r="C288" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D288" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E288">
-        <v>81679</v>
+        <v>2534</v>
       </c>
       <c r="F288">
-        <v>81492</v>
+        <v>4272</v>
       </c>
       <c r="G288">
-        <v>0.023753315026999997</v>
+        <v>0.0007369201419999998</v>
       </c>
       <c r="H288">
-        <v>0.0312897056706</v>
+        <v>0.0009707282676</v>
       </c>
     </row>
     <row r="289">
@@ -8078,30 +8060,186 @@
         <v>3</v>
       </c>
       <c r="B289" t="str">
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w22938173_b1590968_ps198000_pd1572000.m3u8</v>
+      </c>
+      <c r="C289" t="str">
+        <v>XHR</v>
+      </c>
+      <c r="D289" t="str">
+        <v>application/vnd.apple.mpegurl</v>
+      </c>
+      <c r="E289">
+        <v>629</v>
+      </c>
+      <c r="F289">
+        <v>10249</v>
+      </c>
+      <c r="G289">
+        <v>0.00018292137699999996</v>
+      </c>
+      <c r="H289">
+        <v>0.00024095820060000004</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290" t="str">
+        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
+      </c>
+      <c r="C290" t="str">
+        <v>Script</v>
+      </c>
+      <c r="D290" t="str">
+        <v>text/javascript</v>
+      </c>
+      <c r="E290">
+        <v>12439</v>
+      </c>
+      <c r="F290">
+        <v>35946</v>
+      </c>
+      <c r="G290">
+        <v>0.0036174229069999998</v>
+      </c>
+      <c r="H290">
+        <v>0.0047651495346</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291" t="str">
+        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
+      </c>
+      <c r="C291" t="str">
+        <v>Script</v>
+      </c>
+      <c r="D291" t="str">
+        <v>text/javascript</v>
+      </c>
+      <c r="E291">
+        <v>14110</v>
+      </c>
+      <c r="F291">
+        <v>48448</v>
+      </c>
+      <c r="G291">
+        <v>0.00410337143</v>
+      </c>
+      <c r="H291">
+        <v>0.005405278554</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292" t="str">
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w22938173_b1590968_ps198000_pd1572000_0.ts</v>
+      </c>
+      <c r="C292" t="str">
+        <v>XHR</v>
+      </c>
+      <c r="D292" t="str">
+        <v>video/mp2t</v>
+      </c>
+      <c r="E292">
+        <v>2089711</v>
+      </c>
+      <c r="F292">
+        <v>2088492</v>
+      </c>
+      <c r="G292">
+        <v>0.6077151250429998</v>
+      </c>
+      <c r="H292">
+        <v>0.8005294154754001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293" t="str">
+        <v>blob:https://nesodden.kommunetv.no/fca32aa3-218b-4dd5-985f-166337413e3c</v>
+      </c>
+      <c r="C293" t="str">
+        <v>Script</v>
+      </c>
+      <c r="D293" t="str">
+        <v>text/javascript</v>
+      </c>
+      <c r="E293">
+        <v>-1</v>
+      </c>
+      <c r="F293">
+        <v>525144</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>3</v>
+      </c>
+      <c r="B294" t="str">
+        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Image</v>
+      </c>
+      <c r="D294" t="str">
+        <v>image/jpeg</v>
+      </c>
+      <c r="E294">
+        <v>81679</v>
+      </c>
+      <c r="F294">
+        <v>81492</v>
+      </c>
+      <c r="G294">
+        <v>0.023753315026999997</v>
+      </c>
+      <c r="H294">
+        <v>0.0312897056706</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295" t="str">
         <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
       </c>
-      <c r="C289" t="str">
+      <c r="C295" t="str">
         <v>Other</v>
       </c>
-      <c r="D289" t="str">
+      <c r="D295" t="str">
         <v>image/jpeg</v>
       </c>
-      <c r="E289">
+      <c r="E295">
         <v>41128</v>
       </c>
-      <c r="F289">
+      <c r="F295">
         <v>40771</v>
       </c>
-      <c r="G289">
+      <c r="G295">
         <v>0.011960557063999998</v>
       </c>
-      <c r="H289">
+      <c r="H295">
         <v>0.0157553718192</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H289"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H295"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8135,10 +8273,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>89572</v>
+        <v>89382</v>
       </c>
       <c r="D2">
-        <v>258812</v>
+        <v>258489</v>
       </c>
     </row>
     <row r="3">
@@ -8149,7 +8287,7 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>531187</v>
+        <v>531184</v>
       </c>
       <c r="D3">
         <v>2868567</v>
@@ -8163,10 +8301,10 @@
         <v>105</v>
       </c>
       <c r="C4">
-        <v>2333637</v>
+        <v>2334528</v>
       </c>
       <c r="D4">
-        <v>9173492</v>
+        <v>9171937</v>
       </c>
     </row>
     <row r="5">
@@ -8174,13 +8312,13 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>8044138</v>
+        <v>6405200</v>
       </c>
       <c r="D5">
-        <v>8038083</v>
+        <v>6399708</v>
       </c>
     </row>
     <row r="6">
@@ -8191,7 +8329,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1490943</v>
+        <v>1490936</v>
       </c>
       <c r="D6">
         <v>1488000</v>
@@ -8219,10 +8357,10 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>6342279</v>
+        <v>6342321</v>
       </c>
       <c r="D8">
-        <v>6490383</v>
+        <v>6486387</v>
       </c>
     </row>
     <row r="9">
@@ -8272,13 +8410,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6318544</v>
+        <v>5775652</v>
       </c>
       <c r="C2">
-        <v>1.8375147362719997</v>
+        <v>1.6796346850759998</v>
       </c>
       <c r="D2">
-        <v>2.4205166814815997</v>
+        <v>2.2125448540728003</v>
       </c>
     </row>
     <row r="3">
@@ -8286,13 +8424,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6317710</v>
+        <v>5772039</v>
       </c>
       <c r="C3">
-        <v>1.8372721982299998</v>
+        <v>1.6785839777069997</v>
       </c>
       <c r="D3">
-        <v>2.420197191594</v>
+        <v>2.2111607809746</v>
       </c>
     </row>
     <row r="4">
@@ -8300,13 +8438,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6321445</v>
+        <v>5771803</v>
       </c>
       <c r="C4">
-        <v>1.8383583847849998</v>
+        <v>1.6785153458389999</v>
       </c>
       <c r="D4">
-        <v>2.4216280006230004</v>
+        <v>2.2110703737642003</v>
       </c>
     </row>
     <row r="5">
@@ -8314,13 +8452,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6318544</v>
+        <v>5772039</v>
       </c>
       <c r="C5">
-        <v>1.8375147362719997</v>
+        <v>1.6785839777069997</v>
       </c>
       <c r="D5">
-        <v>2.4205166814815997</v>
+        <v>2.2111607809746</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nesodden.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nesodden.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16174.02172</v>
+        <v>15912.4705</v>
       </c>
       <c r="C2">
-        <v>7193.467499999999</v>
+        <v>7338.684000000001</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>16412.387076</v>
+        <v>16152.61475</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7193.467499999999</v>
+        <v>7487.210999911881</v>
       </c>
       <c r="I2">
         <v>58</v>
       </c>
       <c r="J2">
-        <v>5775652</v>
+        <v>5772009</v>
       </c>
       <c r="K2">
         <v>96</v>
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16536.2035</v>
+        <v>16911.3405</v>
       </c>
       <c r="C3">
-        <v>7229.7165</v>
+        <v>7528.065499999999</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>16755.52795</v>
+        <v>17132.15865</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7229.7165</v>
+        <v>7528.065499999999</v>
       </c>
       <c r="I3">
         <v>58</v>
       </c>
       <c r="J3">
-        <v>5772039</v>
+        <v>5771797</v>
       </c>
       <c r="K3">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16492.554237766257</v>
+        <v>16459.395449999993</v>
       </c>
       <c r="C4">
-        <v>7290.590509525642</v>
+        <v>7336.559499999999</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>16692.22085183051</v>
+        <v>16674.14561499999</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7290.590509525642</v>
+        <v>7336.559499999999</v>
       </c>
       <c r="I4">
         <v>58</v>
       </c>
       <c r="J4">
-        <v>5771803</v>
+        <v>5771841</v>
       </c>
       <c r="K4">
         <v>96</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>16492.554237766257</v>
+        <v>16459.395449999993</v>
       </c>
       <c r="C5">
-        <v>7229.7165</v>
+        <v>7338.684000000001</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>16692.22085183051</v>
+        <v>16674.14561499999</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7229.7165</v>
+        <v>7487.210999911881</v>
       </c>
       <c r="I5">
         <v>58</v>
       </c>
       <c r="J5">
-        <v>5772039</v>
+        <v>5771841</v>
       </c>
       <c r="K5">
         <v>96</v>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>31262</v>
+        <v>27566</v>
       </c>
       <c r="F2">
-        <v>87234</v>
+        <v>84003</v>
       </c>
       <c r="G2">
-        <v>0.009091396005999999</v>
+        <v>0.008016551157999999</v>
       </c>
       <c r="H2">
-        <v>0.0119758907268</v>
+        <v>0.010560021872400002</v>
       </c>
     </row>
     <row r="3">
@@ -1154,16 +1154,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E22">
-        <v>147299</v>
+        <v>147289</v>
       </c>
       <c r="F22">
-        <v>434300</v>
+        <v>434263</v>
       </c>
       <c r="G22">
-        <v>0.042836464086999995</v>
+        <v>0.042833555956999995</v>
       </c>
       <c r="H22">
-        <v>0.0564275071386</v>
+        <v>0.056423676324600006</v>
       </c>
     </row>
     <row r="23">
@@ -1648,16 +1648,16 @@
         <v>text/css</v>
       </c>
       <c r="E41">
-        <v>1233</v>
+        <v>862</v>
       </c>
       <c r="F41">
         <v>10028</v>
       </c>
       <c r="G41">
-        <v>0.00035857242899999995</v>
+        <v>0.00025068080599999996</v>
       </c>
       <c r="H41">
-        <v>0.0004723393662</v>
+        <v>0.00033021616680000007</v>
       </c>
     </row>
     <row r="42">
@@ -1674,16 +1674,16 @@
         <v>text/css</v>
       </c>
       <c r="E42">
-        <v>590</v>
+        <v>961</v>
       </c>
       <c r="F42">
         <v>1803</v>
       </c>
       <c r="G42">
-        <v>0.00017157967</v>
+        <v>0.00027947129299999996</v>
       </c>
       <c r="H42">
-        <v>0.00022601802599999998</v>
+        <v>0.0003681412254</v>
       </c>
     </row>
     <row r="43">
@@ -2107,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
       </c>
       <c r="C59" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D59" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>24660</v>
+        <v>681</v>
       </c>
       <c r="F59">
-        <v>154875</v>
+        <v>371</v>
       </c>
       <c r="G59">
-        <v>0.007171448579999999</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H59">
-        <v>0.009446787324000002</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="60">
@@ -2133,25 +2133,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
+        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
       </c>
       <c r="C60" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D60" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E60">
-        <v>57462</v>
+        <v>24660</v>
       </c>
       <c r="F60">
-        <v>159622</v>
+        <v>154875</v>
       </c>
       <c r="G60">
-        <v>0.016710696605999997</v>
+        <v>0.007171448579999999</v>
       </c>
       <c r="H60">
-        <v>0.022012623406800002</v>
+        <v>0.009446787324000002</v>
       </c>
     </row>
     <row r="61">
@@ -2159,25 +2159,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
+        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
       </c>
       <c r="C61" t="str">
         <v>Script</v>
       </c>
       <c r="D61" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E61">
-        <v>955</v>
+        <v>57440</v>
       </c>
       <c r="F61">
-        <v>1068</v>
+        <v>159622</v>
       </c>
       <c r="G61">
-        <v>0.00027772641499999997</v>
+        <v>0.01670429872</v>
       </c>
       <c r="H61">
-        <v>0.000365842737</v>
+        <v>0.022004195616</v>
       </c>
     </row>
     <row r="62">
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
+        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
       </c>
       <c r="C62" t="str">
         <v>Script</v>
@@ -2194,16 +2194,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E62">
-        <v>15856</v>
+        <v>955</v>
       </c>
       <c r="F62">
-        <v>37010</v>
+        <v>1068</v>
       </c>
       <c r="G62">
-        <v>0.0046111309279999995</v>
+        <v>0.00027772641499999997</v>
       </c>
       <c r="H62">
-        <v>0.006074138678400001</v>
+        <v>0.000365842737</v>
       </c>
     </row>
     <row r="63">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
+        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
       </c>
       <c r="C63" t="str">
         <v>Script</v>
@@ -2220,16 +2220,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E63">
-        <v>108915</v>
+        <v>15856</v>
       </c>
       <c r="F63">
-        <v>288183</v>
+        <v>37010</v>
       </c>
       <c r="G63">
-        <v>0.031673897895</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H63">
-        <v>0.041723310681000006</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
     <row r="64">
@@ -2237,25 +2237,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
+        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
       </c>
       <c r="C64" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D64" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E64">
-        <v>184</v>
+        <v>108915</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>288183</v>
       </c>
       <c r="G64">
-        <v>0.00005350959199999999</v>
+        <v>0.031673897895</v>
       </c>
       <c r="H64">
-        <v>0.0000704869776</v>
+        <v>0.041723310681000006</v>
       </c>
     </row>
     <row r="65">
@@ -2263,25 +2263,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
+        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
       </c>
       <c r="C65" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D65" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E65">
-        <v>681</v>
+        <v>184</v>
       </c>
       <c r="F65">
-        <v>371</v>
+        <v>15</v>
       </c>
       <c r="G65">
-        <v>0.00019804365299999995</v>
+        <v>0.00005350959199999999</v>
       </c>
       <c r="H65">
-        <v>0.00026087843340000006</v>
+        <v>0.0000704869776</v>
       </c>
     </row>
     <row r="66">
@@ -2289,22 +2289,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763140910732&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=2112607870.1763140911&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105322304~115583767~115938465~115938469~116194002~116217636~116217638~116251935~116251937&amp;sid=1763140910&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=463</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/grBH8w32naFlyiKkupQ58kaqQuqpSfk4qWcvIkMo5shCWCRXqI53hUt4azxq2HBx22X3KCsvBMN7ljkvmSQeXu_allDVZqmkNVrGswzsQ19LWSVoAv2DhJG30xQNI00ybsk9oEebMGNFV3yCzWNE-7RHkyBcN5xpLkkUNJywrnU/data/Uttrekk?payload=</v>
       </c>
       <c r="C66" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D66" t="str">
-        <v>text/plain</v>
+        <v>text/html</v>
       </c>
       <c r="E66">
-        <v>554</v>
+        <v>4854</v>
+      </c>
+      <c r="F66">
+        <v>45322</v>
       </c>
       <c r="G66">
-        <v>0.00016111040199999997</v>
+        <v>0.0014116063019999998</v>
       </c>
       <c r="H66">
-        <v>0.0002122270956</v>
+        <v>0.0018594771156000003</v>
       </c>
     </row>
     <row r="67">
@@ -2312,25 +2315,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/RGlj9jiJ47vB2CwhVtwS-RmC6KMdIwP4zmV2E_Bi7kcia_yS3_REOP5psS1FPMZxblTNecTd0bn0mA5FrVd4YG5x2pBDaMUGtnfZlKiBLEnFYLQdljYpumVTeacrhIPFu46dr_-OXwaMv1qtD81VfKNIaXfHEUm3EpZYUBECzTM/data/Uttrekk?payload=</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
       </c>
       <c r="C67" t="str">
-        <v>XHR</v>
+        <v>Font</v>
       </c>
       <c r="D67" t="str">
-        <v>text/html</v>
+        <v>font/woff2</v>
       </c>
       <c r="E67">
-        <v>4854</v>
+        <v>182654</v>
       </c>
       <c r="F67">
-        <v>45322</v>
+        <v>182292</v>
       </c>
       <c r="G67">
-        <v>0.0014116063019999998</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H67">
-        <v>0.0018594771156000003</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="68">
@@ -2338,25 +2341,25 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
+        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
       </c>
       <c r="C68" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D68" t="str">
-        <v>font/woff2</v>
+        <v>image/avif</v>
       </c>
       <c r="E68">
-        <v>182659</v>
+        <v>89439</v>
       </c>
       <c r="F68">
-        <v>182292</v>
+        <v>89300</v>
       </c>
       <c r="G68">
-        <v>0.05311961176699999</v>
+        <v>0.026010023907</v>
       </c>
       <c r="H68">
-        <v>0.0699732654426</v>
+        <v>0.034262417334600004</v>
       </c>
     </row>
     <row r="69">
@@ -2364,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
+        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
       </c>
       <c r="C69" t="str">
         <v>Image</v>
@@ -2373,16 +2376,16 @@
         <v>image/avif</v>
       </c>
       <c r="E69">
-        <v>89447</v>
+        <v>98737</v>
       </c>
       <c r="F69">
-        <v>89300</v>
+        <v>98590</v>
       </c>
       <c r="G69">
-        <v>0.026012350410999998</v>
+        <v>0.028714003180999998</v>
       </c>
       <c r="H69">
-        <v>0.034265481985800005</v>
+        <v>0.03782430819180001</v>
       </c>
     </row>
     <row r="70">
@@ -2390,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
+        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
       </c>
       <c r="C70" t="str">
         <v>Image</v>
@@ -2399,16 +2402,16 @@
         <v>image/avif</v>
       </c>
       <c r="E70">
-        <v>98970</v>
+        <v>28043</v>
       </c>
       <c r="F70">
-        <v>98590</v>
+        <v>27933</v>
       </c>
       <c r="G70">
-        <v>0.028781762609999997</v>
+        <v>0.008155268959</v>
       </c>
       <c r="H70">
-        <v>0.037913566158000005</v>
+        <v>0.0107427517002</v>
       </c>
     </row>
     <row r="71">
@@ -2416,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
+        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
       </c>
       <c r="C71" t="str">
         <v>Image</v>
@@ -2425,16 +2428,16 @@
         <v>image/avif</v>
       </c>
       <c r="E71">
-        <v>28025</v>
+        <v>491559</v>
       </c>
       <c r="F71">
-        <v>27933</v>
+        <v>490953</v>
       </c>
       <c r="G71">
-        <v>0.008150034325</v>
+        <v>0.14295174746699998</v>
       </c>
       <c r="H71">
-        <v>0.010735856234999999</v>
+        <v>0.18830710990260002</v>
       </c>
     </row>
     <row r="72">
@@ -2442,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="str">
-        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
+        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
       </c>
       <c r="C72" t="str">
         <v>Image</v>
@@ -2451,16 +2454,16 @@
         <v>image/avif</v>
       </c>
       <c r="E72">
-        <v>491300</v>
+        <v>71826</v>
       </c>
       <c r="F72">
-        <v>490953</v>
+        <v>71706</v>
       </c>
       <c r="G72">
-        <v>0.14287642689999996</v>
+        <v>0.020887934537999996</v>
       </c>
       <c r="H72">
-        <v>0.18820789182</v>
+        <v>0.027515204636400004</v>
       </c>
     </row>
     <row r="73">
@@ -2468,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="str">
-        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
+        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
       </c>
       <c r="C73" t="str">
         <v>Image</v>
@@ -2477,16 +2480,16 @@
         <v>image/avif</v>
       </c>
       <c r="E73">
-        <v>71826</v>
+        <v>24777</v>
       </c>
       <c r="F73">
-        <v>71706</v>
+        <v>24675</v>
       </c>
       <c r="G73">
-        <v>0.020887934537999996</v>
+        <v>0.007205473700999999</v>
       </c>
       <c r="H73">
-        <v>0.027515204636400004</v>
+        <v>0.009491607847800001</v>
       </c>
     </row>
     <row r="74">
@@ -2494,25 +2497,22 @@
         <v>1</v>
       </c>
       <c r="B74" t="str">
-        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763143318345&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1580879363.1763143319&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~105322304~115583767~115616985~115938466~115938468~116217636~116217638~116474637&amp;sid=1763143319&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=2189</v>
       </c>
       <c r="C74" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D74" t="str">
-        <v>image/avif</v>
+        <v>text/plain</v>
       </c>
       <c r="E74">
-        <v>24768</v>
-      </c>
-      <c r="F74">
-        <v>24675</v>
+        <v>554</v>
       </c>
       <c r="G74">
-        <v>0.007202856383999999</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H74">
-        <v>0.009488160115200001</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="75">
@@ -2529,16 +2529,16 @@
         <v>application/json</v>
       </c>
       <c r="E75">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="F75">
         <v>387</v>
       </c>
       <c r="G75">
-        <v>0.00016052877599999997</v>
+        <v>0.00016692666199999998</v>
       </c>
       <c r="H75">
-        <v>0.00021146093280000001</v>
+        <v>0.0002198887236</v>
       </c>
     </row>
     <row r="76">
@@ -2607,16 +2607,16 @@
         <v>application/json</v>
       </c>
       <c r="E78">
-        <v>15245</v>
+        <v>15244</v>
       </c>
       <c r="F78">
         <v>15172</v>
       </c>
       <c r="G78">
-        <v>0.004433444185</v>
+        <v>0.004433153371999999</v>
       </c>
       <c r="H78">
-        <v>0.005840075943000001</v>
+        <v>0.0058396928616</v>
       </c>
     </row>
     <row r="79">
@@ -2633,16 +2633,16 @@
         <v>application/json</v>
       </c>
       <c r="E79">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F79">
         <v>128</v>
       </c>
       <c r="G79">
-        <v>0.000125631216</v>
+        <v>0.00012534040299999998</v>
       </c>
       <c r="H79">
-        <v>0.0001654911648</v>
+        <v>0.00016510808340000003</v>
       </c>
     </row>
     <row r="80">
@@ -2685,16 +2685,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E81">
-        <v>17820</v>
+        <v>17844</v>
       </c>
       <c r="F81">
         <v>67288</v>
       </c>
       <c r="G81">
-        <v>0.005182287659999999</v>
+        <v>0.005189267171999999</v>
       </c>
       <c r="H81">
-        <v>0.006826510547999999</v>
+        <v>0.006835704501600001</v>
       </c>
     </row>
     <row r="82">
@@ -2711,16 +2711,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E82">
-        <v>76130</v>
+        <v>75960</v>
       </c>
       <c r="F82">
         <v>337761</v>
       </c>
       <c r="G82">
-        <v>0.022139593689999997</v>
+        <v>0.022090155479999995</v>
       </c>
       <c r="H82">
-        <v>0.029163986982000005</v>
+        <v>0.029098863144</v>
       </c>
     </row>
     <row r="83">
@@ -2737,16 +2737,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E83">
-        <v>142436</v>
+        <v>142577</v>
       </c>
       <c r="F83">
         <v>574585</v>
       </c>
       <c r="G83">
-        <v>0.04142224046799999</v>
+        <v>0.041463245100999996</v>
       </c>
       <c r="H83">
-        <v>0.054564582290399996</v>
+        <v>0.054618596767799996</v>
       </c>
     </row>
     <row r="84">
@@ -2763,16 +2763,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E84">
-        <v>9358</v>
+        <v>9381</v>
       </c>
       <c r="F84">
         <v>31503</v>
       </c>
       <c r="G84">
-        <v>0.002721428054</v>
+        <v>0.0027281167529999996</v>
       </c>
       <c r="H84">
-        <v>0.0035848757412</v>
+        <v>0.003593686613400001</v>
       </c>
     </row>
     <row r="85">
@@ -2815,16 +2815,16 @@
         <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E86">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F86">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G86">
-        <v>0.00013639129699999998</v>
+        <v>0.00013726373599999998</v>
       </c>
       <c r="H86">
-        <v>0.0001796651766</v>
+        <v>0.0001808144208</v>
       </c>
     </row>
     <row r="87">
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w521604343_b1590968_ps198000_pd1572000.m3u8</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w1953537972_b1590968_ps198000_pd1572000.m3u8</v>
       </c>
       <c r="C91" t="str">
         <v>XHR</v>
@@ -2945,16 +2945,16 @@
         <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E91">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F91">
-        <v>10407</v>
+        <v>10565</v>
       </c>
       <c r="G91">
-        <v>0.00018292137699999996</v>
+        <v>0.00018408462899999997</v>
       </c>
       <c r="H91">
-        <v>0.00024095820060000004</v>
+        <v>0.0002424905262</v>
       </c>
     </row>
     <row r="92">
@@ -3014,25 +3014,25 @@
         <v>1</v>
       </c>
       <c r="B94" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w521604343_b1590968_ps198000_pd1572000_0.ts</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
       </c>
       <c r="C94" t="str">
-        <v>XHR</v>
+        <v>Other</v>
       </c>
       <c r="D94" t="str">
-        <v>video/mp2t</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E94">
-        <v>2089711</v>
+        <v>41128</v>
       </c>
       <c r="F94">
-        <v>2088492</v>
+        <v>40771</v>
       </c>
       <c r="G94">
-        <v>0.6077151250429998</v>
+        <v>0.011960557063999998</v>
       </c>
       <c r="H94">
-        <v>0.8005294154754001</v>
+        <v>0.0157553718192</v>
       </c>
     </row>
     <row r="95">
@@ -3040,25 +3040,25 @@
         <v>1</v>
       </c>
       <c r="B95" t="str">
-        <v>blob:https://nesodden.kommunetv.no/776aea00-0b9a-41f0-9f8c-6f957dce579b</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w1953537972_b1590968_ps198000_pd1572000_0.ts</v>
       </c>
       <c r="C95" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D95" t="str">
-        <v>text/javascript</v>
+        <v>video/mp2t</v>
       </c>
       <c r="E95">
-        <v>-1</v>
+        <v>2089711</v>
       </c>
       <c r="F95">
-        <v>525144</v>
+        <v>2088492</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.6077151250429998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.8005294154754001</v>
       </c>
     </row>
     <row r="96">
@@ -3092,25 +3092,25 @@
         <v>1</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
+        <v>blob:https://nesodden.kommunetv.no/d5299574-50ea-47fd-ac58-cf56e906bd35</v>
       </c>
       <c r="C97" t="str">
-        <v>Other</v>
+        <v>Script</v>
       </c>
       <c r="D97" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E97">
-        <v>41128</v>
+        <v>-1</v>
       </c>
       <c r="F97">
-        <v>40771</v>
+        <v>525144</v>
       </c>
       <c r="G97">
-        <v>0.011960557063999998</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0.0157553718192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3127,16 +3127,16 @@
         <v>text/html</v>
       </c>
       <c r="E98">
-        <v>27531</v>
+        <v>27547</v>
       </c>
       <c r="F98">
         <v>84003</v>
       </c>
       <c r="G98">
-        <v>0.008006372702999998</v>
+        <v>0.008011025710999998</v>
       </c>
       <c r="H98">
-        <v>0.0105466140234</v>
+        <v>0.0105527433258</v>
       </c>
     </row>
     <row r="99">
@@ -4609,16 +4609,16 @@
         <v>text/css</v>
       </c>
       <c r="E155">
-        <v>24660</v>
+        <v>24661</v>
       </c>
       <c r="F155">
         <v>154875</v>
       </c>
       <c r="G155">
-        <v>0.007171448579999999</v>
+        <v>0.007171739392999999</v>
       </c>
       <c r="H155">
-        <v>0.009446787324000002</v>
+        <v>0.0094471704054</v>
       </c>
     </row>
     <row r="156">
@@ -4635,16 +4635,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E156">
-        <v>57440</v>
+        <v>57451</v>
       </c>
       <c r="F156">
         <v>159622</v>
       </c>
       <c r="G156">
-        <v>0.01670429872</v>
+        <v>0.016707497662999997</v>
       </c>
       <c r="H156">
-        <v>0.022004195616</v>
+        <v>0.022008409511400002</v>
       </c>
     </row>
     <row r="157">
@@ -4782,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/RGlj9jiJ47vB2CwhVtwS-RmC6KMdIwP4zmV2E_Bi7kcia_yS3_REOP5psS1FPMZxblTNecTd0bn0mA5FrVd4YG5x2pBDaMUGtnfZlKiBLEnFYLQdljYpumVTeacrhIPFu46dr_-OXwaMv1qtD81VfKNIaXfHEUm3EpZYUBECzTM/data/Uttrekk?payload=</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/grBH8w32naFlyiKkupQ58kaqQuqpSfk4qWcvIkMo5shCWCRXqI53hUt4azxq2HBx22X3KCsvBMN7ljkvmSQeXu_allDVZqmkNVrGswzsQ19LWSVoAv2DhJG30xQNI00ybsk9oEebMGNFV3yCzWNE-7RHkyBcN5xpLkkUNJywrnU/data/Uttrekk?payload=</v>
       </c>
       <c r="C162" t="str">
         <v>XHR</v>
@@ -4834,22 +4834,25 @@
         <v>2</v>
       </c>
       <c r="B164" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763140925292&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1863315728.1763140925&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;sid=1763140925&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=416</v>
+        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
       </c>
       <c r="C164" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D164" t="str">
-        <v>text/plain</v>
+        <v>image/avif</v>
       </c>
       <c r="E164">
-        <v>554</v>
+        <v>89672</v>
+      </c>
+      <c r="F164">
+        <v>89300</v>
       </c>
       <c r="G164">
-        <v>0.00016111040199999997</v>
+        <v>0.026077783335999995</v>
       </c>
       <c r="H164">
-        <v>0.0002122270956</v>
+        <v>0.0343516753008</v>
       </c>
     </row>
     <row r="165">
@@ -4857,22 +4860,25 @@
         <v>2</v>
       </c>
       <c r="B165" t="str">
-        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.init&amp;eid=2&amp;u=AAAAAAAAAAAAAACA&amp;h=Ag&amp;tr=1ogtipmark.1ogt1pdatav2.1ccdgafirst.1setproductsettings.1ccdgaregscope.1ccdemdownload.1ccdemform.1ccdemoutboundclick.1ccdempageview.1ccdemscroll.1ccdemsitesearch.1ccdemvideo.1ccdconversionmarking.1ccdautoredact.1ccdgalast&amp;ti=2ogtipmark.2ogt1pdatav2.2ccdgafirst.2setproductsettings.2ccdgaregscope.2ccdemdownload.2ccdemform.2ccdemoutboundclick.2ccdempageview.2ccdemscroll.2ccdemsitesearch.2ccdemvideo.2ccdconversionmarking.2ccdautoredact.2ccdgalast&amp;z=0</v>
+        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
       </c>
       <c r="C165" t="str">
         <v>Image</v>
       </c>
       <c r="D165" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E165">
-        <v>49</v>
+        <v>98728</v>
+      </c>
+      <c r="F165">
+        <v>98590</v>
       </c>
       <c r="G165">
-        <v>0.000014249836999999998</v>
+        <v>0.028711385863999996</v>
       </c>
       <c r="H165">
-        <v>0.000018770988600000004</v>
+        <v>0.0378208604592</v>
       </c>
     </row>
     <row r="166">
@@ -4880,22 +4886,25 @@
         <v>2</v>
       </c>
       <c r="B166" t="str">
-        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.js&amp;eid=3&amp;u=AAAAAAAAAAAAAACA&amp;h=Ag&amp;tr=1gct&amp;ti=2gct&amp;z=0</v>
+        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
       </c>
       <c r="C166" t="str">
         <v>Image</v>
       </c>
       <c r="D166" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E166">
-        <v>59</v>
+        <v>28026</v>
+      </c>
+      <c r="F166">
+        <v>27933</v>
       </c>
       <c r="G166">
-        <v>0.000017157966999999997</v>
+        <v>0.008150325138</v>
       </c>
       <c r="H166">
-        <v>0.0000226018026</v>
+        <v>0.010736239316399998</v>
       </c>
     </row>
     <row r="167">
@@ -4903,22 +4912,25 @@
         <v>2</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtag.config&amp;eid=9&amp;u=AAAAAAAAAAAAACCA&amp;h=Ag&amp;epr=1G.2G&amp;z=0</v>
+        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
       </c>
       <c r="C167" t="str">
         <v>Image</v>
       </c>
       <c r="D167" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E167">
-        <v>49</v>
+        <v>491326</v>
+      </c>
+      <c r="F167">
+        <v>490953</v>
       </c>
       <c r="G167">
-        <v>0.000014249836999999998</v>
+        <v>0.14288398803799998</v>
       </c>
       <c r="H167">
-        <v>0.000018770988600000004</v>
+        <v>0.18821785193640006</v>
       </c>
     </row>
     <row r="168">
@@ -4926,22 +4938,25 @@
         <v>2</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.dom&amp;eid=10&amp;u=AAAAAAAAAAAAACCA&amp;h=Ag&amp;z=0</v>
+        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
       </c>
       <c r="C168" t="str">
         <v>Image</v>
       </c>
       <c r="D168" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E168">
-        <v>49</v>
+        <v>71826</v>
+      </c>
+      <c r="F168">
+        <v>71706</v>
       </c>
       <c r="G168">
-        <v>0.000014249836999999998</v>
+        <v>0.020887934537999996</v>
       </c>
       <c r="H168">
-        <v>0.000018770988600000004</v>
+        <v>0.027515204636400004</v>
       </c>
     </row>
     <row r="169">
@@ -4949,22 +4964,25 @@
         <v>2</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;e=gtm.init&amp;eid=2&amp;u=AAAAAAAAAAAAACCA&amp;h=Ag&amp;tr=5ogtipmark.5ogt1pdatav2.5ccdgafirst.5setproductsettings.5ccdgaregscope.5ccdemdownload.5ccdemform.5ccdemoutboundclick.5ccdempageview.5ccdemscroll.5ccdemsitesearch.5ccdemvideo.5ccdconversionmarking.5ccdautoredact.5ccdgalast&amp;ti=2ogtipmark.2ogt1pdatav2.2ccdgafirst.2setproductsettings.2ccdgaregscope.2ccdemdownload.2ccdemform.2ccdemoutboundclick.2ccdempageview.2ccdemscroll.2ccdemsitesearch.2ccdemvideo.2ccdconversionmarking.2ccdautoredact.2ccdgalast&amp;z=0</v>
+        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
       </c>
       <c r="C169" t="str">
         <v>Image</v>
       </c>
       <c r="D169" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E169">
-        <v>49</v>
+        <v>24767</v>
+      </c>
+      <c r="F169">
+        <v>24675</v>
       </c>
       <c r="G169">
-        <v>0.000014249836999999998</v>
+        <v>0.007202565570999998</v>
       </c>
       <c r="H169">
-        <v>0.000018770988600000004</v>
+        <v>0.0094877770338</v>
       </c>
     </row>
     <row r="170">
@@ -4972,25 +4990,22 @@
         <v>2</v>
       </c>
       <c r="B170" t="str">
-        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1h1v9198259988za200zd9198259988&amp;_p=1763143332658&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=2039539718.1763143333&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105391253~115583767~115938466~115938469~116217636~116217638~116474638&amp;sid=1763143332&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=514</v>
       </c>
       <c r="C170" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D170" t="str">
-        <v>image/avif</v>
+        <v>text/plain</v>
       </c>
       <c r="E170">
-        <v>89430</v>
-      </c>
-      <c r="F170">
-        <v>89300</v>
+        <v>554</v>
       </c>
       <c r="G170">
-        <v>0.026007406589999997</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H170">
-        <v>0.034258969602000006</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="171">
@@ -4998,25 +5013,25 @@
         <v>2</v>
       </c>
       <c r="B171" t="str">
-        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/api/embed/config</v>
       </c>
       <c r="C171" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D171" t="str">
-        <v>image/avif</v>
+        <v>application/json</v>
       </c>
       <c r="E171">
-        <v>98728</v>
+        <v>551</v>
       </c>
       <c r="F171">
-        <v>98590</v>
+        <v>387</v>
       </c>
       <c r="G171">
-        <v>0.028711385863999996</v>
+        <v>0.00016023796299999998</v>
       </c>
       <c r="H171">
-        <v>0.0378208604592</v>
+        <v>0.00021107785140000003</v>
       </c>
     </row>
     <row r="172">
@@ -5024,25 +5039,25 @@
         <v>2</v>
       </c>
       <c r="B172" t="str">
-        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-no.json</v>
       </c>
       <c r="C172" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D172" t="str">
-        <v>image/avif</v>
+        <v>application/json</v>
       </c>
       <c r="E172">
-        <v>28025</v>
+        <v>931</v>
       </c>
       <c r="F172">
-        <v>27933</v>
+        <v>841</v>
       </c>
       <c r="G172">
-        <v>0.008150034325</v>
+        <v>0.00027074690299999996</v>
       </c>
       <c r="H172">
-        <v>0.010735856234999999</v>
+        <v>0.0003566487834</v>
       </c>
     </row>
     <row r="173">
@@ -5050,25 +5065,25 @@
         <v>2</v>
       </c>
       <c r="B173" t="str">
-        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-en-gb.json</v>
       </c>
       <c r="C173" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D173" t="str">
-        <v>image/avif</v>
+        <v>text/html</v>
       </c>
       <c r="E173">
-        <v>491316</v>
+        <v>1282</v>
       </c>
       <c r="F173">
-        <v>490953</v>
+        <v>1245</v>
       </c>
       <c r="G173">
-        <v>0.14288107990799997</v>
+        <v>0.00037282226599999994</v>
       </c>
       <c r="H173">
-        <v>0.18821402112240002</v>
+        <v>0.0004911103548</v>
       </c>
     </row>
     <row r="174">
@@ -5076,25 +5091,25 @@
         <v>2</v>
       </c>
       <c r="B174" t="str">
-        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/api/embed/live/788</v>
       </c>
       <c r="C174" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D174" t="str">
-        <v>image/avif</v>
+        <v>application/json</v>
       </c>
       <c r="E174">
-        <v>72068</v>
+        <v>15244</v>
       </c>
       <c r="F174">
-        <v>71706</v>
+        <v>15172</v>
       </c>
       <c r="G174">
-        <v>0.020958311283999997</v>
+        <v>0.004433153371999999</v>
       </c>
       <c r="H174">
-        <v>0.027607910335200003</v>
+        <v>0.0058396928616</v>
       </c>
     </row>
     <row r="175">
@@ -5102,25 +5117,25 @@
         <v>2</v>
       </c>
       <c r="B175" t="str">
-        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
+        <v>https://entitlements.jwplayer.com/1ccJYo6aEeWYJRKCk4Wcgw.json</v>
       </c>
       <c r="C175" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D175" t="str">
-        <v>image/avif</v>
+        <v>application/json</v>
       </c>
       <c r="E175">
-        <v>24768</v>
+        <v>431</v>
       </c>
       <c r="F175">
-        <v>24675</v>
+        <v>128</v>
       </c>
       <c r="G175">
-        <v>0.007202856383999999</v>
+        <v>0.00012534040299999998</v>
       </c>
       <c r="H175">
-        <v>0.009488160115200001</v>
+        <v>0.00016510808340000003</v>
       </c>
     </row>
     <row r="176">
@@ -5128,25 +5143,25 @@
         <v>2</v>
       </c>
       <c r="B176" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/config</v>
+        <v>https://nesodden.kommunetv.no/assets/js/ovpcam-plugin.js</v>
       </c>
       <c r="C176" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D176" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E176">
-        <v>552</v>
+        <v>2100</v>
       </c>
       <c r="F176">
-        <v>387</v>
+        <v>5588</v>
       </c>
       <c r="G176">
-        <v>0.00016052877599999997</v>
+        <v>0.0006107072999999999</v>
       </c>
       <c r="H176">
-        <v>0.00021146093280000001</v>
+        <v>0.0008044709399999999</v>
       </c>
     </row>
     <row r="177">
@@ -5154,25 +5169,25 @@
         <v>2</v>
       </c>
       <c r="B177" t="str">
-        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-no.json</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwpsrv.js</v>
       </c>
       <c r="C177" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D177" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E177">
-        <v>931</v>
+        <v>17964</v>
       </c>
       <c r="F177">
-        <v>841</v>
+        <v>67288</v>
       </c>
       <c r="G177">
-        <v>0.00027074690299999996</v>
+        <v>0.005224164732</v>
       </c>
       <c r="H177">
-        <v>0.0003566487834</v>
+        <v>0.006881674269600001</v>
       </c>
     </row>
     <row r="178">
@@ -5180,25 +5195,25 @@
         <v>2</v>
       </c>
       <c r="B178" t="str">
-        <v>https://nesodden.kommunetv.no/data/config/translations/embed-locale-en-gb.json</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwplayer.core.controls.js</v>
       </c>
       <c r="C178" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D178" t="str">
-        <v>text/html</v>
+        <v>text/javascript</v>
       </c>
       <c r="E178">
-        <v>1282</v>
+        <v>75987</v>
       </c>
       <c r="F178">
-        <v>1245</v>
+        <v>337761</v>
       </c>
       <c r="G178">
-        <v>0.00037282226599999994</v>
+        <v>0.022098007430999995</v>
       </c>
       <c r="H178">
-        <v>0.0004911103548</v>
+        <v>0.0291092063418</v>
       </c>
     </row>
     <row r="179">
@@ -5206,25 +5221,25 @@
         <v>2</v>
       </c>
       <c r="B179" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/live/788</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.hlsjs.js</v>
       </c>
       <c r="C179" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D179" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E179">
-        <v>15245</v>
+        <v>142430</v>
       </c>
       <c r="F179">
-        <v>15172</v>
+        <v>574585</v>
       </c>
       <c r="G179">
-        <v>0.004433444185</v>
+        <v>0.041420495589999995</v>
       </c>
       <c r="H179">
-        <v>0.005840075943000001</v>
+        <v>0.054562283802</v>
       </c>
     </row>
     <row r="180">
@@ -5232,25 +5247,25 @@
         <v>2</v>
       </c>
       <c r="B180" t="str">
-        <v>https://entitlements.jwplayer.com/1ccJYo6aEeWYJRKCk4Wcgw.json</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
       </c>
       <c r="C180" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D180" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E180">
-        <v>430</v>
+        <v>9240</v>
       </c>
       <c r="F180">
-        <v>128</v>
+        <v>31503</v>
       </c>
       <c r="G180">
-        <v>0.00012504959</v>
+        <v>0.0026871121199999997</v>
       </c>
       <c r="H180">
-        <v>0.000164725002</v>
+        <v>0.003539672136</v>
       </c>
     </row>
     <row r="181">
@@ -5258,25 +5273,25 @@
         <v>2</v>
       </c>
       <c r="B181" t="str">
-        <v>https://nesodden.kommunetv.no/assets/js/ovpcam-plugin.js</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
       </c>
       <c r="C181" t="str">
         <v>Script</v>
       </c>
       <c r="D181" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E181">
-        <v>2100</v>
+        <v>21825</v>
       </c>
       <c r="F181">
-        <v>5588</v>
+        <v>105743</v>
       </c>
       <c r="G181">
-        <v>0.0006107072999999999</v>
+        <v>0.006346993724999999</v>
       </c>
       <c r="H181">
-        <v>0.0008044709399999999</v>
+        <v>0.008360751555</v>
       </c>
     </row>
     <row r="182">
@@ -5284,25 +5299,25 @@
         <v>2</v>
       </c>
       <c r="B182" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwpsrv.js</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
       </c>
       <c r="C182" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D182" t="str">
-        <v>text/javascript</v>
+        <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E182">
-        <v>17963</v>
+        <v>472</v>
       </c>
       <c r="F182">
-        <v>67288</v>
+        <v>135</v>
       </c>
       <c r="G182">
-        <v>0.005223873919</v>
+        <v>0.00013726373599999998</v>
       </c>
       <c r="H182">
-        <v>0.006881291188200001</v>
+        <v>0.0001808144208</v>
       </c>
     </row>
     <row r="183">
@@ -5310,25 +5325,25 @@
         <v>2</v>
       </c>
       <c r="B183" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/jwplayer.core.controls.js</v>
+        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
       </c>
       <c r="C183" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D183" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E183">
-        <v>75960</v>
+        <v>552</v>
       </c>
       <c r="F183">
-        <v>337761</v>
+        <v>461</v>
       </c>
       <c r="G183">
-        <v>0.022090155479999995</v>
+        <v>0.00016052877599999997</v>
       </c>
       <c r="H183">
-        <v>0.029098863144</v>
+        <v>0.00021146093280000001</v>
       </c>
     </row>
     <row r="184">
@@ -5336,25 +5351,25 @@
         <v>2</v>
       </c>
       <c r="B184" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.hlsjs.js</v>
+        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
       </c>
       <c r="C184" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D184" t="str">
-        <v>text/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E184">
-        <v>142457</v>
+        <v>5069</v>
       </c>
       <c r="F184">
-        <v>574585</v>
+        <v>4981</v>
       </c>
       <c r="G184">
-        <v>0.04142834754099999</v>
+        <v>0.0014741310969999997</v>
       </c>
       <c r="H184">
-        <v>0.054572626999800006</v>
+        <v>0.0019418396166000003</v>
       </c>
     </row>
     <row r="185">
@@ -5362,25 +5377,25 @@
         <v>2</v>
       </c>
       <c r="B185" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
+        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
       </c>
       <c r="C185" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D185" t="str">
-        <v>text/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E185">
-        <v>9240</v>
+        <v>56889</v>
       </c>
       <c r="F185">
-        <v>31503</v>
+        <v>56773</v>
       </c>
       <c r="G185">
-        <v>0.0026871121199999997</v>
+        <v>0.016544060756999997</v>
       </c>
       <c r="H185">
-        <v>0.003539672136</v>
+        <v>0.0217931177646</v>
       </c>
     </row>
     <row r="186">
@@ -5388,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
+        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
       </c>
       <c r="C186" t="str">
         <v>Script</v>
@@ -5397,16 +5412,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E186">
-        <v>21825</v>
+        <v>2534</v>
       </c>
       <c r="F186">
-        <v>105743</v>
+        <v>4272</v>
       </c>
       <c r="G186">
-        <v>0.006346993724999999</v>
+        <v>0.0007369201419999998</v>
       </c>
       <c r="H186">
-        <v>0.008360751555</v>
+        <v>0.0009707282676</v>
       </c>
     </row>
     <row r="187">
@@ -5414,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w144035659_b1590968_ps198000_pd1572000.m3u8</v>
       </c>
       <c r="C187" t="str">
         <v>XHR</v>
@@ -5423,16 +5438,16 @@
         <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E187">
-        <v>471</v>
+        <v>628</v>
       </c>
       <c r="F187">
-        <v>136</v>
+        <v>10407</v>
       </c>
       <c r="G187">
-        <v>0.000136972923</v>
+        <v>0.00018263056399999997</v>
       </c>
       <c r="H187">
-        <v>0.00018043133940000001</v>
+        <v>0.0002405751192</v>
       </c>
     </row>
     <row r="188">
@@ -5440,25 +5455,25 @@
         <v>2</v>
       </c>
       <c r="B188" t="str">
-        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
+        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
       </c>
       <c r="C188" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D188" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E188">
-        <v>552</v>
+        <v>12439</v>
       </c>
       <c r="F188">
-        <v>461</v>
+        <v>35946</v>
       </c>
       <c r="G188">
-        <v>0.00016052877599999997</v>
+        <v>0.0036174229069999998</v>
       </c>
       <c r="H188">
-        <v>0.00021146093280000001</v>
+        <v>0.0047651495346</v>
       </c>
     </row>
     <row r="189">
@@ -5466,25 +5481,25 @@
         <v>2</v>
       </c>
       <c r="B189" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
+        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
       </c>
       <c r="C189" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D189" t="str">
-        <v>image/png</v>
+        <v>text/javascript</v>
       </c>
       <c r="E189">
-        <v>5069</v>
+        <v>14110</v>
       </c>
       <c r="F189">
-        <v>4981</v>
+        <v>48448</v>
       </c>
       <c r="G189">
-        <v>0.0014741310969999997</v>
+        <v>0.00410337143</v>
       </c>
       <c r="H189">
-        <v>0.0019418396166000003</v>
+        <v>0.005405278554</v>
       </c>
     </row>
     <row r="190">
@@ -5492,25 +5507,25 @@
         <v>2</v>
       </c>
       <c r="B190" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w144035659_b1590968_ps198000_pd1572000_0.ts</v>
       </c>
       <c r="C190" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D190" t="str">
-        <v>image/jpeg</v>
+        <v>video/mp2t</v>
       </c>
       <c r="E190">
-        <v>56898</v>
+        <v>2089711</v>
       </c>
       <c r="F190">
-        <v>56773</v>
+        <v>2088492</v>
       </c>
       <c r="G190">
-        <v>0.016546678074</v>
+        <v>0.6077151250429998</v>
       </c>
       <c r="H190">
-        <v>0.021796565497200004</v>
+        <v>0.8005294154754001</v>
       </c>
     </row>
     <row r="191">
@@ -5518,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="str">
-        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
+        <v>blob:https://nesodden.kommunetv.no/d06cf9ee-01d9-411c-8ae3-0d763ddca141</v>
       </c>
       <c r="C191" t="str">
         <v>Script</v>
@@ -5527,16 +5542,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E191">
-        <v>2534</v>
+        <v>-1</v>
       </c>
       <c r="F191">
-        <v>4272</v>
+        <v>525144</v>
       </c>
       <c r="G191">
-        <v>0.0007369201419999998</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>0.0009707282676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5544,25 +5559,25 @@
         <v>2</v>
       </c>
       <c r="B192" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w1893766316_b1590968_ps198000_pd1572000.m3u8</v>
+        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
       </c>
       <c r="C192" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D192" t="str">
-        <v>application/vnd.apple.mpegurl</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E192">
-        <v>634</v>
+        <v>81679</v>
       </c>
       <c r="F192">
-        <v>10565</v>
+        <v>81492</v>
       </c>
       <c r="G192">
-        <v>0.00018437544199999996</v>
+        <v>0.023753315026999997</v>
       </c>
       <c r="H192">
-        <v>0.0002428736076</v>
+        <v>0.0312897056706</v>
       </c>
     </row>
     <row r="193">
@@ -5570,178 +5585,181 @@
         <v>2</v>
       </c>
       <c r="B193" t="str">
-        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
       </c>
       <c r="C193" t="str">
-        <v>Script</v>
+        <v>Other</v>
       </c>
       <c r="D193" t="str">
-        <v>text/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E193">
-        <v>12439</v>
+        <v>41128</v>
       </c>
       <c r="F193">
-        <v>35946</v>
+        <v>40771</v>
       </c>
       <c r="G193">
-        <v>0.0036174229069999998</v>
+        <v>0.011960557063999998</v>
       </c>
       <c r="H193">
-        <v>0.0047651495346</v>
+        <v>0.0157553718192</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194" t="str">
-        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
+        <v>https://www.nesodden.kommune.no/</v>
       </c>
       <c r="C194" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D194" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E194">
-        <v>14110</v>
+        <v>27545</v>
       </c>
       <c r="F194">
-        <v>48448</v>
+        <v>84003</v>
       </c>
       <c r="G194">
-        <v>0.00410337143</v>
+        <v>0.008010444084999999</v>
       </c>
       <c r="H194">
-        <v>0.005405278554</v>
+        <v>0.010551977163000001</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w1893766316_b1590968_ps198000_pd1572000_0.ts</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/css/default.css?v=17.9.4244</v>
       </c>
       <c r="C195" t="str">
-        <v>XHR</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D195" t="str">
-        <v>video/mp2t</v>
+        <v>text/css</v>
       </c>
       <c r="E195">
-        <v>2089711</v>
+        <v>27325</v>
       </c>
       <c r="F195">
-        <v>2088492</v>
+        <v>186882</v>
       </c>
       <c r="G195">
-        <v>0.6077151250429998</v>
+        <v>0.007946465225</v>
       </c>
       <c r="H195">
-        <v>0.8005294154754001</v>
+        <v>0.010467699255</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196" t="str">
-        <v>blob:https://nesodden.kommunetv.no/257a0c2d-5b1b-4971-8220-61eaeb26fad2</v>
+        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4244</v>
       </c>
       <c r="C196" t="str">
         <v>Script</v>
       </c>
       <c r="D196" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E196">
-        <v>-1</v>
+        <v>24347</v>
       </c>
       <c r="F196">
-        <v>525144</v>
+        <v>80727</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>0.007080424110999999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>0.009326882845800001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B197" t="str">
-        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
+        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
       </c>
       <c r="C197" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D197" t="str">
-        <v>image/jpeg</v>
+        <v>application/javascript</v>
       </c>
       <c r="E197">
-        <v>81679</v>
+        <v>11999</v>
       </c>
       <c r="F197">
-        <v>81492</v>
+        <v>30599</v>
       </c>
       <c r="G197">
-        <v>0.023753315026999997</v>
+        <v>0.003489465187</v>
       </c>
       <c r="H197">
-        <v>0.0312897056706</v>
+        <v>0.0045965937186</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
       </c>
       <c r="C198" t="str">
-        <v>Other</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D198" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E198">
-        <v>41128</v>
+        <v>530</v>
       </c>
       <c r="F198">
-        <v>40771</v>
+        <v>267</v>
       </c>
       <c r="G198">
-        <v>0.011960557063999998</v>
+        <v>0.00015413088999999998</v>
       </c>
       <c r="H198">
-        <v>0.0157553718192</v>
+        <v>0.00020303314199999998</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199" t="str">
-        <v>https://www.googletagmanager.com/a?id=G-8WGX3H80ZM&amp;v=3&amp;t=t&amp;pid=464632992&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;cv=2&amp;rv=5bc1&amp;tc=16&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638&amp;es=1&amp;e=gtm.load&amp;eid=11&amp;u=AgAAAAAAAAAAACCA&amp;h=Ag&amp;z=0</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
       </c>
       <c r="C199" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D199" t="str">
-        <v>text/html</v>
+        <v>text/css</v>
       </c>
       <c r="E199">
-        <v>11</v>
+        <v>850</v>
+      </c>
+      <c r="F199">
+        <v>1352</v>
       </c>
       <c r="G199">
-        <v>0.0000031989429999999993</v>
+        <v>0.00024719105</v>
       </c>
       <c r="H199">
-        <v>0.0000042138954</v>
+        <v>0.00032561919000000003</v>
       </c>
     </row>
     <row r="200">
@@ -5749,25 +5767,25 @@
         <v>3</v>
       </c>
       <c r="B200" t="str">
-        <v>https://www.nesodden.kommune.no/</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
       </c>
       <c r="C200" t="str">
-        <v>Document</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D200" t="str">
-        <v>text/html</v>
+        <v>text/css</v>
       </c>
       <c r="E200">
-        <v>27571</v>
+        <v>19904</v>
       </c>
       <c r="F200">
-        <v>84003</v>
+        <v>134048</v>
       </c>
       <c r="G200">
-        <v>0.008018005222999999</v>
+        <v>0.005788341951999999</v>
       </c>
       <c r="H200">
-        <v>0.010561937279400002</v>
+        <v>0.007624852185600002</v>
       </c>
     </row>
     <row r="201">
@@ -5775,7 +5793,7 @@
         <v>3</v>
       </c>
       <c r="B201" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/css/default.css?v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
       </c>
       <c r="C201" t="str">
         <v>Stylesheet</v>
@@ -5784,16 +5802,16 @@
         <v>text/css</v>
       </c>
       <c r="E201">
-        <v>27325</v>
+        <v>1152</v>
       </c>
       <c r="F201">
-        <v>186882</v>
+        <v>3772</v>
       </c>
       <c r="G201">
-        <v>0.007946465225</v>
+        <v>0.00033501657599999997</v>
       </c>
       <c r="H201">
-        <v>0.010467699255</v>
+        <v>0.0004413097728</v>
       </c>
     </row>
     <row r="202">
@@ -5801,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="str">
-        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
       </c>
       <c r="C202" t="str">
         <v>Script</v>
@@ -5810,16 +5828,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E202">
-        <v>24347</v>
+        <v>43661</v>
       </c>
       <c r="F202">
-        <v>80727</v>
+        <v>97169</v>
       </c>
       <c r="G202">
-        <v>0.007080424110999999</v>
+        <v>0.012697186393</v>
       </c>
       <c r="H202">
-        <v>0.009326882845800001</v>
+        <v>0.016725717005400004</v>
       </c>
     </row>
     <row r="203">
@@ -5827,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="B203" t="str">
-        <v>https://www.nesodden.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
       </c>
       <c r="C203" t="str">
         <v>Script</v>
@@ -5836,16 +5854,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E203">
-        <v>11999</v>
+        <v>5154</v>
       </c>
       <c r="F203">
-        <v>30599</v>
+        <v>10057</v>
       </c>
       <c r="G203">
-        <v>0.003489465187</v>
+        <v>0.001498850202</v>
       </c>
       <c r="H203">
-        <v>0.0045965937186</v>
+        <v>0.0019744015356</v>
       </c>
     </row>
     <row r="204">
@@ -5853,25 +5871,25 @@
         <v>3</v>
       </c>
       <c r="B204" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
+        <v>https://www.nesodden.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
       </c>
       <c r="C204" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D204" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E204">
-        <v>530</v>
+        <v>5322</v>
       </c>
       <c r="F204">
-        <v>267</v>
+        <v>13616</v>
       </c>
       <c r="G204">
-        <v>0.00015413088999999998</v>
+        <v>0.0015477067859999997</v>
       </c>
       <c r="H204">
-        <v>0.00020303314199999998</v>
+        <v>0.0020387592108</v>
       </c>
     </row>
     <row r="205">
@@ -5879,25 +5897,25 @@
         <v>3</v>
       </c>
       <c r="B205" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
       </c>
       <c r="C205" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D205" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E205">
-        <v>850</v>
+        <v>3123</v>
       </c>
       <c r="F205">
-        <v>1352</v>
+        <v>8009</v>
       </c>
       <c r="G205">
-        <v>0.00024719105</v>
+        <v>0.0009082089989999999</v>
       </c>
       <c r="H205">
-        <v>0.00032561919000000003</v>
+        <v>0.0011963632122000002</v>
       </c>
     </row>
     <row r="206">
@@ -5905,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="B206" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
+        <v>https://www.nesodden.kommune.no/kunde/css/knapper/buttons.css</v>
       </c>
       <c r="C206" t="str">
         <v>Stylesheet</v>
@@ -5914,16 +5932,16 @@
         <v>text/css</v>
       </c>
       <c r="E206">
-        <v>19904</v>
+        <v>12039</v>
       </c>
       <c r="F206">
-        <v>134048</v>
+        <v>90840</v>
       </c>
       <c r="G206">
-        <v>0.005788341951999999</v>
+        <v>0.0035010977069999997</v>
       </c>
       <c r="H206">
-        <v>0.007624852185600002</v>
+        <v>0.0046119169746</v>
       </c>
     </row>
     <row r="207">
@@ -5931,7 +5949,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
+        <v>https://www.nesodden.kommune.no/css/Knapper/button-icons.css</v>
       </c>
       <c r="C207" t="str">
         <v>Stylesheet</v>
@@ -5940,16 +5958,16 @@
         <v>text/css</v>
       </c>
       <c r="E207">
-        <v>1152</v>
+        <v>1109</v>
       </c>
       <c r="F207">
-        <v>3772</v>
+        <v>3044</v>
       </c>
       <c r="G207">
-        <v>0.00033501657599999997</v>
+        <v>0.00032251161699999996</v>
       </c>
       <c r="H207">
-        <v>0.0004413097728</v>
+        <v>0.00042483727260000004</v>
       </c>
     </row>
     <row r="208">
@@ -5957,25 +5975,25 @@
         <v>3</v>
       </c>
       <c r="B208" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C208" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D208" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E208">
-        <v>43661</v>
+        <v>27600</v>
       </c>
       <c r="F208">
-        <v>97169</v>
+        <v>49533</v>
       </c>
       <c r="G208">
-        <v>0.012697186393</v>
+        <v>0.008026438799999999</v>
       </c>
       <c r="H208">
-        <v>0.016725717005400004</v>
+        <v>0.010573046640000002</v>
       </c>
     </row>
     <row r="209">
@@ -5983,25 +6001,25 @@
         <v>3</v>
       </c>
       <c r="B209" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
+        <v>https://www.nesodden.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4244</v>
       </c>
       <c r="C209" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D209" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E209">
-        <v>5154</v>
+        <v>770</v>
       </c>
       <c r="F209">
-        <v>10057</v>
+        <v>1957</v>
       </c>
       <c r="G209">
-        <v>0.001498850202</v>
+        <v>0.00022392600999999996</v>
       </c>
       <c r="H209">
-        <v>0.0019744015356</v>
+        <v>0.000294972678</v>
       </c>
     </row>
     <row r="210">
@@ -6009,25 +6027,25 @@
         <v>3</v>
       </c>
       <c r="B210" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C210" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D210" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E210">
-        <v>5322</v>
+        <v>6135</v>
       </c>
       <c r="F210">
-        <v>13616</v>
+        <v>43867</v>
       </c>
       <c r="G210">
-        <v>0.0015477067859999997</v>
+        <v>0.001784137755</v>
       </c>
       <c r="H210">
-        <v>0.0020387592108</v>
+        <v>0.0023502043890000004</v>
       </c>
     </row>
     <row r="211">
@@ -6035,25 +6053,25 @@
         <v>3</v>
       </c>
       <c r="B211" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/css/STYLESHEET.css?v=v17.9.04244</v>
       </c>
       <c r="C211" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D211" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E211">
-        <v>3123</v>
+        <v>20833</v>
       </c>
       <c r="F211">
-        <v>8009</v>
+        <v>118476</v>
       </c>
       <c r="G211">
-        <v>0.0009082089989999999</v>
+        <v>0.006058507228999999</v>
       </c>
       <c r="H211">
-        <v>0.0011963632122000002</v>
+        <v>0.007980734806199999</v>
       </c>
     </row>
     <row r="212">
@@ -6061,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="B212" t="str">
-        <v>https://www.nesodden.kommune.no/kunde/css/knapper/buttons.css</v>
+        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.css</v>
       </c>
       <c r="C212" t="str">
         <v>Stylesheet</v>
@@ -6070,16 +6088,16 @@
         <v>text/css</v>
       </c>
       <c r="E212">
-        <v>12039</v>
+        <v>19902</v>
       </c>
       <c r="F212">
-        <v>90840</v>
+        <v>126379</v>
       </c>
       <c r="G212">
-        <v>0.0035010977069999997</v>
+        <v>0.005787760325999999</v>
       </c>
       <c r="H212">
-        <v>0.0046119169746</v>
+        <v>0.007624086022799999</v>
       </c>
     </row>
     <row r="213">
@@ -6087,7 +6105,7 @@
         <v>3</v>
       </c>
       <c r="B213" t="str">
-        <v>https://www.nesodden.kommune.no/css/Knapper/button-icons.css</v>
+        <v>https://www.nesodden.kommune.no/css/autoSuggest/autoSuggest.min.css?v=20230704</v>
       </c>
       <c r="C213" t="str">
         <v>Stylesheet</v>
@@ -6096,16 +6114,16 @@
         <v>text/css</v>
       </c>
       <c r="E213">
-        <v>1109</v>
+        <v>635</v>
       </c>
       <c r="F213">
-        <v>3044</v>
+        <v>300</v>
       </c>
       <c r="G213">
-        <v>0.00032251161699999996</v>
+        <v>0.00018466625499999998</v>
       </c>
       <c r="H213">
-        <v>0.00042483727260000004</v>
+        <v>0.000243256689</v>
       </c>
     </row>
     <row r="214">
@@ -6113,25 +6131,25 @@
         <v>3</v>
       </c>
       <c r="B214" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-8WGX3H80ZM</v>
       </c>
       <c r="C214" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D214" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E214">
-        <v>27600</v>
+        <v>147292</v>
       </c>
       <c r="F214">
-        <v>49533</v>
+        <v>434273</v>
       </c>
       <c r="G214">
-        <v>0.008026438799999999</v>
+        <v>0.042834428396</v>
       </c>
       <c r="H214">
-        <v>0.010573046640000002</v>
+        <v>0.05642482556880001</v>
       </c>
     </row>
     <row r="215">
@@ -6139,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/css/css.ashx?style=artikkel</v>
       </c>
       <c r="C215" t="str">
         <v>Stylesheet</v>
@@ -6148,16 +6166,16 @@
         <v>text/css</v>
       </c>
       <c r="E215">
-        <v>770</v>
+        <v>7053</v>
       </c>
       <c r="F215">
-        <v>1957</v>
+        <v>21639</v>
       </c>
       <c r="G215">
-        <v>0.00022392600999999996</v>
+        <v>0.002051104089</v>
       </c>
       <c r="H215">
-        <v>0.000294972678</v>
+        <v>0.0027018731142</v>
       </c>
     </row>
     <row r="216">
@@ -6165,7 +6183,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/css/css.ashx?style=login</v>
       </c>
       <c r="C216" t="str">
         <v>Stylesheet</v>
@@ -6174,16 +6192,16 @@
         <v>text/css</v>
       </c>
       <c r="E216">
-        <v>6135</v>
+        <v>3630</v>
       </c>
       <c r="F216">
-        <v>43867</v>
+        <v>5649</v>
       </c>
       <c r="G216">
-        <v>0.001784137755</v>
+        <v>0.0010556511899999998</v>
       </c>
       <c r="H216">
-        <v>0.0023502043890000004</v>
+        <v>0.001390585482</v>
       </c>
     </row>
     <row r="217">
@@ -6191,25 +6209,25 @@
         <v>3</v>
       </c>
       <c r="B217" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/css/STYLESHEET.css?v=v17.9.04244</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i8b2b72d0-7ff3-4992-9fe9-89f4c3658913/8e4f7nesoddenkommune-logo.svg</v>
       </c>
       <c r="C217" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D217" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E217">
-        <v>20833</v>
+        <v>9338</v>
       </c>
       <c r="F217">
-        <v>118476</v>
+        <v>8969</v>
       </c>
       <c r="G217">
-        <v>0.006058507228999999</v>
+        <v>0.0027156117939999996</v>
       </c>
       <c r="H217">
-        <v>0.007980734806199999</v>
+        <v>0.0035772141131999997</v>
       </c>
     </row>
     <row r="218">
@@ -6217,25 +6235,25 @@
         <v>3</v>
       </c>
       <c r="B218" t="str">
-        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.css</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i88bcb491-7670-4cc4-a4b6-af0772085659/w360/k3648069988b1/seniorkafe.jpg</v>
       </c>
       <c r="C218" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D218" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E218">
-        <v>19902</v>
+        <v>26730</v>
       </c>
       <c r="F218">
-        <v>126379</v>
+        <v>26378</v>
       </c>
       <c r="G218">
-        <v>0.005787760325999999</v>
+        <v>0.007773431489999999</v>
       </c>
       <c r="H218">
-        <v>0.007624086022799999</v>
+        <v>0.010239765822</v>
       </c>
     </row>
     <row r="219">
@@ -6243,25 +6261,25 @@
         <v>3</v>
       </c>
       <c r="B219" t="str">
-        <v>https://www.nesodden.kommune.no/css/autoSuggest/autoSuggest.min.css?v=20230704</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i09125e6e-ce08-40a2-9ce0-5d4e636a3e45/w360/kafeaaaf7d9dc/apent-kontor-om-budsjett-2026.jpg</v>
       </c>
       <c r="C219" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D219" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E219">
-        <v>635</v>
+        <v>26842</v>
       </c>
       <c r="F219">
-        <v>300</v>
+        <v>26471</v>
       </c>
       <c r="G219">
-        <v>0.00018466625499999998</v>
+        <v>0.007806002545999999</v>
       </c>
       <c r="H219">
-        <v>0.000243256689</v>
+        <v>0.010282670938800002</v>
       </c>
     </row>
     <row r="220">
@@ -6269,25 +6287,25 @@
         <v>3</v>
       </c>
       <c r="B220" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-8WGX3H80ZM</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/iac097c41-f4ae-4970-9a3e-3d2d561ce7e1/w360/q17249/ke99a1756ece1/oksvalveien_nes_00344.jpg</v>
       </c>
       <c r="C220" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D220" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E220">
-        <v>147289</v>
+        <v>15278</v>
       </c>
       <c r="F220">
-        <v>434263</v>
+        <v>14915</v>
       </c>
       <c r="G220">
-        <v>0.042833555956999995</v>
+        <v>0.004443041014</v>
       </c>
       <c r="H220">
-        <v>0.056423676324600006</v>
+        <v>0.0058527176292</v>
       </c>
     </row>
     <row r="221">
@@ -6295,25 +6313,25 @@
         <v>3</v>
       </c>
       <c r="B221" t="str">
-        <v>https://www.nesodden.kommune.no/css/css.ashx?style=artikkel</v>
+        <v>https://www.nesodden.kommune.no/WebResource.axd?d=McOdfAHWve3kUGRRQOgTR48p7lnaHyu3Lsl8PmkBYEvaIQqktJq4XNUfieN51VVSqSsOchOAZw7di8MhceiHJVmPQob3lYHjzS4UTMoM1Ho1&amp;t=638901608248157332</v>
       </c>
       <c r="C221" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D221" t="str">
-        <v>text/css</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E221">
-        <v>7053</v>
+        <v>6327</v>
       </c>
       <c r="F221">
-        <v>21639</v>
+        <v>23063</v>
       </c>
       <c r="G221">
-        <v>0.002051104089</v>
+        <v>0.0018399738509999998</v>
       </c>
       <c r="H221">
-        <v>0.0027018731142</v>
+        <v>0.0024237560178</v>
       </c>
     </row>
     <row r="222">
@@ -6321,25 +6339,25 @@
         <v>3</v>
       </c>
       <c r="B222" t="str">
-        <v>https://www.nesodden.kommune.no/css/css.ashx?style=login</v>
+        <v>https://www.nesodden.kommune.no/Maler/assets/js/components/area-message/area-message.js</v>
       </c>
       <c r="C222" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D222" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E222">
-        <v>3630</v>
+        <v>2613</v>
       </c>
       <c r="F222">
-        <v>5649</v>
+        <v>11795</v>
       </c>
       <c r="G222">
-        <v>0.0010556511899999998</v>
+        <v>0.0007598943689999999</v>
       </c>
       <c r="H222">
-        <v>0.001390585482</v>
+        <v>0.0010009916982</v>
       </c>
     </row>
     <row r="223">
@@ -6347,25 +6365,25 @@
         <v>3</v>
       </c>
       <c r="B223" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i8b2b72d0-7ff3-4992-9fe9-89f4c3658913/8e4f7nesoddenkommune-logo.svg</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C223" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D223" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E223">
-        <v>9338</v>
+        <v>10148</v>
       </c>
       <c r="F223">
-        <v>8969</v>
+        <v>43086</v>
       </c>
       <c r="G223">
-        <v>0.0027156117939999996</v>
+        <v>0.0029511703239999995</v>
       </c>
       <c r="H223">
-        <v>0.0035772141131999997</v>
+        <v>0.003887510047200001</v>
       </c>
     </row>
     <row r="224">
@@ -6373,25 +6391,25 @@
         <v>3</v>
       </c>
       <c r="B224" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i88bcb491-7670-4cc4-a4b6-af0772085659/w360/k3648069988b1/seniorkafe.jpg</v>
+        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
       </c>
       <c r="C224" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D224" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E224">
-        <v>26730</v>
+        <v>1316</v>
       </c>
       <c r="F224">
-        <v>26378</v>
+        <v>3344</v>
       </c>
       <c r="G224">
-        <v>0.007773431489999999</v>
+        <v>0.00038270990799999996</v>
       </c>
       <c r="H224">
-        <v>0.010239765822</v>
+        <v>0.0005041351224</v>
       </c>
     </row>
     <row r="225">
@@ -6399,25 +6417,25 @@
         <v>3</v>
       </c>
       <c r="B225" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i09125e6e-ce08-40a2-9ce0-5d4e636a3e45/w360/kafeaaaf7d9dc/apent-kontor-om-budsjett-2026.jpg</v>
+        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.cookie.js</v>
       </c>
       <c r="C225" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D225" t="str">
-        <v>image/jpeg</v>
+        <v>application/javascript</v>
       </c>
       <c r="E225">
-        <v>26842</v>
+        <v>1210</v>
       </c>
       <c r="F225">
-        <v>26471</v>
+        <v>1576</v>
       </c>
       <c r="G225">
-        <v>0.007806002545999999</v>
+        <v>0.00035188372999999995</v>
       </c>
       <c r="H225">
-        <v>0.010282670938800002</v>
+        <v>0.0004635284940000001</v>
       </c>
     </row>
     <row r="226">
@@ -6425,25 +6443,25 @@
         <v>3</v>
       </c>
       <c r="B226" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/iac097c41-f4ae-4970-9a3e-3d2d561ce7e1/w360/q17249/ke99a1756ece1/oksvalveien_nes_00344.jpg</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/js/scripts.js?v=v17.9.04244</v>
       </c>
       <c r="C226" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D226" t="str">
-        <v>image/jpeg</v>
+        <v>application/javascript</v>
       </c>
       <c r="E226">
-        <v>15278</v>
+        <v>1047</v>
       </c>
       <c r="F226">
-        <v>14915</v>
+        <v>1388</v>
       </c>
       <c r="G226">
-        <v>0.004443041014</v>
+        <v>0.00030448121099999997</v>
       </c>
       <c r="H226">
-        <v>0.0058527176292</v>
+        <v>0.00040108622580000005</v>
       </c>
     </row>
     <row r="227">
@@ -6451,25 +6469,25 @@
         <v>3</v>
       </c>
       <c r="B227" t="str">
-        <v>https://www.nesodden.kommune.no/WebResource.axd?d=McOdfAHWve3kUGRRQOgTR48p7lnaHyu3Lsl8PmkBYEvaIQqktJq4XNUfieN51VVSqSsOchOAZw7di8MhceiHJVmPQob3lYHjzS4UTMoM1Ho1&amp;t=638901608248157332</v>
+        <v>https://www.nesodden.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
       </c>
       <c r="C227" t="str">
         <v>Script</v>
       </c>
       <c r="D227" t="str">
-        <v>application/x-javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E227">
-        <v>6327</v>
+        <v>2595</v>
       </c>
       <c r="F227">
-        <v>23063</v>
+        <v>5038</v>
       </c>
       <c r="G227">
-        <v>0.0018399738509999998</v>
+        <v>0.000754659735</v>
       </c>
       <c r="H227">
-        <v>0.0024237560178</v>
+        <v>0.000994096233</v>
       </c>
     </row>
     <row r="228">
@@ -6477,7 +6495,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/assets/js/components/area-message/area-message.js</v>
+        <v>https://www.nesodden.kommune.no/script/js/beredskap.js</v>
       </c>
       <c r="C228" t="str">
         <v>Script</v>
@@ -6486,16 +6504,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E228">
-        <v>2613</v>
+        <v>2285</v>
       </c>
       <c r="F228">
-        <v>11795</v>
+        <v>4807</v>
       </c>
       <c r="G228">
-        <v>0.0007598943689999999</v>
+        <v>0.000664507705</v>
       </c>
       <c r="H228">
-        <v>0.0010009916982</v>
+        <v>0.0008753409990000002</v>
       </c>
     </row>
     <row r="229">
@@ -6503,25 +6521,25 @@
         <v>3</v>
       </c>
       <c r="B229" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/script/eventbus/eventbus.min.js</v>
       </c>
       <c r="C229" t="str">
         <v>Script</v>
       </c>
       <c r="D229" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E229">
-        <v>10148</v>
+        <v>867</v>
       </c>
       <c r="F229">
-        <v>43086</v>
+        <v>1036</v>
       </c>
       <c r="G229">
-        <v>0.0029511703239999995</v>
+        <v>0.00025213487099999993</v>
       </c>
       <c r="H229">
-        <v>0.003887510047200001</v>
+        <v>0.0003321315738000001</v>
       </c>
     </row>
     <row r="230">
@@ -6529,25 +6547,25 @@
         <v>3</v>
       </c>
       <c r="B230" t="str">
-        <v>https://www.nesodden.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=86&amp;sprakID=1&amp;designID=10171&amp;v=17.9.4244</v>
+        <v>https://www.nesodden.kommune.no/templates/design/assets/js/common.js?v=v17.9.04244</v>
       </c>
       <c r="C230" t="str">
         <v>Script</v>
       </c>
       <c r="D230" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E230">
-        <v>1316</v>
+        <v>638</v>
       </c>
       <c r="F230">
-        <v>3344</v>
+        <v>309</v>
       </c>
       <c r="G230">
-        <v>0.00038270990799999996</v>
+        <v>0.00018553869399999998</v>
       </c>
       <c r="H230">
-        <v>0.0005041351224</v>
+        <v>0.0002444059332</v>
       </c>
     </row>
     <row r="231">
@@ -6555,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="str">
-        <v>https://www.nesodden.kommune.no/script/jQuery/jquery.cookie.js</v>
+        <v>https://www.nesodden.kommune.no/script/vanilla/autosuggest/autosuggest.vanilla.js?v=20250710</v>
       </c>
       <c r="C231" t="str">
         <v>Script</v>
@@ -6564,16 +6582,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E231">
-        <v>1210</v>
+        <v>4307</v>
       </c>
       <c r="F231">
-        <v>1576</v>
+        <v>15274</v>
       </c>
       <c r="G231">
-        <v>0.00035188372999999995</v>
+        <v>0.001252531591</v>
       </c>
       <c r="H231">
-        <v>0.0004635284940000001</v>
+        <v>0.0016499315898</v>
       </c>
     </row>
     <row r="232">
@@ -6581,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/js/scripts.js?v=v17.9.04244</v>
+        <v>https://www.nesodden.kommune.no/script/js/login.e9fcj.js</v>
       </c>
       <c r="C232" t="str">
         <v>Script</v>
@@ -6590,16 +6608,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E232">
-        <v>1047</v>
+        <v>959</v>
       </c>
       <c r="F232">
-        <v>1388</v>
+        <v>1511</v>
       </c>
       <c r="G232">
-        <v>0.00030448121099999997</v>
+        <v>0.000278889667</v>
       </c>
       <c r="H232">
-        <v>0.00040108622580000005</v>
+        <v>0.0003673750626</v>
       </c>
     </row>
     <row r="233">
@@ -6607,25 +6625,25 @@
         <v>3</v>
       </c>
       <c r="B233" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
+        <v>https://fonts.googleapis.com/css2?family=Inter:wght@400;500;600;700&amp;display=swap</v>
       </c>
       <c r="C233" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D233" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E233">
-        <v>2595</v>
+        <v>862</v>
       </c>
       <c r="F233">
-        <v>5038</v>
+        <v>10028</v>
       </c>
       <c r="G233">
-        <v>0.000754659735</v>
+        <v>0.00025068080599999996</v>
       </c>
       <c r="H233">
-        <v>0.000994096233</v>
+        <v>0.00033021616680000007</v>
       </c>
     </row>
     <row r="234">
@@ -6633,25 +6651,25 @@
         <v>3</v>
       </c>
       <c r="B234" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/beredskap.js</v>
+        <v>https://fonts.googleapis.com/icon?family=Material+Icons|Material+Icons+Outlined|Material+Icons+Round</v>
       </c>
       <c r="C234" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D234" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E234">
-        <v>2285</v>
+        <v>961</v>
       </c>
       <c r="F234">
-        <v>4807</v>
+        <v>1803</v>
       </c>
       <c r="G234">
-        <v>0.000664507705</v>
+        <v>0.00027947129299999996</v>
       </c>
       <c r="H234">
-        <v>0.0008753409990000002</v>
+        <v>0.0003681412254</v>
       </c>
     </row>
     <row r="235">
@@ -6659,25 +6677,25 @@
         <v>3</v>
       </c>
       <c r="B235" t="str">
-        <v>https://www.nesodden.kommune.no/script/eventbus/eventbus.min.js</v>
+        <v>https://nesodden.kommunetv.no/embed/live/788</v>
       </c>
       <c r="C235" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D235" t="str">
-        <v>application/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E235">
-        <v>867</v>
+        <v>1006</v>
       </c>
       <c r="F235">
-        <v>1036</v>
+        <v>1083</v>
       </c>
       <c r="G235">
-        <v>0.00025213487099999993</v>
+        <v>0.000292557878</v>
       </c>
       <c r="H235">
-        <v>0.0003321315738000001</v>
+        <v>0.0003853798884</v>
       </c>
     </row>
     <row r="236">
@@ -6685,25 +6703,25 @@
         <v>3</v>
       </c>
       <c r="B236" t="str">
-        <v>https://www.nesodden.kommune.no/templates/design/assets/js/common.js?v=v17.9.04244</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/e1/i07c5c0d4-f442-4159-bfbb-130598b0d0ac/w1920/h1080/k21ea8859e35b/nesoddtangen-brygge-2-foto-anja-antonsen.jpg</v>
       </c>
       <c r="C236" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D236" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E236">
-        <v>638</v>
+        <v>187878</v>
       </c>
       <c r="F236">
-        <v>309</v>
+        <v>187495</v>
       </c>
       <c r="G236">
-        <v>0.00018553869399999998</v>
+        <v>0.05463736481399999</v>
       </c>
       <c r="H236">
-        <v>0.0002444059332</v>
+        <v>0.0719725672692</v>
       </c>
     </row>
     <row r="237">
@@ -6711,25 +6729,25 @@
         <v>3</v>
       </c>
       <c r="B237" t="str">
-        <v>https://www.nesodden.kommune.no/script/vanilla/autosuggest/autosuggest.vanilla.js?v=20250710</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/search-line.svg</v>
       </c>
       <c r="C237" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D237" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E237">
-        <v>4307</v>
+        <v>697</v>
       </c>
       <c r="F237">
-        <v>15274</v>
+        <v>419</v>
       </c>
       <c r="G237">
-        <v>0.001252531591</v>
+        <v>0.00020269666099999997</v>
       </c>
       <c r="H237">
-        <v>0.0016499315898</v>
+        <v>0.00026700773579999996</v>
       </c>
     </row>
     <row r="238">
@@ -6737,25 +6755,25 @@
         <v>3</v>
       </c>
       <c r="B238" t="str">
-        <v>https://www.nesodden.kommune.no/script/js/login.e9fcj.js</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/bildepil.svg</v>
       </c>
       <c r="C238" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D238" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E238">
-        <v>959</v>
+        <v>527</v>
       </c>
       <c r="F238">
-        <v>1511</v>
+        <v>249</v>
       </c>
       <c r="G238">
-        <v>0.000278889667</v>
+        <v>0.00015325845099999996</v>
       </c>
       <c r="H238">
-        <v>0.0003673750626</v>
+        <v>0.00020188389779999998</v>
       </c>
     </row>
     <row r="239">
@@ -6763,25 +6781,25 @@
         <v>3</v>
       </c>
       <c r="B239" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Inter:wght@400;500;600;700&amp;display=swap</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ie15f0183-b7d9-4404-b456-040016e350e1/w750/h300/q15865/k08d946f972ef/nesodden-flyfoto.jpg</v>
       </c>
       <c r="C239" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D239" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E239">
-        <v>1233</v>
+        <v>53706</v>
       </c>
       <c r="F239">
-        <v>10028</v>
+        <v>53348</v>
       </c>
       <c r="G239">
-        <v>0.00035857242899999995</v>
+        <v>0.015618402977999997</v>
       </c>
       <c r="H239">
-        <v>0.0004723393662</v>
+        <v>0.0205737696684</v>
       </c>
     </row>
     <row r="240">
@@ -6789,25 +6807,25 @@
         <v>3</v>
       </c>
       <c r="B240" t="str">
-        <v>https://fonts.googleapis.com/icon?family=Material+Icons|Material+Icons+Outlined|Material+Icons+Round</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i39140659-ef37-476e-aa1e-41a95326fc2d/w820/h547/q15864/kf0404461b961/skole.jpg</v>
       </c>
       <c r="C240" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D240" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E240">
-        <v>590</v>
+        <v>76879</v>
       </c>
       <c r="F240">
-        <v>1803</v>
+        <v>76532</v>
       </c>
       <c r="G240">
-        <v>0.00017157967</v>
+        <v>0.022357412626999997</v>
       </c>
       <c r="H240">
-        <v>0.00022601802599999998</v>
+        <v>0.0294509149506</v>
       </c>
     </row>
     <row r="241">
@@ -6815,25 +6833,25 @@
         <v>3</v>
       </c>
       <c r="B241" t="str">
-        <v>https://nesodden.kommunetv.no/embed/live/788</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i54a69a28-988e-4826-ba8b-dd7dbfb2c529/w3872/h2592/k69484735eb74/skateboard-dsc_0660.JPG</v>
       </c>
       <c r="C241" t="str">
-        <v>Document</v>
+        <v>Image</v>
       </c>
       <c r="D241" t="str">
-        <v>text/html</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E241">
-        <v>1006</v>
+        <v>788166</v>
       </c>
       <c r="F241">
-        <v>1083</v>
+        <v>787804</v>
       </c>
       <c r="G241">
-        <v>0.000292557878</v>
+        <v>0.22920891895799997</v>
       </c>
       <c r="H241">
-        <v>0.0003853798884</v>
+        <v>0.30193173471240004</v>
       </c>
     </row>
     <row r="242">
@@ -6841,25 +6859,25 @@
         <v>3</v>
       </c>
       <c r="B242" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/e1/i07c5c0d4-f442-4159-bfbb-130598b0d0ac/w1920/h1080/k21ea8859e35b/nesoddtangen-brygge-2-foto-anja-antonsen.jpg</v>
+        <v>https://fonts.gstatic.com/s/materialiconsoutlined/v110/gok-H7zzDkdnRel8-DQ6KAXJ69wP1tGnf4ZGhUcel5euIg.woff2</v>
       </c>
       <c r="C242" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D242" t="str">
-        <v>image/jpeg</v>
+        <v>font/woff2</v>
       </c>
       <c r="E242">
-        <v>187878</v>
+        <v>155325</v>
       </c>
       <c r="F242">
-        <v>187495</v>
+        <v>155276</v>
       </c>
       <c r="G242">
-        <v>0.05463736481399999</v>
+        <v>0.04517052922499999</v>
       </c>
       <c r="H242">
-        <v>0.0719725672692</v>
+        <v>0.05950211845500001</v>
       </c>
     </row>
     <row r="243">
@@ -6867,25 +6885,25 @@
         <v>3</v>
       </c>
       <c r="B243" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/search-line.svg</v>
+        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/fonts/nesodden.ttf?eg2kb</v>
       </c>
       <c r="C243" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D243" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E243">
-        <v>697</v>
+        <v>1860</v>
       </c>
       <c r="F243">
-        <v>419</v>
+        <v>1572</v>
       </c>
       <c r="G243">
-        <v>0.00020269666099999997</v>
+        <v>0.0005409121799999999</v>
       </c>
       <c r="H243">
-        <v>0.00026700773579999996</v>
+        <v>0.0007125314040000001</v>
       </c>
     </row>
     <row r="244">
@@ -6893,25 +6911,25 @@
         <v>3</v>
       </c>
       <c r="B244" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/images/bildepil.svg</v>
+        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.woff2?t=1590207869815</v>
       </c>
       <c r="C244" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D244" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E244">
-        <v>527</v>
+        <v>125546</v>
       </c>
       <c r="F244">
-        <v>249</v>
+        <v>125268</v>
       </c>
       <c r="G244">
-        <v>0.00015325845099999996</v>
+        <v>0.036510408897999995</v>
       </c>
       <c r="H244">
-        <v>0.00020188389779999998</v>
+        <v>0.048094337444400004</v>
       </c>
     </row>
     <row r="245">
@@ -6919,25 +6937,25 @@
         <v>3</v>
       </c>
       <c r="B245" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/ie15f0183-b7d9-4404-b456-040016e350e1/w750/h300/q15865/k08d946f972ef/nesodden-flyfoto.jpg</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/requestlog</v>
       </c>
       <c r="C245" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D245" t="str">
-        <v>image/jpeg</v>
+        <v>application/json</v>
       </c>
       <c r="E245">
-        <v>53706</v>
+        <v>299</v>
       </c>
       <c r="F245">
-        <v>53348</v>
+        <v>72</v>
       </c>
       <c r="G245">
-        <v>0.015618402977999997</v>
+        <v>0.00008695308699999998</v>
       </c>
       <c r="H245">
-        <v>0.0205737696684</v>
+        <v>0.00011454133860000002</v>
       </c>
     </row>
     <row r="246">
@@ -6945,25 +6963,25 @@
         <v>3</v>
       </c>
       <c r="B246" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i39140659-ef37-476e-aa1e-41a95326fc2d/w820/h547/q15864/kf0404461b961/skole.jpg</v>
+        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
       </c>
       <c r="C246" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D246" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E246">
-        <v>76879</v>
+        <v>24660</v>
       </c>
       <c r="F246">
-        <v>76532</v>
+        <v>154875</v>
       </c>
       <c r="G246">
-        <v>0.022357412626999997</v>
+        <v>0.007171448579999999</v>
       </c>
       <c r="H246">
-        <v>0.0294509149506</v>
+        <v>0.009446787324000002</v>
       </c>
     </row>
     <row r="247">
@@ -6971,25 +6989,25 @@
         <v>3</v>
       </c>
       <c r="B247" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i54a69a28-988e-4826-ba8b-dd7dbfb2c529/w3872/h2592/k69484735eb74/skateboard-dsc_0660.JPG</v>
+        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
       </c>
       <c r="C247" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D247" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E247">
-        <v>788166</v>
+        <v>57440</v>
       </c>
       <c r="F247">
-        <v>787804</v>
+        <v>159622</v>
       </c>
       <c r="G247">
-        <v>0.22920891895799997</v>
+        <v>0.01670429872</v>
       </c>
       <c r="H247">
-        <v>0.30193173471240004</v>
+        <v>0.022004195616</v>
       </c>
     </row>
     <row r="248">
@@ -6997,25 +7015,25 @@
         <v>3</v>
       </c>
       <c r="B248" t="str">
-        <v>https://fonts.gstatic.com/s/materialiconsoutlined/v110/gok-H7zzDkdnRel8-DQ6KAXJ69wP1tGnf4ZGhUcel5euIg.woff2</v>
+        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
       </c>
       <c r="C248" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D248" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E248">
-        <v>155325</v>
+        <v>927</v>
       </c>
       <c r="F248">
-        <v>155276</v>
+        <v>1068</v>
       </c>
       <c r="G248">
-        <v>0.04517052922499999</v>
+        <v>0.00026958365099999994</v>
       </c>
       <c r="H248">
-        <v>0.05950211845500001</v>
+        <v>0.00035511645780000005</v>
       </c>
     </row>
     <row r="249">
@@ -7023,25 +7041,25 @@
         <v>3</v>
       </c>
       <c r="B249" t="str">
-        <v>https://www.nesodden.kommune.no/Design/nesodden_kommune/nesodden/v2022/assets/fonts/nesodden.ttf?eg2kb</v>
+        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
       </c>
       <c r="C249" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D249" t="str">
-        <v>application/x-font-ttf</v>
+        <v>application/javascript</v>
       </c>
       <c r="E249">
-        <v>1860</v>
+        <v>15856</v>
       </c>
       <c r="F249">
-        <v>1572</v>
+        <v>37010</v>
       </c>
       <c r="G249">
-        <v>0.0005409121799999999</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H249">
-        <v>0.0007125314040000001</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
     <row r="250">
@@ -7049,25 +7067,25 @@
         <v>3</v>
       </c>
       <c r="B250" t="str">
-        <v>https://www.nesodden.kommune.no/css/remixicon/remixicon.woff2?t=1590207869815</v>
+        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
       </c>
       <c r="C250" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D250" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E250">
-        <v>125546</v>
+        <v>108915</v>
       </c>
       <c r="F250">
-        <v>125268</v>
+        <v>288183</v>
       </c>
       <c r="G250">
-        <v>0.036510408897999995</v>
+        <v>0.031673897895</v>
       </c>
       <c r="H250">
-        <v>0.048094337444400004</v>
+        <v>0.041723310681000006</v>
       </c>
     </row>
     <row r="251">
@@ -7075,25 +7093,25 @@
         <v>3</v>
       </c>
       <c r="B251" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/requestlog</v>
+        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
       </c>
       <c r="C251" t="str">
-        <v>Fetch</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D251" t="str">
-        <v>application/json</v>
+        <v>text/css</v>
       </c>
       <c r="E251">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="F251">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="G251">
-        <v>0.00008695308699999998</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H251">
-        <v>0.00011454133860000002</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="252">
@@ -7231,25 +7249,25 @@
         <v>3</v>
       </c>
       <c r="B257" t="str">
-        <v>https://cdn.jsdelivr.net/npm/bootstrap@5.0.0-beta3/dist/css/bootstrap.min.css</v>
+        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
       </c>
       <c r="C257" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D257" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E257">
-        <v>24660</v>
+        <v>681</v>
       </c>
       <c r="F257">
-        <v>154875</v>
+        <v>371</v>
       </c>
       <c r="G257">
-        <v>0.007171448579999999</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H257">
-        <v>0.009446787324000002</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="258">
@@ -7257,25 +7275,25 @@
         <v>3</v>
       </c>
       <c r="B258" t="str">
-        <v>https://content.jwplatform.com/libraries/nbt2Pq9E.js</v>
+        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/grBH8w32naFlyiKkupQ58kaqQuqpSfk4qWcvIkMo5shCWCRXqI53hUt4azxq2HBx22X3KCsvBMN7ljkvmSQeXu_allDVZqmkNVrGswzsQ19LWSVoAv2DhJG30xQNI00ybsk9oEebMGNFV3yCzWNE-7RHkyBcN5xpLkkUNJywrnU/data/Uttrekk?payload=</v>
       </c>
       <c r="C258" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D258" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E258">
-        <v>57440</v>
+        <v>4854</v>
       </c>
       <c r="F258">
-        <v>159622</v>
+        <v>45322</v>
       </c>
       <c r="G258">
-        <v>0.01670429872</v>
+        <v>0.0014116063019999998</v>
       </c>
       <c r="H258">
-        <v>0.022004195616</v>
+        <v>0.0018594771156000003</v>
       </c>
     </row>
     <row r="259">
@@ -7283,25 +7301,25 @@
         <v>3</v>
       </c>
       <c r="B259" t="str">
-        <v>https://nesodden.kommunetv.no/embed/runtime.cec0c2aeee9763fa.js</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
       </c>
       <c r="C259" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D259" t="str">
-        <v>application/javascript</v>
+        <v>font/woff2</v>
       </c>
       <c r="E259">
-        <v>927</v>
+        <v>182654</v>
       </c>
       <c r="F259">
-        <v>1068</v>
+        <v>182292</v>
       </c>
       <c r="G259">
-        <v>0.00026958365099999994</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H259">
-        <v>0.00035511645780000005</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="260">
@@ -7309,25 +7327,25 @@
         <v>3</v>
       </c>
       <c r="B260" t="str">
-        <v>https://nesodden.kommunetv.no/embed/polyfills.57060d43e25ff75c.js</v>
+        <v>https://nesodden.kommunetv.no/api/embed/config</v>
       </c>
       <c r="C260" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D260" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E260">
-        <v>15856</v>
+        <v>551</v>
       </c>
       <c r="F260">
-        <v>37010</v>
+        <v>387</v>
       </c>
       <c r="G260">
-        <v>0.0046111309279999995</v>
+        <v>0.00016023796299999998</v>
       </c>
       <c r="H260">
-        <v>0.006074138678400001</v>
+        <v>0.00021107785140000003</v>
       </c>
     </row>
     <row r="261">
@@ -7335,25 +7353,22 @@
         <v>3</v>
       </c>
       <c r="B261" t="str">
-        <v>https://nesodden.kommunetv.no/embed/main.721229c1e5595d4b.js</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763143347188&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1155340479.1763143347&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~105391252~115583767~115938465~115938468~116194001~116217636~116217638&amp;sid=1763143347&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=551</v>
       </c>
       <c r="C261" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D261" t="str">
-        <v>application/javascript</v>
+        <v>text/plain</v>
       </c>
       <c r="E261">
-        <v>108915</v>
-      </c>
-      <c r="F261">
-        <v>288183</v>
+        <v>554</v>
       </c>
       <c r="G261">
-        <v>0.031673897895</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H261">
-        <v>0.041723310681000006</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="262">
@@ -7361,25 +7376,25 @@
         <v>3</v>
       </c>
       <c r="B262" t="str">
-        <v>https://nesodden.kommunetv.no/embed/styles.eae72988cd519eb0.css</v>
+        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
       </c>
       <c r="C262" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D262" t="str">
-        <v>text/css</v>
+        <v>image/avif</v>
       </c>
       <c r="E262">
-        <v>212</v>
+        <v>89430</v>
       </c>
       <c r="F262">
-        <v>15</v>
+        <v>89300</v>
       </c>
       <c r="G262">
-        <v>0.000061652356</v>
+        <v>0.026007406589999997</v>
       </c>
       <c r="H262">
-        <v>0.00008121325679999999</v>
+        <v>0.034258969602000006</v>
       </c>
     </row>
     <row r="263">
@@ -7387,25 +7402,25 @@
         <v>3</v>
       </c>
       <c r="B263" t="str">
-        <v>https://www.nesodden.kommune.no/templates/assets/js/json-enc.js</v>
+        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
       </c>
       <c r="C263" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D263" t="str">
-        <v>application/javascript</v>
+        <v>image/avif</v>
       </c>
       <c r="E263">
-        <v>681</v>
+        <v>98737</v>
       </c>
       <c r="F263">
-        <v>371</v>
+        <v>98590</v>
       </c>
       <c r="G263">
-        <v>0.00019804365299999995</v>
+        <v>0.028714003180999998</v>
       </c>
       <c r="H263">
-        <v>0.00026087843340000006</v>
+        <v>0.03782430819180001</v>
       </c>
     </row>
     <row r="264">
@@ -7413,25 +7428,25 @@
         <v>3</v>
       </c>
       <c r="B264" t="str">
-        <v>https://www.nesodden.kommune.no/api/presentation/v2/filtervisning/RGlj9jiJ47vB2CwhVtwS-RmC6KMdIwP4zmV2E_Bi7kcia_yS3_REOP5psS1FPMZxblTNecTd0bn0mA5FrVd4YG5x2pBDaMUGtnfZlKiBLEnFYLQdljYpumVTeacrhIPFu46dr_-OXwaMv1qtD81VfKNIaXfHEUm3EpZYUBECzTM/data/Uttrekk?payload=</v>
+        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
       </c>
       <c r="C264" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D264" t="str">
-        <v>text/html</v>
+        <v>image/avif</v>
       </c>
       <c r="E264">
-        <v>4854</v>
+        <v>28268</v>
       </c>
       <c r="F264">
-        <v>45322</v>
+        <v>27933</v>
       </c>
       <c r="G264">
-        <v>0.0014116063019999998</v>
+        <v>0.008220701883999999</v>
       </c>
       <c r="H264">
-        <v>0.0018594771156000003</v>
+        <v>0.010828945015200002</v>
       </c>
     </row>
     <row r="265">
@@ -7439,22 +7454,25 @@
         <v>3</v>
       </c>
       <c r="B265" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-8WGX3H80ZM&amp;gtm=45je5bc1v9198259988za200zd9198259988&amp;_p=1763140939449&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=291600351.1763140940&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1763140939&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nesodden.kommune.no%2F&amp;dt=Nesodden%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=439</v>
+        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
       </c>
       <c r="C265" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D265" t="str">
-        <v>text/plain</v>
+        <v>image/avif</v>
       </c>
       <c r="E265">
-        <v>554</v>
+        <v>491299</v>
+      </c>
+      <c r="F265">
+        <v>490953</v>
       </c>
       <c r="G265">
-        <v>0.00016111040199999997</v>
+        <v>0.14287613608699998</v>
       </c>
       <c r="H265">
-        <v>0.0002122270956</v>
+        <v>0.1882075087386</v>
       </c>
     </row>
     <row r="266">
@@ -7462,25 +7480,25 @@
         <v>3</v>
       </c>
       <c r="B266" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.woff2?t=1760071648894</v>
+        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
       </c>
       <c r="C266" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D266" t="str">
-        <v>font/woff2</v>
+        <v>image/avif</v>
       </c>
       <c r="E266">
-        <v>182654</v>
+        <v>71843</v>
       </c>
       <c r="F266">
-        <v>182292</v>
+        <v>71706</v>
       </c>
       <c r="G266">
-        <v>0.05311815770199999</v>
+        <v>0.020892878358999997</v>
       </c>
       <c r="H266">
-        <v>0.0699713500356</v>
+        <v>0.027521717020200002</v>
       </c>
     </row>
     <row r="267">
@@ -7488,25 +7506,25 @@
         <v>3</v>
       </c>
       <c r="B267" t="str">
-        <v>https://nesodden.kommunetv.no/api/embed/config</v>
+        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
       </c>
       <c r="C267" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D267" t="str">
-        <v>application/json</v>
+        <v>image/avif</v>
       </c>
       <c r="E267">
-        <v>552</v>
+        <v>24767</v>
       </c>
       <c r="F267">
-        <v>387</v>
+        <v>24675</v>
       </c>
       <c r="G267">
-        <v>0.00016052877599999997</v>
+        <v>0.007202565570999998</v>
       </c>
       <c r="H267">
-        <v>0.00021146093280000001</v>
+        <v>0.0094877770338</v>
       </c>
     </row>
     <row r="268">
@@ -7575,16 +7593,16 @@
         <v>application/json</v>
       </c>
       <c r="E270">
-        <v>15245</v>
+        <v>15244</v>
       </c>
       <c r="F270">
         <v>15172</v>
       </c>
       <c r="G270">
-        <v>0.004433444185</v>
+        <v>0.004433153371999999</v>
       </c>
       <c r="H270">
-        <v>0.005840075943000001</v>
+        <v>0.0058396928616</v>
       </c>
     </row>
     <row r="271">
@@ -7601,16 +7619,16 @@
         <v>application/json</v>
       </c>
       <c r="E271">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F271">
         <v>128</v>
       </c>
       <c r="G271">
-        <v>0.00012592202899999998</v>
+        <v>0.00012824853299999998</v>
       </c>
       <c r="H271">
-        <v>0.00016587424620000002</v>
+        <v>0.00016893889740000003</v>
       </c>
     </row>
     <row r="272">
@@ -7722,25 +7740,25 @@
         <v>3</v>
       </c>
       <c r="B276" t="str">
-        <v>https://ucarecdn.com/0d778efb-af45-4e4f-a7e5-3ef74f4028da/-/crop/896x494/4,106/-/preview/</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
       </c>
       <c r="C276" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D276" t="str">
-        <v>image/avif</v>
+        <v>text/javascript</v>
       </c>
       <c r="E276">
-        <v>89430</v>
+        <v>9264</v>
       </c>
       <c r="F276">
-        <v>89300</v>
+        <v>31503</v>
       </c>
       <c r="G276">
-        <v>0.026007406589999997</v>
+        <v>0.0026940916319999997</v>
       </c>
       <c r="H276">
-        <v>0.034258969602000006</v>
+        <v>0.0035488660896000005</v>
       </c>
     </row>
     <row r="277">
@@ -7748,25 +7766,25 @@
         <v>3</v>
       </c>
       <c r="B277" t="str">
-        <v>https://ucarecdn.com/d5a731dc-f1eb-4209-9f0f-df240d48cc44/-/crop/5184x1414/0,29/-/preview/</v>
+        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
       </c>
       <c r="C277" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D277" t="str">
-        <v>image/avif</v>
+        <v>text/javascript</v>
       </c>
       <c r="E277">
-        <v>98970</v>
+        <v>21825</v>
       </c>
       <c r="F277">
-        <v>98590</v>
+        <v>105743</v>
       </c>
       <c r="G277">
-        <v>0.028781762609999997</v>
+        <v>0.006346993724999999</v>
       </c>
       <c r="H277">
-        <v>0.037913566158000005</v>
+        <v>0.008360751555</v>
       </c>
     </row>
     <row r="278">
@@ -7774,25 +7792,25 @@
         <v>3</v>
       </c>
       <c r="B278" t="str">
-        <v>https://ucarecdn.com/47ea95a7-41ac-440e-90d6-d8a994c1aa32/-/crop/862x235/0,99/-/preview/</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
       </c>
       <c r="C278" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D278" t="str">
-        <v>image/avif</v>
+        <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E278">
-        <v>28026</v>
+        <v>471</v>
       </c>
       <c r="F278">
-        <v>27933</v>
+        <v>135</v>
       </c>
       <c r="G278">
-        <v>0.008150325138</v>
+        <v>0.000136972923</v>
       </c>
       <c r="H278">
-        <v>0.010736239316399998</v>
+        <v>0.00018043133940000001</v>
       </c>
     </row>
     <row r="279">
@@ -7800,25 +7818,25 @@
         <v>3</v>
       </c>
       <c r="B279" t="str">
-        <v>https://ucarecdn.com/a5ad2e39-7766-4516-bf90-48463e192da1/-/crop/4032x1100/0,1486/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
       </c>
       <c r="C279" t="str">
         <v>Image</v>
       </c>
       <c r="D279" t="str">
-        <v>image/avif</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E279">
-        <v>491317</v>
+        <v>575</v>
       </c>
       <c r="F279">
-        <v>490953</v>
+        <v>461</v>
       </c>
       <c r="G279">
-        <v>0.142881370721</v>
+        <v>0.00016721747499999997</v>
       </c>
       <c r="H279">
-        <v>0.18821440420380003</v>
+        <v>0.00022027180500000003</v>
       </c>
     </row>
     <row r="280">
@@ -7826,25 +7844,25 @@
         <v>3</v>
       </c>
       <c r="B280" t="str">
-        <v>https://ucarecdn.com/5db75a10-2e3a-436b-849d-bb3756de3d45/-/crop/1280x349/0,151/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
       </c>
       <c r="C280" t="str">
         <v>Image</v>
       </c>
       <c r="D280" t="str">
-        <v>image/avif</v>
+        <v>image/png</v>
       </c>
       <c r="E280">
-        <v>71826</v>
+        <v>5069</v>
       </c>
       <c r="F280">
-        <v>71706</v>
+        <v>4981</v>
       </c>
       <c r="G280">
-        <v>0.020887934537999996</v>
+        <v>0.0014741310969999997</v>
       </c>
       <c r="H280">
-        <v>0.027515204636400004</v>
+        <v>0.0019418396166000003</v>
       </c>
     </row>
     <row r="281">
@@ -7852,25 +7870,25 @@
         <v>3</v>
       </c>
       <c r="B281" t="str">
-        <v>https://ucarecdn.com/c1fa7ac1-7e8d-4e04-9751-98a21dbe96e7/-/crop/851x232/0,42/-/preview/</v>
+        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
       </c>
       <c r="C281" t="str">
         <v>Image</v>
       </c>
       <c r="D281" t="str">
-        <v>image/avif</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E281">
-        <v>24768</v>
+        <v>56889</v>
       </c>
       <c r="F281">
-        <v>24675</v>
+        <v>56773</v>
       </c>
       <c r="G281">
-        <v>0.007202856383999999</v>
+        <v>0.016544060756999997</v>
       </c>
       <c r="H281">
-        <v>0.009488160115200001</v>
+        <v>0.0217931177646</v>
       </c>
     </row>
     <row r="282">
@@ -7878,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="B282" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/provider.cast.js</v>
+        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
       </c>
       <c r="C282" t="str">
         <v>Script</v>
@@ -7887,16 +7905,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E282">
-        <v>9240</v>
+        <v>2534</v>
       </c>
       <c r="F282">
-        <v>31503</v>
+        <v>4272</v>
       </c>
       <c r="G282">
-        <v>0.0026871121199999997</v>
+        <v>0.0007369201419999998</v>
       </c>
       <c r="H282">
-        <v>0.003539672136</v>
+        <v>0.0009707282676</v>
       </c>
     </row>
     <row r="283">
@@ -7904,25 +7922,25 @@
         <v>3</v>
       </c>
       <c r="B283" t="str">
-        <v>https://ssl.p.jwpcdn.com/player/v/8.39.2/related.js</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w982534069_b1590968_ps198000_pd1572000.m3u8</v>
       </c>
       <c r="C283" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D283" t="str">
-        <v>text/javascript</v>
+        <v>application/vnd.apple.mpegurl</v>
       </c>
       <c r="E283">
-        <v>21825</v>
+        <v>628</v>
       </c>
       <c r="F283">
-        <v>105743</v>
+        <v>10407</v>
       </c>
       <c r="G283">
-        <v>0.006346993724999999</v>
+        <v>0.00018263056399999997</v>
       </c>
       <c r="H283">
-        <v>0.008360751555</v>
+        <v>0.0002405751192</v>
       </c>
     </row>
     <row r="284">
@@ -7930,25 +7948,25 @@
         <v>3</v>
       </c>
       <c r="B284" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/playlist.m3u8?wowzaplaystart=198000&amp;wowzaplayduration=1572000</v>
+        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
       </c>
       <c r="C284" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D284" t="str">
-        <v>application/vnd.apple.mpegurl</v>
+        <v>text/javascript</v>
       </c>
       <c r="E284">
-        <v>469</v>
+        <v>12439</v>
       </c>
       <c r="F284">
-        <v>134</v>
+        <v>35946</v>
       </c>
       <c r="G284">
-        <v>0.00013639129699999998</v>
+        <v>0.0036174229069999998</v>
       </c>
       <c r="H284">
-        <v>0.0001796651766</v>
+        <v>0.0047651495346</v>
       </c>
     </row>
     <row r="285">
@@ -7956,25 +7974,25 @@
         <v>3</v>
       </c>
       <c r="B285" t="str">
-        <v>https://nesodden.kommunetv.no/embed/assets/images/video-solid.svg</v>
+        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
       </c>
       <c r="C285" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D285" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E285">
-        <v>552</v>
+        <v>14110</v>
       </c>
       <c r="F285">
-        <v>461</v>
+        <v>48448</v>
       </c>
       <c r="G285">
-        <v>0.00016052877599999997</v>
+        <v>0.00410337143</v>
       </c>
       <c r="H285">
-        <v>0.00021146093280000001</v>
+        <v>0.005405278554</v>
       </c>
     </row>
     <row r="286">
@@ -7982,25 +8000,25 @@
         <v>3</v>
       </c>
       <c r="B286" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/layout/366aac1d-bbab-40eb-a2a0-e6a942c3da97_xsmall.png</v>
+        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w982534069_b1590968_ps198000_pd1572000_0.ts</v>
       </c>
       <c r="C286" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D286" t="str">
-        <v>image/png</v>
+        <v>video/mp2t</v>
       </c>
       <c r="E286">
-        <v>5069</v>
+        <v>2089711</v>
       </c>
       <c r="F286">
-        <v>4981</v>
+        <v>2088492</v>
       </c>
       <c r="G286">
-        <v>0.0014741310969999997</v>
+        <v>0.6077151250429998</v>
       </c>
       <c r="H286">
-        <v>0.0019418396166000003</v>
+        <v>0.8005294154754001</v>
       </c>
     </row>
     <row r="287">
@@ -8008,25 +8026,25 @@
         <v>3</v>
       </c>
       <c r="B287" t="str">
-        <v>https://nesodden.kommunetv.no/uploads/sections/bcbd8311-ad43-4ed9-b06e-90b5fefbeaaf_xlarge.jpg</v>
+        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
       </c>
       <c r="C287" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D287" t="str">
         <v>image/jpeg</v>
       </c>
       <c r="E287">
-        <v>56889</v>
+        <v>41128</v>
       </c>
       <c r="F287">
-        <v>56773</v>
+        <v>40771</v>
       </c>
       <c r="G287">
-        <v>0.016544060756999997</v>
+        <v>0.011960557063999998</v>
       </c>
       <c r="H287">
-        <v>0.0217931177646</v>
+        <v>0.0157553718192</v>
       </c>
     </row>
     <row r="288">
@@ -8034,7 +8052,7 @@
         <v>3</v>
       </c>
       <c r="B288" t="str">
-        <v>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</v>
+        <v>blob:https://nesodden.kommunetv.no/4b87e8b7-d1ef-48df-95e3-f5a9ed341306</v>
       </c>
       <c r="C288" t="str">
         <v>Script</v>
@@ -8043,16 +8061,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E288">
-        <v>2534</v>
+        <v>-1</v>
       </c>
       <c r="F288">
-        <v>4272</v>
+        <v>525144</v>
       </c>
       <c r="G288">
-        <v>0.0007369201419999998</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>0.0009707282676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -8060,186 +8078,30 @@
         <v>3</v>
       </c>
       <c r="B289" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/chunklist_w22938173_b1590968_ps198000_pd1572000.m3u8</v>
+        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
       </c>
       <c r="C289" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D289" t="str">
-        <v>application/vnd.apple.mpegurl</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E289">
-        <v>629</v>
+        <v>81679</v>
       </c>
       <c r="F289">
-        <v>10249</v>
+        <v>81492</v>
       </c>
       <c r="G289">
-        <v>0.00018292137699999996</v>
+        <v>0.023753315026999997</v>
       </c>
       <c r="H289">
-        <v>0.00024095820060000004</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290">
-        <v>3</v>
-      </c>
-      <c r="B290" t="str">
-        <v>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</v>
-      </c>
-      <c r="C290" t="str">
-        <v>Script</v>
-      </c>
-      <c r="D290" t="str">
-        <v>text/javascript</v>
-      </c>
-      <c r="E290">
-        <v>12439</v>
-      </c>
-      <c r="F290">
-        <v>35946</v>
-      </c>
-      <c r="G290">
-        <v>0.0036174229069999998</v>
-      </c>
-      <c r="H290">
-        <v>0.0047651495346</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291">
-        <v>3</v>
-      </c>
-      <c r="B291" t="str">
-        <v>https://www.gstatic.com/eureka/clank/142/cast_sender.js</v>
-      </c>
-      <c r="C291" t="str">
-        <v>Script</v>
-      </c>
-      <c r="D291" t="str">
-        <v>text/javascript</v>
-      </c>
-      <c r="E291">
-        <v>14110</v>
-      </c>
-      <c r="F291">
-        <v>48448</v>
-      </c>
-      <c r="G291">
-        <v>0.00410337143</v>
-      </c>
-      <c r="H291">
-        <v>0.005405278554</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292">
-        <v>3</v>
-      </c>
-      <c r="B292" t="str">
-        <v>https://wms2.aventia.no/arkiv/_definst_/nesodden/arkiv/860_89.smil/media_w22938173_b1590968_ps198000_pd1572000_0.ts</v>
-      </c>
-      <c r="C292" t="str">
-        <v>XHR</v>
-      </c>
-      <c r="D292" t="str">
-        <v>video/mp2t</v>
-      </c>
-      <c r="E292">
-        <v>2089711</v>
-      </c>
-      <c r="F292">
-        <v>2088492</v>
-      </c>
-      <c r="G292">
-        <v>0.6077151250429998</v>
-      </c>
-      <c r="H292">
-        <v>0.8005294154754001</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293">
-        <v>3</v>
-      </c>
-      <c r="B293" t="str">
-        <v>blob:https://nesodden.kommunetv.no/fca32aa3-218b-4dd5-985f-166337413e3c</v>
-      </c>
-      <c r="C293" t="str">
-        <v>Script</v>
-      </c>
-      <c r="D293" t="str">
-        <v>text/javascript</v>
-      </c>
-      <c r="E293">
-        <v>-1</v>
-      </c>
-      <c r="F293">
-        <v>525144</v>
-      </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-      <c r="H293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294">
-        <v>3</v>
-      </c>
-      <c r="B294" t="str">
-        <v>https://hub.aventia.no/resources/defaults/default-camera.jpg</v>
-      </c>
-      <c r="C294" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D294" t="str">
-        <v>image/jpeg</v>
-      </c>
-      <c r="E294">
-        <v>81679</v>
-      </c>
-      <c r="F294">
-        <v>81492</v>
-      </c>
-      <c r="G294">
-        <v>0.023753315026999997</v>
-      </c>
-      <c r="H294">
         <v>0.0312897056706</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295">
-        <v>3</v>
-      </c>
-      <c r="B295" t="str">
-        <v>https://www.nesodden.kommune.no/handlers/bv.ashx/i3361366f-b44c-4210-a555-3a14188c526a/nk-kommunevapen.jpg</v>
-      </c>
-      <c r="C295" t="str">
-        <v>Other</v>
-      </c>
-      <c r="D295" t="str">
-        <v>image/jpeg</v>
-      </c>
-      <c r="E295">
-        <v>41128</v>
-      </c>
-      <c r="F295">
-        <v>40771</v>
-      </c>
-      <c r="G295">
-        <v>0.011960557063999998</v>
-      </c>
-      <c r="H295">
-        <v>0.0157553718192</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H295"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H289"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8273,10 +8135,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>89382</v>
+        <v>85676</v>
       </c>
       <c r="D2">
-        <v>258489</v>
+        <v>255258</v>
       </c>
     </row>
     <row r="3">
@@ -8287,7 +8149,7 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>531184</v>
+        <v>531185</v>
       </c>
       <c r="D3">
         <v>2868567</v>
@@ -8301,10 +8163,10 @@
         <v>105</v>
       </c>
       <c r="C4">
-        <v>2334528</v>
+        <v>2334553</v>
       </c>
       <c r="D4">
-        <v>9171937</v>
+        <v>9171910</v>
       </c>
     </row>
     <row r="5">
@@ -8312,10 +8174,10 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>6405200</v>
+        <v>6405010</v>
       </c>
       <c r="D5">
         <v>6399708</v>
@@ -8329,7 +8191,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1490936</v>
+        <v>1490931</v>
       </c>
       <c r="D6">
         <v>1488000</v>
@@ -8357,10 +8219,10 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>6342321</v>
+        <v>6342349</v>
       </c>
       <c r="D8">
-        <v>6486387</v>
+        <v>6486546</v>
       </c>
     </row>
     <row r="9">
@@ -8410,13 +8272,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5775652</v>
+        <v>5772009</v>
       </c>
       <c r="C2">
-        <v>1.6796346850759998</v>
+        <v>1.6785752533169997</v>
       </c>
       <c r="D2">
-        <v>2.2125448540728003</v>
+        <v>2.2111492885326003</v>
       </c>
     </row>
     <row r="3">
@@ -8424,13 +8286,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5772039</v>
+        <v>5771797</v>
       </c>
       <c r="C3">
-        <v>1.6785839777069997</v>
+        <v>1.6785136009609998</v>
       </c>
       <c r="D3">
-        <v>2.2111607809746</v>
+        <v>2.2110680752758003</v>
       </c>
     </row>
     <row r="4">
@@ -8438,13 +8300,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5771803</v>
+        <v>5771841</v>
       </c>
       <c r="C4">
-        <v>1.6785153458389999</v>
+        <v>1.678526396733</v>
       </c>
       <c r="D4">
-        <v>2.2110703737642003</v>
+        <v>2.2110849308574</v>
       </c>
     </row>
     <row r="5">
@@ -8452,13 +8314,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5772039</v>
+        <v>5771841</v>
       </c>
       <c r="C5">
-        <v>1.6785839777069997</v>
+        <v>1.678526396733</v>
       </c>
       <c r="D5">
-        <v>2.2111607809746</v>
+        <v>2.2110849308574</v>
       </c>
     </row>
   </sheetData>
